--- a/results/f1_score_bank_corpusgen.xlsx
+++ b/results/f1_score_bank_corpusgen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L670"/>
+  <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,21 @@
           <t>precision_microsoft</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>microsoft_dlm</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>recall_microsoft_dlm</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>precision_microsoft_dlm</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,6 +547,13 @@
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Non, je l'attends par la poste. Moi, je viens de payer 10 piasses. Je voudrais savoir si c'est confirmé, si ça été payé, je l'ai fait par accéder là.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -570,6 +592,13 @@
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Non, je l'attends par la poste. Moi j'ai de payer 10 piasses. Je voudrais voir si c'est confirmé, si ça été payé. Je l'ai faite par accès d là.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,6 +637,13 @@
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Non, je l'attends par la poste. Moi j'ai de payer 10 piasses. Je voudrais voir si c'est confirmé, si ça a été payé, je l'ai fait avec accès d là.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -646,6 +682,13 @@
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Oui, bon Ben j'ai attendu pas mal la dernière minute. Là je dois créer un nouveau compte en ligne parce que mon autre côté. Mon autre compte est fermé, mon autre façon d'aller en ligne est fermée.</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -684,6 +727,13 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Oui, bon Ben j'ai attendu pas mal la dernière minute. Là je dois créer un nouveau compte en ligne parce que mon autre côté mon autre compte est fermé. Mon autre façon d'aller en ligne est fermée.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -722,6 +772,13 @@
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Oui, écoutez, j'appelle parce qu'on m'a dit que ma ligne avait avec ma banque, bla-bla-bla. En ligne, avait été interrompue et on m'a dit d'appeler au numéro que j'ai déjà signalé et auquel vous répondez.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -760,6 +817,13 @@
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Oui, écoutez, j'appelle parce qu'on m'a dit que ma ligne avec ma banque en ligne avait été interrompue et on m'a dit d'appeler au numéro que j'ai déjà signalé et auquel vous répondez.</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -798,6 +862,13 @@
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Écoutez, j'appelle parce qu'on m'a dit que ma ligne avait avec ma banque en ligne, avait été interrompue et on m'a dit d'appeler au numéro que j'ai déjà signalé et auquel vous répondez.</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -836,6 +907,13 @@
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour Monsieur, j'appelle pour un renseignement. En fait, j'aimerais créer mon compte en ligne pour en fait ma compagnie de gestion.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -874,6 +952,13 @@
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour Monsieur, j'appelle pour un renseignement. En fait, j'aimerais créer mon compte en ligne pour en fait ma compagnie de gestion.</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -912,6 +997,13 @@
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Moi j'ai un problème, je voudrais, je sais pas si ça ça fonctionne pas. Je me suis connecté à la Banque nationale là et pour payer, transférer puis envoyer des sous là ça marche pas.</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -950,6 +1042,13 @@
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Moi j'ai un problème, je voudrais, je sais pas ça, ça fonctionne pas. Je me suis connecté à la Banque nationale là. Et pour payer, transférer puis envoyer des sous, là ça marche pas.</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -988,6 +1087,13 @@
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Moi j'ai un problème, je voudrais, je sais pas ça, ça fonctionne pas. Je me suis connecté à la Banque nationale là et pour payer, transférer puis envoyer des sous, là ça marche pas.</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1026,6 +1132,13 @@
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Parce que je suis perdu mon carte.</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1064,6 +1177,13 @@
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Parce que je suis perdu mon carte.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1102,6 +1222,13 @@
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Ben c'est que moi j'ai y a un dépôt dans mon compte ok de commercial de 1510 et 65 c'est marqué, transmis et metteur 10421 j'aimerais savoir de où ça provient parce que je suis pas je suis pas sûr que si c'est la la bonne personne qui m'a envoyé l'argent.</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1140,6 +1267,13 @@
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Ben c'est que moi je j'ai y a un dépôt dans mon compte, okay? Le commercial de 1510 et 65 c'est marqué, transmis et metteur 10421 j'aimerais savoir de où ça provient? Parce que je suis pas, je suis pas sûre que si c'est la mer, la bonne personne qui m'a envoyé l'argent.</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1178,6 +1312,13 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Ben c'est que moi je j'ai y a un dépôt dans mon compte okay de commercial de 1510 et 65 c'est marqué transmis, émetteur 10421 j'aimerais savoir de où ça provient parce que je suis pas, je suis pas sûre que si c'est la même la bonne personne qui m'a envoyé l'argent.</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1216,6 +1357,13 @@
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>En fait. Actuellement, j'ai reçu aujourd'hui une nouvelle carte, j'ai j'ai pas demandé une carte de remplacement ni de changer ma carte et sur la lettre ils me disent que pour prévention de la fraude. J'aimerais juste savoir si c'est une politique de Mastercard de pouvoir envoyer une carte avant expiration?</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1254,6 +1402,13 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>En fait. Actuellement, j'ai reçu aujourd'hui une nouvelle carte, j'ai j'ai pas demandé une carte de remplacement ni de changer ma carte. Et sur la lettre, ils me disent que pour une prévention de la fraude, j'aimerais juste savoir si c'est une politique de Mastercard de pouvoir envoyer une carte avant l'expiration.</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1292,6 +1447,13 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. En fait, j'ai un dossier avec vous, mot. Dans le transfert de prêt hypothécaire à vous à la banque nationale. Et je voulais parler dans le fond avec quelqu'un pour pour voir, j'aimerais faire des des projets puis savoir si c'est possible de faire avec mon dossier.</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1330,6 +1492,13 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour en fait, j'ai un dossier avec vous dans le transfert de prêt hypothécaire à vous à la banque nationale et je voudrais parler dans le fond avec quelqu'un pour pouvoir j'aimerais faire des des projets puis savoir si c'est possible de faire avec mon dossier.</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1368,6 +1537,13 @@
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour en fait, j'ai un dossier avec vous dans le transfert de prêt hypothécaire à vous à la banque nationale et je voudrais parler dans le fond avec quelqu'un pour pour voir j'aimerais faire des des projets puis savoir si c'est possible de faire avec mon dossier.</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1406,6 +1582,13 @@
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Oui, moi j'ai des achats en ligne qui ont été faits effectuer sur ma carte de crédit, puis je vois pas que ce soit moi qui les ai fait. Puis à moins que tu sois capable de me mentionner vraiment c'est quoi l'achat.</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1444,6 +1627,13 @@
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Oui, moi j'ai des achats en ligne qui ont été faits effectuer sur ma carte de crédit, puis je vois pas que ce soit moi qui les a fait là. Puis à moins que tu sois capable de me mentionner vraiment c'est quoi l'achat.</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1482,6 +1672,13 @@
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>D'accord, je dois, pour faire ça rapidement, je dois subir une intervention chirurgicale qui me coûte 5000,00$, c'est payable comptant. J'ai bien sûr l'argent dans mon compte d'épargne. Mais j'ai pas accès avec ma carte débit à mon compte d'épargne puis je pense que pour mon compte régulier, là je suis bloquée à 1000$. Alors ce que j'aimerais c'est d'avoir accès à mon compte d'épargne et aussi que je puisse aller au moins jusqu'à 5000$.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1520,6 +1717,13 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>D'accord, je dois, pour faire ça rapidement, je dois subir une intervention chirurgicale qui m'écoute 5000,00$, c'est payable comptant. J'ai bien sûr l'argent dans mon compte d'épargne, mais j'ai pas accès avec ma carte de débit à mon compte d'épargne. Puis je pense que pour mon compte régulier, là je suis bloquée à 1000$ alors. Ce que j'aimerais, c'est d'avoir accès à mon compte d'épargne et aussi que je puisse aller au moins jusqu'à 5000$.</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1558,6 +1762,13 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Je voudrais activer la carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1596,6 +1807,13 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Je voudrais activer la carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1634,6 +1852,13 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Je voudrais activer la carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1672,6 +1897,13 @@
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Parce que vous avez enlevé l'ancienne version, puis moi je roulais seulement avec celle-là. Et puis la nouvelle, je suis pas capable d'aller dessus parce que j'ai changé de courriel entre-temps. Et puis samedi, je suis connectée, mais je suis pas capable de de de rien faire avec.</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1710,6 +1942,13 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Parce que vous avez enlevé l'ancienne version, puis moi je roulais seulement avec celle-là, puis là la nouvelle je suis pas capable d'aller dessus parce que j'ai changé de courriel entre-temps. Et puis samedi je suis connecté, mais je suis pas capable de de de rien faire avec.</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1748,6 +1987,13 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Parce que vous avez enlevé l'ancienne version, puis moi je roulais seulement avec celle-là. Et puis la nouvelle je suis pas capable d'aller dessus parce que j'ai changé de courriel entre-temps. Et puis samedi, je suis connectée, mais je suis pas capable de de de rien faire avec.</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1786,6 +2032,13 @@
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, c'est parce qu'il y a un montant qui s'est déposé dans notre compte, puis on s'est passé quoi?</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1824,6 +2077,13 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, c'est parce qu'il y a un montant qui s'est déposé dans notre compte, puis on sait pas c'est quoi.</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1862,6 +2122,13 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, c'est parce qu'il y a un montant qui s'est déposé dans dans notre compte, puis on sait pas c'est quoi.</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1900,6 +2167,13 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Non, non, j'appelais justement pour signaler, parce que j'ai oublié mon ma trousse là dans le métro.</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1938,6 +2212,13 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Non, non, j'appelais juste pour signaler parce que je viens d'oublier mon ma trousse, là dans le métro.</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1988,6 +2269,17 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'aimerais faire un retrait de mon celi. Par contre, je sais qu'il y a des fonds mutuels, donc je sais pas si vous pouvez m'aider.</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2038,6 +2330,17 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'aimerais faire un retrait de mon celi. Par contre je sais qu'ils ont des fonds mutuels, donc je sais pas si vous pouvez m'aider.</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2086,6 +2389,15 @@
         <v>0</v>
       </c>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'aimerais faire un retrait de mon CD, par contre je sais qu'ils ont des fonds mutuels donc je sais pas si vous pouvez m'aider.</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2124,6 +2436,13 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Bon, moi là, à un moment donné, là j'ai fait un achat puis j'ai mis ça sur 12 paiements mots. Là, ça passe mot Desjardins.</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2162,6 +2481,13 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Bon, moi là, à un moment donné, là j'ai fait un achat puis j'ai mis ça sur 12 paiements, bla-bla-bla, là ça passe. Blablabla Desjardins.</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2200,6 +2526,13 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Bon, moi là, à un moment donné, là j'ai fait un achat puis j'ai mis ça sur 12 paiements là là ça passe la Desjardins.</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2238,6 +2571,13 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Oui, salut. Oui, j'ai un montant qui est passé dans mon compte de banque, puis j'aimerais ça savoir c'était quoi.</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2276,6 +2616,13 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Oui, salut. Oui, j'ai un montant qui est passé dans mon compte de banque, puis j'aimerais ça savoir c'était quoi.</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2314,6 +2661,13 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Hein? C'est à cause que moi j'ai un montant d'argent qui se prend pour mes finances. Puis il se prend le vendredi, je voudrais faire changer ça pour le jeudi.</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2352,6 +2706,13 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C'est à cause que moi j'ai, j'ai un montant d'argent qui se prend pour mes finances. Puis il se prend le vendredi, je voudrais le faire changer pour le jeudi.</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2390,6 +2751,13 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Oui, écoutez, je vais faire une grosse transaction avec ma carte de crédit et je veux juste que ça ça puisse passer.</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2428,6 +2796,13 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Écoutez, je vais faire une grosse transaction avec ma carte de crédit et et je veux juste que ça ça puisse passer.</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2466,6 +2841,13 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Ben, c'est ça, moi, j'avais bruit. Une entente de paiement pour payer ma Mastercard là, qui est en souffrance depuis quelque temps. C'est que les dates mot correspondent pas du tout là. Quand que j'ai pris l'entente avec le Monsieur, ça a été fait rapidement. C'est un Monsieur Adamo qui s'appelle j'aurais j'aurais aimé changer les dates parce que là ça me cause des problèmes. Je me retrouve avec des négatifs dans mon compte puis c'est pas en avance pour moi là.</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2504,6 +2886,13 @@
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Ben, c'est ça, moi, j'avais. Une entente de paiement pour payer ma Mastercard là qui est en France depuis quelques temps? C'est que les dates de la bla-bla correspondent pas du tout là, quand ce que j'ai pris l'entente avec le monsieur. C'est différent rapidement ce Monsieur Adamo qui s'appelle. J'aurais. J'aurais aimé changer les dates parce que là ça me cause des problèmes. Je me retrouve avec des négatifs dans mon compte puis. C'est pas en avance pour moi là.</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2542,6 +2931,13 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Ben, c'est ça? Moi, j'avais une entente de paiement pour payer ma Mastercard là qui est en souffrance depuis quelque temps, c'est que les dates de correspondent pas du tout là quand que j'ai pris l'entente avec le Monsieur, ça a été fait rapidement et c'est un Monsieur Adamo qui s'appelle j'aurais j'aurais aimé changer les dates parce que là ça me cause des problèmes. Je me retrouve avec des négatifs dans mon compte puis c'est pas en avance pour. Voilà.</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2580,6 +2976,13 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Un mois dans le fond, là j'ai mon adresse e-mail, là elle n'est pas comme j'ai plus mon mon ça fait des années, mettons que j'utilise pas, puis je sais pas, mettons mon code, je sais même pas c'est quoi puis là je peux plus rentrer, mettons pour aller voir mon chômage, je peux pas aller voir pour ma banque en ligne, je peux pas rien faire.</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2618,6 +3021,13 @@
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Moi, dans le fond, là j'ai mon mon adresse e-mail, là elle est pas comme j'ai plus mon ça fait des années, mettons que je l'utilise, que je l'utilise pas puis je sais pas, mettons mon code, je sais même pas c'est quoi puis là je peux plus rentrer mettons pour aller voir mon chômage, je peux pas aller voir pour ma banque en ligne je peux pas rien faire.</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2656,6 +3066,13 @@
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>C'est parce que moi j'arrive la banque et puis là ce qui arrive, c'est qu'il y a un montant qui a passé le le premier décembre, donc aujourd'hui de 288 et 75 pis on voulait savoir ça vient d'où?</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2694,6 +3111,13 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C'est parce que moi j'arrive de la banque et puis là ce qui arrive c'est que y a un montant qui a passé le le premier décembre donc aujourd'hui. De 288 et 75. Puis on voulait savoir si ça vient d'où?</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2732,6 +3156,13 @@
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>C'est parce que moi j'arrive de la banque et puis là ce qui arrive c'est que y a un montant qui a passé le le premier décembre, donc aujourd'hui de 288 et 75 pis on voulait savoir ça vient d'où?</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2770,6 +3201,13 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Je souhaite payer ma carte de crédit, ça fait vraiment des semaines puis ça fonctionne pas. J'ai essayé de la payer avec ma marge de crédit puis ça a l'air que c'est ça semblerait comme si c'était au niveau de la marge de crédit, ça bloque.</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2808,6 +3246,13 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>J'essaie de payer ma carte de crédit, ça fait vraiment des semaines, puis ça ne fonctionne pas. J'ai essayé de la payer avec ma marge de crédit, puis ça a l'air que c'est ça semblerait comme si c'était au niveau de la marge de crédit. Ça bloque.</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2846,6 +3291,13 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>J'ai 7 payer ma carte de crédit, ça fait vraiment des semaines puis ça fonctionne pas. J'essaie de la payer avec ma marge de crédit puis ça a l'air que c'est ça semblerait comme si c'était au niveau de la marge de crédit, ça bloque.</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2884,6 +3336,13 @@
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le fond, j'ai un placement avec vous qui est que terme vient de ce mot en ce moment même dans un de mes placements, je voulais savoir qu'est-ce que vous me conseillez de plus par rapport à mes, à moi, à mes choix à moi? Parce que j'aime bien ça quand même de de mettre des sous dans mon placement quand même quand je peux en mettre. Puis je voulais savoir si vous avez quelque chose de mieux comme placement pour corriger à chaque fois à à faire un nouveau placement là. </t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2922,6 +3381,13 @@
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Dans le fond, j'ai un placement avec vous qui. Que le terme vient de se bla-bla-bla en ce moment même dans un de mes placements. Puis je voulais savoir, qu'est-ce que vous me conseillez de plus par rapport à mes? À moi, à mes choix, à moi, parce que moi j'aime bien ça quand même de. De mettre des sous dans mon placement quand même quand je peux en mettre. Puis je voulais savoir si vous avez quelque chose de mieux comme placement pour pas que j'aie à chaque fois à. À faire un nouveau placement là?</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2960,6 +3426,13 @@
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Dans le fond, j'ai un placement avec vous qui est que le terme vient de ce blog renoncement mais dans la de mes placements. Mais je voulais savoir, qu'est-ce que vous me conseillez de plus par rapport à mes, à moi, à mes choix, à moi, parce que moi j'aime bien ça quand même de de mettre des sous dans mon placement quand même quand je peux n'en mettre. Puis je voulais savoir si vous avez quelque chose de mieux. Comme placement pour pas que j'aille à chaque fois à à faire un nouveau placement là.</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2998,6 +3471,13 @@
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Bonjour, j'appelle parce que j'ai appelé tantôt pour faire mon destinataire, ça marchait pas puis là j'essaie de transférer les fonds puis ça fonctionne pas encore.</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3036,6 +3516,13 @@
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Bonjour, j'appelle parce que j'ai appelé tantôt pour faire mon destinataire. Ça marchait pas puis là j'essaie de transférer les fonds, puis ça fonctionne pas encore.</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3074,6 +3561,13 @@
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Bonjour, j'appelle parce que j'ai appelé tantôt pour faire mon destinataire blabla ça marchait pas puis là j'essaie de transférer les fonds puis ça fonctionne pas encore.</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3112,6 +3606,13 @@
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Ce qui est arrivé, c'est que hier, là, sur Internet, j'ai fait une demande de transférer 200$ de mon compte à mon régime de retraite. Là quand j'ai fait ça, là ça m'a rapporté directement. Il dit qu'on peut pas conclure votre transaction là là pour réessayer tantôt.</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3150,6 +3651,13 @@
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Ce qui est arrivé, c'est que hier, là, je sur Internet, j'ai fait une demande de transférer de 100$ de mon compte à mon mon régime de retraite là quand j'ai fait ça, là ça m'a rapporté directement. Il dit que en peut pas conclure votre transaction là là pour réessayer tantôt.</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3188,6 +3696,13 @@
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Ce qui est arrivé, c'est que hier, là, sur Internet, j'ai fait une demande de transférer 200$ de mon compte à mon mon régime de retraite. Là quand j'ai fait ça, là ça m'a rapporté directement. Il dit que on peut pas conclure votre transaction là là pour réessayer tantôt.</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3226,6 +3741,13 @@
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Ce s'il vous plaît à propos de la carte de crédit, s'il vous plaît, est-ce que je peux faire une carte? Je peux faire une demande de carte de crédit ou Mastercard ou je sais pas?</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3264,6 +3786,13 @@
       </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>S'il vous plaît à propos de la carte de crédit, s'il vous plaît, est-ce que je peux faire une carte? Je peux faire une demande de carte de crédit ou Mastercard ou je sais pas?</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3302,6 +3831,13 @@
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Je j'aimerais avoir le solde de mon hypothèque que j'ai chez vous.</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3340,6 +3876,13 @@
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>J'aimerais voir le solde de mon hypothèque que j'ai chez vous.</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3378,6 +3921,13 @@
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>J'aimerais avoir le solde de mon hypothèque que j'ai chez vous.</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3416,6 +3966,13 @@
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. En fait, moi j'essaie de me connecter à votre nouvelle application banque nationale, moi j'utilisais l'ancienne version et puis j'ai changé de courriel d'identification, mais là j'arrive pas à m'brancher sur votre nouvelle application.</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3454,6 +4011,13 @@
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. En fait, moi j'essaie de me connecter à votre nouvelle application banque nationale. Moi j'utilise l'ancienne version, puis j'ai changé de courriel, des notifications, mais là j'arrive pas à m'brancher sur votre nouvelle application.</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3492,6 +4056,13 @@
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Sur cette plateforme là, sur l'ancienne version, je pouvais demander de voir mes transactions de la plus récente à la plus ancienne ou le contraire. Je pouvais changer ça, vous voyez ce que je veux dire?</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3530,6 +4101,13 @@
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Sur cette plateforme là, sur l'ancienne version, je pouvais demander de voir mes transactions de la plus récente à la plus ancienne ou le contraire. Je pouvais changer ça, vous voyez ce que je veux dire?</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3568,6 +4146,13 @@
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Sur cette plateforme là, sur l'ancienne version, je pouvais demander de voir mes transactions de la plus récente à la plus ancienne ou le contraire. Je pouvais changer ça, vous voyez ce que je veux dire?</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3606,6 +4191,13 @@
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>J'appelle pour avoir de l'information sur un taux hypothécaire pour acheter une maison.</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3644,6 +4236,13 @@
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>J'appelle pour avoir de l'information sur un taux hypothécaire pour acheter une maison.</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3682,6 +4281,13 @@
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Bon mot, ça fait longtemps que j'appelle là, c'est parce que j'ai acheté un nouveau téléphone, puis j'ai essayé de mettre ma carte. La carte de débit sur mon iPhone. Ça me demande, ça me dit d'appeler ça dit pour samedi, appeler le 188888356281 pour vérifier votre carte avec Apple P.</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3720,6 +4326,13 @@
       </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Bon Ben ça fait longtemps que j'appelle là là c'est parce que j'ai acheté un nouveau téléphone et puis j'ai essayé de mettre ma carte la carte débit sur mon iPhone puis ça me demande samedi d'appeler ça dit ça me dit d'appeler le 18888356281 pour vérifier votre carte avec Apple P.</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3758,6 +4371,13 @@
       </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Bon blabla, ça fait longtemps que j'appelle là, c'est parce que j'ai acheté un nouveau téléphone et puis j'ai essayé de mettre ma carte la carte débit sur mon iPhone puis ça me demande ça me dit d'appeler ça dit pour samedi appeler le 18888356281 pour vérifier votre carte avec Apple Pay.</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3796,6 +4416,13 @@
       </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'appelle parce que j'achète pour me en magazine, pour acheter des meubles, mais j'ai dépassé ma limite de ce que je peux dépenser par jour.</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3834,6 +4461,13 @@
       </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'appelle parce que j'achète pour un magazine, pour acheter des meubles, mais j'ai dépassé ma limite de ce que je peux dépenser par jour.</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3872,6 +4506,13 @@
       </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'appelle parce que j'achète pour on magazine, pour acheter des meubles, mais j'ai dépassé ma limite de ce que je peux dépenser par jour.</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3910,6 +4551,13 @@
       </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>En fait, j'ai besoin de faire réactiver mes transferts interac parce que l'autre jour, j'ai essayé trop de fois la date d'expiration, là, pis j'avais pas ma carte avec moi, pis ça a désactivé.</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3948,6 +4596,13 @@
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>En fait, j'ai besoin de faire réactiver mes transferts interac parce que l'autre jour, j'ai essayé trop de fois la date d'expiration là, puis j'avais pas ma carte avec moi pis ça désactivé.</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3986,6 +4641,13 @@
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>En fait, j'ai besoin de faire réactiver mes transferts interac parce que l'autre jour, j'ai essayé trop de fois la date d'expiration, là, pis j'avais pas ma carte avec moi, pis ça a désactivé.</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4024,6 +4686,13 @@
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'aimerais ça avoir de l'information sur des une transaction dans le fond, je me demande si je peux faire ça sur mon site en ligne dans le fond, moi je paye un loyer tous les mois pour mon entreprise, avant je payais ça par chèque mais là on m'offre dans le fond, ils m'ont dit leur spécimen de chèque avec leur adresse de courriel. Pis ça a l'air qu'avec ça, je serais capable en ligne de programmer un paiement tous les mois. J'essaie de voir comment je sais pas si vous pouvez m'aider avec ça.</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4062,6 +4731,13 @@
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'aimerais ça avoir de l'information sur des une transaction dans le fond, je me demande si je peux faire ça sur mon site en ligne dans le fond, moi je paye un loyer tous les mois pour mon entreprise, avant je payais ça par chèque mais là on m'offre dans le fond, ils m'ont fourni leur spécimen de chèque avec leur adresse de courriel. Pis ça a l'air qu'avec ça, je serais capable en ligne de programmer un paiement tous les mois. J'essaie de voir comment je sais pas si vous pouvez m'aider avec ça.</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4100,6 +4776,13 @@
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'aimerais ça avoir de l'information sur des une transaction dans le fond, je me demande si je peux faire ça sur mon site en ligne dans le fond, moi je paye un loyer tous les mois pour mon entreprise, avant je payais ça par chèque mais là on m'offre dans le fond, ils m'ont fourni leur spécimen de chèque avec leur adresse de courriel. Pis ça a l'air qu'avec ça, je serais capable d'en ligne de programmer un paiement tous les mois. J'essaie de voir comment je sais pas si vous pouvez m'aider avec ça.</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4138,6 +4821,13 @@
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Ben, j'aimerais ça dans le fond, j'ai pas 9500$ là parce que j'aimerais ça pouvoir continuer de payer mon prêt.</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4176,6 +4866,13 @@
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Ben, j'aimerais ça dans le fond, j'ai pas 9500$ là parce que j'aimerais ça pouvoir continuer de payer mon prêt.</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4214,6 +4911,13 @@
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Ben, j'aimerais ça dans le fond, j'ai pas 9500$ là parce que j'aimerais ça pouvoir continuer de payer mon prêt.</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4252,6 +4956,13 @@
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Oui, c'est ça. J'ai tenté à 2 reprises de faire une transaction pour un club de motoneige, puis c'est c'est c'est, je tombe en erreur.</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4290,6 +5001,13 @@
       </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Oui, c'est ça. J'ai tenté à 2 reprises de faire une transaction pour un club de motoneige, puis c'est c'est c'est, je tombe en erreur.</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4328,6 +5046,13 @@
       </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Oui, c'est ça. J'ai tenté à 2 reprises de faire une transaction pour un club de motoneiges, mais c'est c'est c'est. Je tombe en erreur.</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4366,6 +5091,13 @@
       </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Bon, écoutez, est-ce que je voudrais parler à Monsieur qui s'appelle Mourad, s'il vous plaît?</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4404,6 +5136,13 @@
       </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Bon, écoutez. Est-ce que je voudrais parler à Monsieur qui s'appelle Mourad, s'il vous plaît?</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4442,6 +5181,13 @@
       </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Bon, écoutez, est-ce que je voudrais parler à Monsieur qui s'appelle Mourad, s'il vous plaît?</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4492,6 +5238,17 @@
       <c r="L105" t="n">
         <v>1</v>
       </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, je sais pas si je suis au bon endroit, moi j'ai des prélèvements qui se font dans mon compte qui s'en vont dans mon celi, puis j'aurais aimé le faire arrêter.</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4540,6 +5297,17 @@
         <v>1</v>
       </c>
       <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, je sais pas si je suis au bon endroit, moi j'ai des prélèvements qui se font dans mon compte qui s'en vont dans mon celi, puis j'aurais aimé le faire arrêter.</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,6 +5348,13 @@
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Bon ici, c'est parce que c'est une lettre que blabla que j'avais reçu par la malle et puis la blabla de ma banque elle m'a dit d'appeler pour demander. Au mois de novembre, le 19, il y avait eu un montant de déposé de 300. Puis moi je vois pas mon relevé, je l'ai par alors je peux pas voir si ça a été déposé.</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4618,6 +5393,13 @@
       </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Bon ici, c'est parce que c'est une lettre que Ben que j'avais reçu par la malle. Et puis là Sana de ma banque elle m'a dit de d'appeler pour demander. Au mois de novembre, le 19, il y avait eu un montant de déposé de 300. Puis moi je vois pas mon relevé, je l'ai pas, alors je peux pas voir si ça a été déposé.</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4656,6 +5438,13 @@
       </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Bon ici, c'est parce que c'est une lettre que mon. Que j'avais reçu par la malle et puis là mon de ma banque, elle m'a dit de d'appeler pour demander. Au mois de novembre, le 19, il y avait eu un montant de déposé de 300. Puis moi je vois pas mon relever, je l'ai pas, alors j'ai pu pas voir si ça a été déposé.</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4694,6 +5483,13 @@
       </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'ai j'ai ouvert une entreprise, je suis allé chercher, j'ai eu ma carte bancaire hier, je voudrais avoir un accès internet.</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4732,6 +5528,13 @@
       </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'ai j'ai ouvert une entreprise, je suis allé chercher, j'ai eu ma carte bancaire hier, je voudrais avoir un accès à Internet.</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4770,6 +5573,13 @@
       </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'ai j'ai ouvert une entreprise, je suis allée chercher, j'ai eu ma carte bancaire hier je voudrais avoir un accès à Internet.</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4814,6 +5624,15 @@
         <v>0</v>
       </c>
       <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Allô, oui, Bonjour, ce serait pour mon style D dans le fond je voudrais faire de l'épargne systématique à chaque semaine.</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4864,6 +5683,17 @@
       <c r="L114" t="n">
         <v>1</v>
       </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Allô, oui, Bonjour, ce serait pour mon celi dans le fond, je voudrais faire de l'épargne systématique à chaque semaine.</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4912,6 +5742,17 @@
         <v>1</v>
       </c>
       <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Allô, oui, Bonjour, ce serait pour mon celi dans le fond, je voudrais faire de la pensée systématique à chaque semaine.</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,6 +5793,13 @@
       </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>C'est beau, c'est beau, c'est parce que je j'ai appelé la banque nationale, mais c'est parce que cette semaine, la banque la carte de crédit à enlevé tout mon argent dans mon compte.</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4990,6 +5838,13 @@
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>C'est beau, c'est beau, c'est parce que j'ai appelé la banque nationale, mais c'est parce que cette semaine, la banque la carte de crédit à enlevé tout mon argent dans mon compte.</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5028,6 +5883,13 @@
       </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>C'est beau, c'est beau, c'est parce que je j'ai appelé la banque nationale, mais c'est parce que cette semaine, la banque la carte de crédit ont enlevé tout mon argent dans mon compte.</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5076,6 +5938,15 @@
         <v>0</v>
       </c>
       <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Oui, je pense que j'étais avec vous, y'a pas longtemps concernant le transfert de compte de points pour le. Oui, donc c'est plus avantageux juste pour. À titre informatif, pour payer la carte de crédit ou pour les points voyages. En fait, c'est plus avantageux ces lits parce que c'est 25000 points pour 100$.</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5124,6 +5995,17 @@
         <v>0</v>
       </c>
       <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Oui, je pense que j'étais avec vous. Il n'y a pas longtemps. Concernant le transfert de compte de points pour le. Oui, donc c'est plus avantageux juste pour. À titre informatif, pour payer la carte de crédit ou pour les points voyages. En fait, c'est plus avantageux, celi parce que c'est 25000 points pour 100$.</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5172,6 +6054,17 @@
         <v>1</v>
       </c>
       <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Oui, je pense que j'étais avec vous. Il n'y a pas longtemps, ce qui, concernant le transfert de compte de points pour le bouilli donc, c'est plus avantageux juste pour. À titre informatif, pour payer la carte de crédit ou pour les points voyages. En fait, c'est plus avantageux, celi parce que c'est 25000 points pour 100$.</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5212,6 +6105,13 @@
       </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Bon c'est que moi, Bonjour en passe-temps moi c'est que je viens de voir que j'ai eu 2 facturations. Pour cours d'eau mon téléphone et puis une facturation qui a pas d'affaire là j'ai appliqué coup d'eau, eux autres qui comprennent rien, ils ont jamais réussi à trouver cette transaction là fait que ils ont dit écoutez le problème est du côté de votre banque fait que le montant que vous avez prélevé qui est en fait vous l'avez prélevé aujourd'hui mais il est educator semble-t-il donc demain puis c'est à mon temps qui qui a pas d'affaire là là?</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5250,6 +6150,13 @@
       </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Bon c'est que moi Bonjour en passant moi c'est que je viens de voir que j'ai eu 2 facturations pour cours d'eau, mon téléphone et puis une facturation qui a pas d'affaire là j'ai appelé koodo et autres ils comprennent rien, ils ont jamais réussi à trouver cette transaction là fait que ils ont dit écoutez le problème est du côté de votre banque fait que le montant que vous avez prélevé qui est en fait vous l'avez prélevé aujourd'hui mais il est éducateur semble-t-il donc demain puis c'est un montant qui qui a pas d'affaire là là.</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5300,6 +6207,17 @@
       <c r="L124" t="n">
         <v>1</v>
       </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Moi, je voudrais retirer 300 pièces de mon celi.</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5350,6 +6268,17 @@
       <c r="L125" t="n">
         <v>1</v>
       </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Moi, je voudrais retirer 300 pièces de mon celi.</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5398,6 +6327,17 @@
         <v>1</v>
       </c>
       <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Moi, je voudrais retirer 300 pièces de mon celi.</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,6 +6378,13 @@
       </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai fait une transaction avec ma Mastercard et on m'a dit de téléphoner à la Banque parce que ça marchait pas.</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5486,6 +6433,17 @@
         <v>0</v>
       </c>
       <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Bon, je vous appelle parce que moi, j'ai envoyé un courriel le 10 décembre, OK? Pour que le réer de ma fille soit bon. Arrêté, ils l'ont arrêté pour que je puisse, pour qu'on me transfère l'argent à mon compte, okay, y a rien. Ils m'ont dit 23 jours, ça fait presque 2 semaines. Demain, ce que j'ai dit tout 10 décembre, on va être demain jeudi et j'ai rien. Alors, qu'est-ce qui se passe?</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5536,6 +6494,17 @@
       <c r="L129" t="n">
         <v>1</v>
       </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Bon, je vous appelle parce que moi, j'ai envoyé un courriel le 10 décembre, OK? Pour que le réer de ma fille soit bon. Arrêté, ils l'ont arrêté pour que je puisse, pour qu'on me transfère l'argent à mon compte, okay? Y a rien. Ils m'ont dit 23 jours, ça fait presque 2 semaines. Demain, ce que j'ai dit tout 10 décembre, on va être demain jeudi et j'ai rien. Alors, qu'est-ce qui se passe?</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5584,6 +6553,17 @@
         <v>0</v>
       </c>
       <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Bon, je vous appelle parce que moi, j'ai envoyé un courriel le 10 décembre okay? Pour que le réer de ma fille soit bon? Arrêté, ils l'ont arrêté pour que je puisse, pour qu'on me transfère l'argent à mon compte, okay? Y a rien. Ils m'ont dit 23 jours, ça fait presque 2 semaines. Demain ce que j'ai dit tout 10 décembre, on va être demain. Jeudi, et j'ai rien. Alors, qu'est-ce qui se passe?</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5632,6 +6612,15 @@
         <v>0</v>
       </c>
       <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, s'il vous plaît, j'aimerais ça faire une cotisation pour Montréal.</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5680,6 +6669,15 @@
         <v>0</v>
       </c>
       <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, s'il vous plaît, j'aimerais ça faire une cotisation pour Montréal.</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5718,6 +6716,13 @@
       </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Okay, j'ai fait une une transaction pour acheter une botte dans le magasin Globo le, le 20, le 20 novembre. J'ai remarqué que sur mon cellulaire, j'ai le compte de banque nationale y est retiré directement malgré que j'ai utilisé la Mastercard, c'est pas le guichet automatique et y est y retiré directement comme un guichet automatique. Pour aujourd'hui, je reçois. J'ai reçu aujourd'hui le relevé de compte de Mastercard qu'il que je dois le payer mais c'est déjà payé sur mon compte dans la banque nationale.</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5756,6 +6761,13 @@
       </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Ok, j'ai fait une transaction pour acheter une botte dans le magasin Globo. Le, le vin le 20 novembre j'ai remarqué que sur mon cellulaire j'ai le compte de banque nationale et il est retiré directement malgré que j'ai utilisé la Mastercard. C'est pas le guichet automatique et il est-il est retiré directement comme un guichet automatique. Puis aujourd'hui je reçois, j'ai reçu aujourd'hui le relevé de compte de Mastercard qu'il que je dois le payer mais c'est déjà payé sur mon compte. De la Banque nationale.</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5794,6 +6806,13 @@
       </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Okay, j'ai faite une transaction pour acheter une botte dans le magasin Globo. Le le, le vin, le 20 novembre. J'ai remarqué que sur mon cellulaire j'ai le compte de banque nationale et il est retiré directement malgré que j'ai utilisé le Mastercard. C'est pas le guichet automatique et il est-il est retiré directement comme un guichet automatique. Puis aujourd'hui je reçois, j'ai reçu aujourd'hui le relevé de compte de Mastercard qu'il que je dois payer mais c'est déjà payé sur mon compte dans la banque nationale.</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5832,6 +6851,13 @@
       </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>C'est que je suis en train de vérifier sur mon mon relevé là pour la carte de crédit, puis 2 paiements de 800$ qui est passé que j'ai pas faite.</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5870,6 +6896,13 @@
       </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>C'est que je suis en train de vérifier sur mon relevé là pour la la carte de crédit. Puis il y a 2 paiements de 800$ qui est passé que j'ai pas fait.</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5908,6 +6941,13 @@
       </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>C'est que je suis en train de vérifier sur mon mon relevé là pour la carte de crédit. Puis il y a 2 paiements de 800$ qui est passé que j'ai pas fait.</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5946,6 +6986,13 @@
       </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'appelle pour un renseignement, moi j'ai un compte en fait j'ai une affaire qui passe dans mon compte à tous les débuts de mois et j'aimerais savoir s'il y aurait possibilité de bloquer ce ce passage là au. Je ne sais pas trop comment le dire. Là, dans le fond comme pour plus autoriser à débiter dans mon compte.</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5984,6 +7031,13 @@
       </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'appelle pour un renseignement, moi j'ai un compte en fait j'ai une affaire qui passe dans mon compte à tous les débuts de mois et j'aimerais savoir si y aurait une possibilité de bloquer ce ce passage là où je sais pas trop comment le dire là dans le fond comme plus l'autoriser à débiter dans mon compte?</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6022,6 +7076,13 @@
       </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Bonjour, j'appelle pour un renseignement, moi j'ai un compte en fait j'ai une affaire qui est passé dans mon compte à tous les débuts de mois et j'aimerais savoir s'il y aurait possibilité de bloquer c'est c'est passages là où je ne suis pas trop. Comment le dire là, dans le fond comme plus l'autoriser à débiter dans mon compte?</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6060,6 +7121,13 @@
       </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Donc, dans le fond, je vous appelle aujourd'hui parce que j'aimerais moi, j'ai coupé ma carte de crédit, je je l'ai plus, mais il me reste encore un un montant sur mon compte. J'aimerais savoir c'est quoi le compte en souffrance. Puis j'aimerais je faire le paiement par application mobile.</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6098,6 +7166,13 @@
       </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Donc, dans le fond, je vous appelle aujourd'hui parce que j'aimerais moi, j'ai coupé ma carte de crédit, je je l'ai plus, mais il me reste encore un un montant sur mon compte. J'aimerais savoir si c'est le compte en souffrance. Puis j'aimerais, je vais faire le paiement par application mobile.</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6136,6 +7211,13 @@
       </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Donc, dans le fond, je vous appelle aujourd'hui parce que j'aimerais moi, j'ai coupé ma carte de crédit, je je l'ai plus, mais il me reste encore un un montant sur mon compte. J'aimerais savoir c'est quoi le compte en souffrance. Puis j'aimerais, je vais faire le paiement par application mobile.</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6174,6 +7256,13 @@
       </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>J'aimerais ça savoir si. C'est quoi? Parce que j'ai eu quelque chose qui a passé de 60$ dans mon compte.</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6212,6 +7301,13 @@
       </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>J'aimerais ça savoir si c'est quoi parce que j'ai eu quelque chose qui a passé de 60$ dans mon compte.</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6250,6 +7346,13 @@
       </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>J'aimerais ça savoir si c'est quoi parce que j'ai eu quelque chose qui a passé de 60$ dans mon compte.</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6288,6 +7391,13 @@
       </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Oui, c'est que j'ai bon. J'avais quelques jours de retard pour mon paiement de Mastercard. Là, je l'ai payé hier et là ensuite j'ai voulu faire un achat en ligne là chez moi et puis c'est impossible de payer avec ma Mastercard. J'ai comme des montants en attente.</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6326,6 +7436,13 @@
       </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Oui, c'est que j'ai bon. J'avais quelques jours de retard pour mon paiement de Mastercard, là je l'ai payé hier et et là ensuite j'ai voulu faire un achat en ligne là chez moi et puis c'est impossible de payer avec ma Mastercard. J'ai comme des montants en attente.</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6364,6 +7481,13 @@
       </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'avais appelé hier mot, j'ai une transaction sur ma carte de crédit, on m'a dit que je devais attendre qu'elle soit plus en attente, donc là il est passé une transaction que moi j'ai fait. Mais après avoir fait des recherches j'ai vu que c'est un site qui était frauduleux, puis j'ai pas reçu de courriel, j'ai rien reçu confirmant la transaction donc je sais pas comment ça marche là. C'est la première fois que ça m'arrive.</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6402,6 +7526,13 @@
       </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. J'avais appelé hier, donc j'ai une transaction sur ma carte de crédit. On m'a dit que je devais attendre qu'elle soit plus plus en attente, donc elle est passée. C'est une transaction que moi j'ai fait. Mais après avoir fait des recherches, j'ai vu que c'est un site qui était frauduleux. Puis j'ai pas reçu de courriel, j'ai rien reçu confirmant la transaction, donc je sais pas comment ça marche. C'est la première fois que ça m'arrive.</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6440,6 +7571,13 @@
       </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. J'avais appelé hier blabla, j'ai une transaction sur ma carte de crédit, on m'a dit que je devais attendre qu'elle soit plus en attente, donc là elle est passée. C'est une transaction que moi j'ai fait mais après avoir fait des recherches j'ai vu que c'est un site qui était frauduleux, puis j'ai pas reçu de courriel, j'ai rien reçu confirmant la transaction donc je sais pas comment ça marche là c'est la première fois que ça m'arrive.</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6478,6 +7616,13 @@
       </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour Monsieur, moi j'appelle parce que maintenant on peut plus faire sortir des sous parce qu'ils m'ont dit qu'il fallait que j'appelle. Puis moi je voudrais sortir des sous sur mes placements s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6516,6 +7661,13 @@
       </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour Monsieur, moi j'appelle parce que maintenant on peut plus faire sortir des sous parce qu'ils m'ont dit fallait que j'appelle, puis moi je voudrais sortir des sous sur mes placements s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6554,6 +7706,13 @@
       </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour Monsieur, moi j'appelle parce que maintenant on peut plus faire sortir des sous parce qu'ils m'ont dit fallait que j'appelle, puis moi je voudrais sortir des sous sur mes placements s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6604,6 +7763,15 @@
       <c r="L156" t="n">
         <v>1</v>
       </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Et ça serait pour faire un transfert du céli, aller au compte chèque.</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6654,6 +7822,15 @@
       <c r="L157" t="n">
         <v>1</v>
       </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Et ça serait pour faire un transfert du céli, aller au compte chèque.</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6692,6 +7869,13 @@
       </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Oui, excusez-moi, j'appelle pour une question concernant mon ma marge hypothécaire.</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6730,6 +7914,13 @@
       </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Oui, excusez-moi, j'appelle pour une question concernant mon ma marge hypothécaire.</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6768,6 +7959,13 @@
       </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Oui, excusez-moi, j'appelle pour une question concernant mon ma marge hypothécaire.</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6806,6 +8004,13 @@
       </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai reçu un appel hier comme quoi qu'il y avait des transactions anormales sur mon compte là, puis je pense que je les ai vu là avec mon application banque nationale.</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6844,6 +8049,13 @@
       </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai reçu un appel hier comme quoi qu'il y avait des transactions anormales sur mon compte là, puis je pense que je les ai vu là avec mon application banque nationale là.</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6882,6 +8094,13 @@
       </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai reçu un appel hier comme quoi que y avait des transactions anormales sur mon compte là, puis je pense que je les ai vu là avec mon application banque nationale.</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6920,6 +8139,13 @@
       </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Oui, c'est pour la la canceller.</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6958,6 +8184,13 @@
       </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Oui, c'est pour la. La concilier?</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6996,6 +8229,13 @@
       </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Oui, c'est pour la la canceller.</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7034,6 +8274,13 @@
       </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>J'essaie de, j'essaie de transactions, de de de.</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7072,6 +8319,13 @@
       </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>J'essaie de transat, j'essaie de transactions de, de de via interac et il y a le montant. Qui n'a jamais arrivé à destination parce que l'e-mail était mal écrit, j'avais mal écrit l'e-mail et je n'arrive pas à annuler la transaction.</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7110,6 +8364,13 @@
       </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>J'essaie de transam, j'essaie de transaction de, de de via interac et il y a le montant qui n'a jamais arrivé à destination parce que l'e-mail était mal écrit, j'avais mal écrit l'e-mail et je n'arrive pas à annuler la transaction.</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7148,6 +8409,13 @@
       </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>J'appelle parce que mon comptable m'a demandé les montants d'intérêts payés sur mon hypothèque avec vous pour mon bloc locataire. Pour les années 2017, 2018 et 2019.</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7186,6 +8454,13 @@
       </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>J'appelle parce que mon comptable m'a demandé les montants d'intérêt payé sur mon hypothèque avec vous pour mon bloc locataire. Pour les années 2017, 2018, 2019.</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7224,6 +8499,13 @@
       </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>J'appelle parce que mon comptable m'a demandé les montants d'intérêts payés sur mon hypothèque avec vous pour mon bloc locataire pour les années 2017, 2018, 2019.</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7262,6 +8544,13 @@
       </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour bon c'est j'ai un problème avec pour pouvoir accès à mon compte mon compte de compagnie.</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7300,6 +8589,13 @@
       </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour bon c'est j'ai un problème avec. Pour pouvoir accès à mon compte. Mon compte de compagnie.</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7338,6 +8634,13 @@
       </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Oui, merci, moi c'est juste. J'ai reçu une comment je dis j'ai. J'ai reçu un relevé de le paiement mensuel mais je vois que y'a les moi. J'ai fait un paiement le 24 décembre puis c'est pas là-dessus et en plus moi je vois le le taux d'intérêt là qui a augmenté beaucoup et c'est pour ça que je vous je vous appelle.</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7376,6 +8679,13 @@
       </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Merci moi c'est juste. J'ai reçu une comment j'ai dit j'ai. J'ai reçu un relevé, les paiements mensuels, mais je vois que il y a les Saintes. Moi j'ai fait un paiement le 24 décembre, puis c'est pas là-dessus et en plus moi je vois les taux d'intérêt là qui a augmenté beaucoup et c'est pour ça que je. Je vous appelle.</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7414,6 +8724,13 @@
       </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Moi, c'est parce que je me, je me suis rendue compte que hier soir je trouvais pas ma carte de débit.</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7452,6 +8769,13 @@
       </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Moi, c'est parce que je me, je me suis rendu compte que hier soir que je trouvais pas ma carte de débit.</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7490,6 +8814,13 @@
       </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Moi, c'est parce que je me, je me suis rendue compte que hier soir je trouvais pas ma carte de débit.</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7528,6 +8859,13 @@
       </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Oui Monsieur, j'ai j'avais fait un virement interac et la personne, la, l'entreprise l'a pas prise. J'ai reçu un courriel pour me dire de redéposer dans mon compte ce que j'ai fait. Je sais pas si j'ai fait une mauvaise manœuvre, mais ça n'apparaît pas dans mon compte. J'ai fait ça jeudi ou vendredi dernier. Attends, je vais regarder la date du courriel disais bon, c'est jeudi dernier que j'ai fait ça. Alors le 75$ il est pas venu dans mon compte puis là si je reclique dans le courriel que j'ai reçu de la banque nationale samedi, que je l'ai fait, alors je sais plus quoi faire.</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7566,6 +8904,13 @@
       </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Oui Monsieur C j'avais fait un virement interact qui il a personne. L'entreprise ne l'a pas pris. J'ai reçu un courriel pour me dire de redéposer dans mon compte ce que j'ai fait, je sais pas si j'ai fait une mauvaise manœuvre, mais ça n'apparaît. Pas dans mon compte, j'ai fait ça là, je dis ou vendredi dernier, attendez, je vais regarder la date du courriel, il disait Bon, c'est jeudi dernier que j'ai fait ça. Alors bla-bla-bla, le 75$ n'est pas revenu dans mon compte puis là. Si je reclique dans le le courriel que j'ai reçu de la banque nationale? Samedi dit que je l'ai fait, alors je sais plus quoi faire.</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7604,6 +8949,13 @@
       </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Oui Monsieur, j'avais fait un virement. Interac est la personne, l'entreprise ne l'a pas pris. J'ai reçu un courriel pour me dire de redéposer dans mon compte ce que j'ai fait. Je sais pas si j'ai fait une mauvaise manœuvre, mais ça l'a apparaît pas dans mon compte. J'ai fait ça jeudi ou vendredi dernier. Attendez, je vais regarder la date du courriel, il disait Bon, c'est jeudi dernier que j'ai fait ça, alors bla-bla-bla, le 75$ n'est pas revenu dans mon compte, puis là si je reclique dans le le courriel que j'ai reçu de la banque nationale. Ça me dit que je l'ai fait, alors je sais plus quoi faire.</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7642,6 +8994,13 @@
       </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Mot, je veux savoir, ma carte est-elle toujours valide parce que ça fait longtemps que je l'ai pas vraiment utilisé et je veux savoir mot à faire des transactions et je voulais savoir si t'es quand même valide.</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7680,6 +9039,13 @@
       </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Ben Ouais, je veux savoir. Ma carte est-elle toujours valide parce que ça fait longtemps que je l'ai pas vraiment utilisé et je veux savoir à faire des transactions et je voulais savoir si c'était quand même valide.</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7718,6 +9084,13 @@
       </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Moi, je voudrais avoir le solde de mon compte.</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7756,6 +9129,13 @@
       </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Moi, je voudrais avoir le solde de mon compte.</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7794,6 +9174,13 @@
       </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Moi, je voudrais avoir le solde de mon compte.</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7832,6 +9219,13 @@
       </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>Moi j'appelle parce qu'en fait j'ai besoin s'cusez. Il ne manque une information pour me connecter à mon compte entreprise.</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7870,6 +9264,13 @@
       </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>Moi j'appelle parce qu'en fait j'ai besoin, excusez-moi, il me manque une information pour me connecter à mon compte entreprise.</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7908,6 +9309,13 @@
       </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>Okay, c'est parce que là on vient de recevoir notre relevé de compte puis là ça dit qu'on n'a pas fait de paiement. Puis en même temps-là j'ai payé avant la date d'échéance plus plusieurs jours avant, le solde au complet. Puis là je me ramasse avec des frais d'intérêt de Ben 190 et 57. Et je refuse totalement ça.</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7946,6 +9354,13 @@
       </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>J'appelle pour art. Pour arrêter un chèque s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7984,6 +9399,13 @@
       </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>Ok, c'est parce que là on vient de recevoir notre relevé de compte puis là c'est dit qu'on n'a pas fait de paiement pis en même temps-là j'ai payée avant la date d'échéance plu plusieurs jours avant le solde au complet pis là je me ramasse avec des frais d'intérêt de bla-bla-bla Ben 190 et 57. Je refuse totalement ça.</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8022,6 +9444,13 @@
       </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>Bonjour, c'est pour savoir si les paiements de mon hypothèque qui passent.</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8060,6 +9489,13 @@
       </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>Bonjour, c'est pour savoir si les paiements de mon hypothèque qui passent.</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8098,6 +9534,13 @@
       </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>Bonjour, c'est pour savoir si les paiements de mon hypothèque qui passent.</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8136,6 +9579,13 @@
       </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'ai j'ai reçu une lettre par rapport à mon forfait bancaire. Du sang qu'il fallait que je une carte de crédit je crois pour pouvoir adhérer au forfait encore.</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8174,6 +9624,13 @@
       </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'ai j'ai reçu une lettre par rapport à mon forfait bancaire disant qu'il fallait que j'aille une carte de crédit je crois pour pouvoir adhérer au forfait encore.</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8212,6 +9669,13 @@
       </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'ai j'ai reçu une lettre par rapport à mon forfait bancaire disant qu'il fallait que j'aille une carte de crédit je crois pour pouvoir aller au forfait encore.</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8250,6 +9714,13 @@
       </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>Je voudrais, je voudrais transférer de l'argent dans mon compte US Ben autrement dit faire un achat US mais pour déposer dans mon compte.</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8288,6 +9759,13 @@
       </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>Je voudrais, je voudrais transférer de l'argent dans mon compte USB. Ben autrement dit faire un achat US mais pour déposer dans mon compte.</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8326,6 +9804,13 @@
       </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>Je voudrais, je voudrais transférer de l'argent dans mon compte US Ben autrement dit faire un achat US mais pour déposer dans mon compte.</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8364,6 +9849,13 @@
       </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>Oui, j'essaie de, ils m'ont obligé à changer mon mot de passe. Puis je suis plus capable d'accéder. Là, j'écris le nouveau mot de passe, puis là, la lumière bleue continue à rester pâle, elle s'allume pas complètement.</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8402,6 +9894,13 @@
       </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>Oui, j'essaie de, ils m'ont obligé à changer mon mot de passe, puis je suis pas capable d'accéder là, j'écris le nouveau mot de passe, puis là, la lumière bleue continue à rester pâle, elle s'allume pas complètement.</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8452,6 +9951,17 @@
       <c r="L204" t="n">
         <v>1</v>
       </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>J'ai appelé pour faire transférer de l'argent à toutes les semaines dans mon compte celi, puis là je regarde aujourd'hui le transfert, Monsieur m'a dit que ça commence à partir du 21 et là je vois pas ça pas marché son affaire.</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8502,6 +10012,17 @@
       <c r="L205" t="n">
         <v>1</v>
       </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>J'ai appelé pour faire transférer de l'argent à toutes les semaines dans mon compte celi, puis là je regarde aujourd'hui le transfert, Monsieur m'a dit que ça commence à partir du 21 et là je vois pas ça pas marcher son affaire.</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8550,6 +10071,17 @@
         <v>1</v>
       </c>
       <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>J'ai appelé pour faire transférer de l'argent à toutes les semaines dans mon compte celi, puis là je regarde aujourd'hui le transfert, Monsieur m'a dit que ça commence à partir du 21 et là je vois pas ça a pas marché son affaire.</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8590,6 +10122,13 @@
       </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>Moi, j'ai appelé pour savoir là, ici. Là on m'a fait une erreur. Peut-être, on m'a mal compris. Vous comprenez là la journée que j'ai appelé pour payer la facture bla bla bla le 18 ça fait 3 jours que j'ai appelé pour payer la facture de vidéotron. Ok, automatiquement, m'enlever mon livret là que moi j'allais à la banque. Habituellement, vous comprenez là pourquoi là, c'est vous qui avez levé chez vous chez telnat.</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8628,6 +10167,13 @@
       </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>Moi, j'ai appelé là pour pour savoir pourquoi là ici, là on m'a fait une erreur, peut-être, on m'a mal compris. Vous comprenez là la journée que j'ai appelé pour payer la facture, voilà le 18, ça fait 3 jours que j'ai appelé pour payer la facture de de vidéotron. Okay, automatiquement m'enlever mon livret là que moi j'allais à la banque habituellement, vous comprenez là pourquoi là c'est vous qui avez levé chez vous chez Telnat.</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8666,6 +10212,13 @@
       </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Moi, j'ai appelé là pour pour savoir pourquoi là ici, là on m'a fait une erreur, peut-être, on m'a mal compris. Vous comprenez là? La journée que j'ai appelé pour payer la facture mon, les 18, ça fait 3 jours que j'ai appelé pour payer la facture des des vidéotron, okay? Automatiquement ma levé mon livret là. Qui est? Moi, j'allais à la banque habituellement, vous comprenez là pourquoi là c'est vous qui avez levé chez vous, chez telnat.</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8704,6 +10257,13 @@
       </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>J'aimerais vérifier avec vous si vous voyez des transactions sur ma carte de crédit. J'essaie de faire un achat, puis ça a pas fonctionné. Pourtant, les fonds sont là et je vérifier que ça n'a pas passé 2 fois.</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8742,6 +10302,13 @@
       </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>J'aimerais vérifier avec vous si vous voyez des transactions sur ma carte de crédit. J'essaie de faire un achat, puis ça n'a pas fonctionné. Pourtant, les fonds sont là et je veux vérifier que ça pas passer 2 fois.</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8780,6 +10347,13 @@
       </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>J'aimerais vérifier avec vous si vous voyez des transactions sur ma carte de crédit. J'essaie de faire un achat, puis ça n'a pas fonctionné. Pourtant, les fonds sont là et je veux vérifier que ça n'a pas passé 2 fois.</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8818,6 +10392,13 @@
       </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>Salut, moi je t'appelle parce que j'ai une carte de poste. Canada Visa prépayée de 2 ans puis la dernière fois parce que j'avais fait la première que j'ai eu, je l'ai perdue, je l'avais rentré dans mes mes destinataires, puis là je me souviens plus comment faire.</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8856,6 +10437,13 @@
       </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>Salut, moi je t'appelle parce que j'ai une carte de poste. Canada Visa prépayée de 2 ans puis la dernière fois parce que j'avais fait la première que j'ai eu, je l'ai perdu, je l'avais en rentrer dans mes mes destinataires, puis là je me souviens plus comment faire.</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8894,6 +10482,13 @@
       </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Salut, moi je t'appelle parce que j'ai une carte de poste. Canada Visa prépayée de 2 ans puis là la dernière fois parce que j'avais fait la première que j'ai eue, je l'ai perdue, je l'avais rentré dans mes mes destinataires, puis là je me souviens plus comment faire.</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8942,6 +10537,15 @@
         <v>0</v>
       </c>
       <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>Oui, ça va très bien, merci. Oui, c'est concernant Montréal.</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8990,6 +10594,15 @@
         <v>0</v>
       </c>
       <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>Oui, ça va très bien, merci, oui, c'est concernant mon réal.</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9038,6 +10651,15 @@
         <v>0</v>
       </c>
       <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Oui, ça va très bien, merci, oui, c'est concernant mourir.</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9088,6 +10710,17 @@
       <c r="L219" t="n">
         <v>1</v>
       </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>Je veux juste savoir si vous avez fait des des changements sur la ma carte parce que voilà à peu près 3 semaines ou 2 semaines et demie, 3 semaines, j'étais au super C puis j'ai fait mon nip. Je suis certaine d'avoir mis vraiment mon NIP. La carte à tout le temps été comme refusée.</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9138,6 +10771,17 @@
       <c r="L220" t="n">
         <v>1</v>
       </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Je veux juste savoir voir si vous avez fait des des changements sur ma la carte parce que voilà à peu près 3 semaines ou 2 semaines et demie, 3 semaines, j'étais au super C puis j'ai fait mon nip. Je suis certaine d'avoir mis vraiment mon nip, la carte, tout le temps été comme refusée.</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9186,6 +10830,17 @@
         <v>1</v>
       </c>
       <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Je, je veux juste savoir voir si vous avez fait des des changements sur la ma carte parce que voilà à peu près 3 semaines ou 2 semaines et demie, 3 semaines, j'étais au super C puis j'ai fait mon nip. Je suis certaine d'avoir mis vraiment mon NIP. La carte à tout le temps été comme refusée.</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+      <c r="O221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9226,6 +10881,13 @@
       </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Me donner un nouveau code de confidentialité, j'ai perdu le mien.</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9264,6 +10926,13 @@
       </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Me donner un nouveau code de confidentialité, j'ai perdu le mien.</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9302,6 +10971,13 @@
       </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>Me donner un nouveau code de confidentialité, j'ai perdu le mien.</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9340,6 +11016,13 @@
       </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>J'ai fait la demande d'extension de prêt. Il disait que c'était, j'étais pour avoir des nouvelles de 10 à 15 jours.</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9378,6 +11061,13 @@
       </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>J'ai perdu ma carte Mastercard aujourd'hui au travail.</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9416,6 +11106,13 @@
       </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>J'ai perdu ma carte Mastercard aujourd'hui au travail.</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9466,6 +11163,17 @@
       <c r="L228" t="n">
         <v>1</v>
       </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'aimerais retirer de l'argent de mon celi pour mettre dans mon compte, s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -9516,6 +11224,17 @@
       <c r="L229" t="n">
         <v>1</v>
       </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'aimerais retirer de l'argent de mon celi pour mettre dans mon compte, s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9566,6 +11285,17 @@
       <c r="L230" t="n">
         <v>1</v>
       </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'aimerais retirer de l'argent de mon celi pour mettre dans mon compte, s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -9616,6 +11346,17 @@
       <c r="L231" t="n">
         <v>1</v>
       </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>Je vous appelle aujourd'hui pour au sujet de mon celi.</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9666,6 +11407,17 @@
       <c r="L232" t="n">
         <v>1</v>
       </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Je vous appelle aujourd'hui pour au sujet de mon celi.</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9714,6 +11466,17 @@
         <v>1</v>
       </c>
       <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>Je vous appelle aujourd'hui pour au sujet de mon celi.</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+      <c r="O233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9754,6 +11517,13 @@
       </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>J'appelle parce que la dernière fois j'ai. Fait une réclamation et on m'a dit, on allait m'envoyer un message dans les 2 jours, mais jusqu'à mot, j'ai toujours pas reçu de message.</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9792,6 +11562,13 @@
       </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>J'appelle parce que la dernière fois j'ai. C'est une réclamation et on m'a dit qu'on allait m'envoyer un message dans les 2 jours, mais jusqu'à j'ai toujours pas reçu de message.</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -9830,6 +11607,13 @@
       </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>J'appelle parce que la dernière fois j'ai. Une réclamation et on m'a dit, on allait m'envoyer un message dans les 2 jours, mais jusqu'à j'ai toujours pas reçu de message.</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -9868,6 +11652,13 @@
       </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Oui, c'est juste pour activer ma nouvelle carte.</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -9906,6 +11697,13 @@
       </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Oui, c'est juste pour activer ma nouvelle carte.</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -9944,6 +11742,13 @@
       </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Oui, c'est juste pour activer ma nouvelle carte.</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr"/>
+      <c r="O239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -9982,6 +11787,13 @@
       </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Lala, c'est marqué dans mon ordinateur. Votre compte a été verrouillé par mesure de sécurité.</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10020,6 +11832,13 @@
       </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Là, là, c'est marqué dans mon ordinateur. Votre compte a été verrouillé par mesure de sécurité.</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10058,6 +11877,13 @@
       </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Là, là, c'est marqué dans mon ordinateur. Votre compte a été verrouillé par mesure de sécurité.</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10096,6 +11922,13 @@
       </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>Mais je veux juste avoir une information sur une transaction que je me rappelle plus d'avoir faite. Puis j'ai beau fouiller, puis ça, ça sort pas fait que je voulais savoir. C'est en date du 5 janvier, c'est marqué Apple.</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10134,6 +11967,13 @@
       </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Mais je veux juste avoir une information sur une transaction que je me rappelle plus à d'avoir faite. Puis j'ai beau fouiller, puis ça, ça ça, ça sort pas fait que je voulais savoir si en date du 5 janvier c'est marqué Apple.</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10172,6 +12012,13 @@
       </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Je veux juste avoir une information sur une transaction. Je me rappelle plus d'avoir fait, puis j'ai beau fouiller, puis ça, ça, ça sort pas fait que je voulais savoir si en date du 5 janvier c'est marqué Apple.</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10210,6 +12057,13 @@
       </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Ben, vous savez, je vais vous demander des chèques parce que les chèques que j'ai sont presque finis.</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr"/>
+      <c r="O246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10248,6 +12102,13 @@
       </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Tiens, savez bla bla bla, je vais vous demander des chèques parce que les chèques que j'ai sont presque fini.</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr"/>
+      <c r="O247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10286,6 +12147,13 @@
       </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Ben vous savez, bla bla bla, je vais vous demander des chèques parce que les chèques que j'ai sont presque finis.</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10324,6 +12192,13 @@
       </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Oui, au fait, pendant la période de Black Friday, j'ai eu à faire un achat en ligne et depuis j'ai pas de nouvelles du fournisseur. J'ai écrit, j'ai j'ai envoyé plusieurs fois des e-mails mais j'ai jamais eu de réponse.</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10362,6 +12237,13 @@
       </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Oui, au fait, pendant la période Black Friday, j'ai eu affaire d'un chat en ligne et depuis j'ai pas de nouvelles du fournisseur. J'ai écrit, j'ai j'ai envoyé plusieurs fois des des e-mails, mais j'ai jamais eu de réponse.</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10400,6 +12282,13 @@
       </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Oui, moi, ma carte est endommagée, sauf que c'est ça. Je voudrais la faire remplacer et casser en 2 là, mais si ça fait remplacer, est-ce que c'est possible de toujours utiliser mon ce numéro là qui est sur ma carte? Quand j'appelle en attendant de recevoir l'autre?</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10438,6 +12327,13 @@
       </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Oui, moi, ma carte est endommagée, sauf que c'est ça. Je voudrais la faire remplacer et casser en 2 là, mais si ça fait remplacer, est-ce possible de toujours utiliser mon ce numéro là qui est sur ma carte? Quand j'appelle en attendant de recevoir l'autre?</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -10476,6 +12372,13 @@
       </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, on m'a téléphoné pour me dire que y avait un virement qui a été fait internationalement sur ma carte. Puis oui, c'est moi qui l'a fait.</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -10514,6 +12417,13 @@
       </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Ouais, Bonjour, on m'a téléphoné pour me dire qu'il y avait un virement qui a été fait à internationalement sur ma carte pis ouais, c'est moi qui l'ai fait.</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -10552,6 +12462,13 @@
       </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, on m'a téléphoné pour me dire que y avait un virement qui a été fait internationalement sur ma carte. Puis oui, c'est moi qui l'a faite.</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr"/>
+      <c r="O255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -10590,6 +12507,13 @@
       </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour Monsieur, un petit question, je suis en train d'avoir de regarder mon parce que moi j'ai une épouse, j'ai une hypothèque. Parce que je suis garant mot, je il faut changer 50000 et plus je sais pas pourquoi et j'ai besoin mot, tout est à Maud. Je dois avoir 54000 de à payer et l'autre hypothèque dans les 90000 alors j'ai besoin mot, 54. Est-ce que 99000 se met mot 54+54 ça va te faire 8000$ d'hypothèques, ça c'est pas bon, c'est pas vrai si vous. Pouvez regarder ça comme ça.</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr"/>
+      <c r="O256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -10628,6 +12552,13 @@
       </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour Monsieur, un petit question, je suis en train de voir de regarder mon parce que moi j'ai une hypo. J'ai une hypothèque parce que je suis garant. Il faut changer 50000 et plus je sais pas pourquoi, et j'ai besoin, tout est je dois avoir 54002 à payer et l'autre prix hypothèque dans les 99000 alors j'ai besoin bleu 54. Et est-ce que 99000 il se met bleu 54+54 ça va tout faire, 8000$ d'hypothèques, ça c'est pas bon, c'est pas vrai. Si vous pouvez regarder ça. Ben comme ça.</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr"/>
+      <c r="O257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -10666,6 +12597,13 @@
       </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour Monsieur, un petit question, je suis en train de voir de regarder mon parce que moi j'ai une hypo. J'ai une hypothèque parce que je suis garant là va. Il faut changer 50000 les plus je sais pas pourquoi et j'ai besoin là, tout est à bla bla je dois avoir 54000 de à payer et l'autre prix hypothèque dans les 99000 alors j'ai besoin aza 54 est-ce que 99000 il se met va 54+54 ça va tout faire. 8000$ d'hypothèques, ça c'est pas bon, c'est pas vrai si vous pouvez regarder comme ça.</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -10704,6 +12642,13 @@
       </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>Oui, Monsieur Yann, j'ai fait réparer mon auto, j'ai voulu mettre la facture sur ma Mastercard. Puis samedi disait toujours refuser, j'ai dit je sais pas pourquoi là il y a aucune raison.</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -10742,6 +12687,13 @@
       </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>Moi, Monsieur, hier, j'ai fait réparer mon auto, j'ai voulu mettre la facture sur ma Mastercard, puis ça me disait toujours refusé. J'ai dit je sais pas pourquoi là ils ont aucune raison.</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -10780,6 +12732,13 @@
       </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>Moi, Monsieur, hier, j'ai fait réparer mon auto, j'ai voulu mettre la facture sur ma Mastercard, puis ça me disait toujours refusé. J'ai dit je sais pas pourquoi là ils ont aucune raison.</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr"/>
+      <c r="O261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -10830,6 +12789,17 @@
       <c r="L262" t="n">
         <v>1</v>
       </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>C'est parce que ce soit dans mon système. J'ai un celi, je pense qu'il reste peut-être 200$ dans le celi. Je sais pas ce que tu pourrais me donner ce renseignement là parce que je voudrais parce que je voudrais le fermer.</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -10880,6 +12850,17 @@
       <c r="L263" t="n">
         <v>1</v>
       </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>C'est parce que si tu vas dans mon système, j'ai un celi, je pense qu'il reste peut-être 200$ dans le celi. Je ne sais pas. Est-ce que tu pourrais me donner ce renseignement là parce que je voudrais parce que je voudrais le fermer?</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -10928,6 +12909,17 @@
         <v>1</v>
       </c>
       <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>C'est parce que si tu vois dans mon système, j'ai un celi, je pense qu'il reste peut-être 200$ dans le celi, je sais pas. Est-ce que tu pourrais me donner ce renseignement là parce que je voudrais parce que je voudrais le fermer?</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+      <c r="O264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10968,6 +12960,13 @@
       </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>J'ai fait une demande de de carte de crédit et puis j'ai reçoit. J'ai reçu une lettre aujourd'hui qui dit que je ne je ne respecte pas, je ne rencontre pas les critères d'admissibilité requis. Je comprends pas pourquoi.</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr"/>
+      <c r="O265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11006,6 +13005,13 @@
       </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>J'ai fait une demande de carte de crédit et puis j'ai reçoit. J'ai reçu la lettre aujourd'hui qui dit que je ne je ne respecte pas. Je ne rencontre pas les critères d'admissibilité requis. Je comprends pas pourquoi.</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr"/>
+      <c r="O266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11044,6 +13050,13 @@
       </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>J'ai fait une demande de carte de crédit et puis j'ai reçoit, j'ai reçu une lettre aujourd'hui qui dit que je ne je ne respecte pas, je ne rencontre pas les critères d'admissibilité requis. Je comprends pas pourquoi.</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11082,6 +13095,13 @@
       </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>Oui, c'est juste parce qu'il y a fallu que j'aille chercher mon ancienne carte pour avoir le numéro. Ce que je vais faire, je vais raccrocher. Puis je vais rappeler.</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11120,6 +13140,13 @@
       </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>Oui, c'est juste parce qu'il a fallu que j'aille chercher mon ancienne carte pour avoir le numéro, ce que je vais faire, je vais raccrocher, pis je vais rappel.</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11158,6 +13185,13 @@
       </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>Oui, c'est juste parce que il a fallu que j'aille chercher mon ancienne carte pour avoir le numéro, ce que je vais faire, je vais raccrocher. Puis je vais rappeler.</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr"/>
+      <c r="O270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11196,6 +13230,13 @@
       </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>Bon, là je me fais agresser par mes enfants, puis ils ont raison, je suis allé commander de quoi sur Internet là une goutte le matin, puis c'est miraculeux, tu dois, tu dois avoir vu ça, c'est annoncé je sais pas combien de fois sur Facebook là en tout cas c'est une petite bouteille d'huile, là voyons c'est quoi le nom là anyway y avait un spécial, c'est acheté une petite bouteille, t'en avais une gratis pour 50 et 95 OK fait que là Ben j'ai acheté la petite bouteille j'ai coché il y avait plusieurs, là tu pouvais en acheter une 23456 j'ai coché la première, une on va l'essayer hein? Fait que là là, j'ai reçu un email, puis là il marque customer number bla-bla, products 6 battle Love emploi. Il ça s'appelle, Empile, mais ça sur ma carte là Ben c'est sûr que je l'aurais donné. Ma carte de crédit hein payer par carte de crédit. Et puis là Ben j'ai vu que Ben Premièrement j'ai jamais commande 6 bouteilles là.</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr"/>
+      <c r="O271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11234,6 +13275,13 @@
       </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>Bon, là je me fais agresser par mes enfants, puis ils ont raison, je suis allée commander de quoi sur Internet là? Une goutte le matin, puis c'est miraculeux, toi tu vois avoir vu ça et annonce je sais pas combien de fois sur Facebook là on en tout cas c'est une petite bouteille d'huile. Voyons, c'est quoi le nom là anyway là? Il y avait un spécial si j'achète si t'achetais une petite bouteille, tu en avais une gratis pour 51 et 95 okay c'est que là Ben j'ai acheté la petite bouteille, j'ai couché il y avait Plusieurs lacs, tu pouvais en acheter une 23456. J'ai coché la première, une en va l'essayer hein. C'est que là Ben là j'ai reçu un Email pis là il marque Casterman number. Le Brun, le Product. Si si, c'est que Battle of Hemp OL, ça s'appelle Hamp œil mais sur ma carte là-bas c'est sûr. Je leur ai donné ma carte de crédit hein, payée par carte de crédit, puis là Ben j'ai vu que Ben Premièrement j'ai jamais commande 6 bouteilles là.</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11282,6 +13330,17 @@
         <v>0</v>
       </c>
       <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>Ok, j'ai fait une ouverture de compte épargne comme je suis nouveau à BNC PC j'ai reçu un mail mais je ne sais pas quelles sont les conditions de l'ouverture si c'est payant parce que quand je quand j'ai ouvert le compte le monsieur m'avait dit que je sais pas que il y avait des conditions pour les nouveaux arrivants, bla-bla-bla.</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11332,6 +13391,17 @@
       <c r="L274" t="n">
         <v>1</v>
       </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>Ok, j'ai fait une ouverture de compte épargne comme je suis nouveau à BNC, j'ai reçu un mail mais je ne sais pas quelles sont les conditions de l'ouverture si c'est payant parce que quand je quand j'ai ouvert le compte le monsieur il m'avait dit que je sais pas que il y avait des conditions pour les nouveaux arrivants, bla-bla-bla.</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11380,6 +13450,17 @@
         <v>1</v>
       </c>
       <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>Okay, j'ai fait une ouverture de compte épargne comme je suis nouveau à BNC, j'ai reçu un mail mais je ne sais pas quelles sont les conditions de l'ouverture si c'est payant parce que quand je quand j'ai ouvert le compte le monsieur m'avait dit que je sais pas que il y avait des conditions pour les nouveaux arrivants enfin.</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+      <c r="O275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11420,6 +13501,13 @@
       </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour je sais pas, j'ai essayé de prendre faire transfert de l'argent de mon compte personnel pour déposer dans le compte business. Ça ne marche pas.</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr"/>
+      <c r="O276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -11458,6 +13546,13 @@
       </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour je sais pas, j'ai essayé de prendre faire transfert de l'argent de mon compte personnel pour déposer dans le compte business ça marche pas?</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -11496,6 +13591,13 @@
       </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour je sais pas, j'ai essayé de prendre faire transfert de l'argent de mon compte personnel pour déposer dans le compte business ça marche pas?</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -11534,6 +13636,13 @@
       </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>Oui, dans le fond, l'autre jour, j'avais acheté. Quelque chose sur le site de Best buy? Et avant-hier, j'ai reçu un courriel pour dire que la transaction a été annulée par la Banque.</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -11572,6 +13681,13 @@
       </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>Oui, dans le fond, l'autre jour, j'avais acheté quelque chose sur le site de Best buy et avant-hier, j'ai reçu un courriel pour dire que la transaction a été annulée par la Banque.</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr"/>
+      <c r="O280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -11610,6 +13726,13 @@
       </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>Oui, dans le fond, l'autre jour, j'avais acheté quelque chose sur le site de Best buy et avant-hier, j'ai reçu un courriel pour dire que la transaction était annulée par la Banque.</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr"/>
+      <c r="O281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -11648,6 +13771,13 @@
       </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>Oui, je voudrais bien savoir qu'est-ce ce qui se passe? J'essaye avoir de l'information sur. L'information automatisée. Puis, quand j'arrive pour avoir des informations sur mon compte d'épargne. Je suis pas capable de l'avoir l'option.</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr"/>
+      <c r="O282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -11686,6 +13816,13 @@
       </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>Oui, je voudrais bien savoir qu'est-ce qui se passe. J'essaie d'avoir de l'information sur l'information automatisée, puis quand j'arrive pour avoir les informations sur mon compte d'épargne, je suis pas capable de l'avoir l'option.</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -11724,6 +13861,13 @@
       </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>Oui, je voudrais bien savoir qu'est-ce qui se passe. J'essaie d'avoir de l'information sur l'information automatisée, puis quand j'arrive pour avoir les informations sur mon compte épargne, je suis pas capable de l'avoir l'option.</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr"/>
+      <c r="O284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -11762,6 +13906,13 @@
       </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>Alors je veux rentrer, je veux ajouter une nouvelle facture, puis il veut pas l'accepter.</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -11800,6 +13951,13 @@
       </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>Alors je veux rentrer, je veux ajouter une nouvelle facture, puis il veut pas l'accepter.</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -11838,6 +13996,13 @@
       </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>Alors je veux rentrer, je veux ajouter une nouvelle facture, pis il veut pas accepter.</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr"/>
+      <c r="O287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -11888,6 +14053,17 @@
       <c r="L288" t="n">
         <v>1</v>
       </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>C'est parce que j'ai fait une erreur au niveau de transfert d'argent pour faire une demande pour mes réer avant le premier mars et je l'ai demandé 2*3 fois comme tel, et la 3e fois, je voudrais l'annuler.</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>1</v>
+      </c>
+      <c r="O288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -11938,6 +14114,17 @@
       <c r="L289" t="n">
         <v>1</v>
       </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>C'est parce que je fais une erreur au niveau de transfert d'argent pour faire une demande pour mes réer avant le premier mars et je l'ai demandé 2*3 fois comme tel, et la 3e fois, je voudrais l'annuler.</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
+        <v>1</v>
+      </c>
+      <c r="O289" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -11986,6 +14173,17 @@
         <v>0</v>
       </c>
       <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>C'est parce que j'ai fait une erreur au niveau de transfert d'argent pour faire une demande pour mes réer avant le premier mars et je l'ai demandé 2*3 fois comme tel, et la 3e fois, je voudrais l'annuler.</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+      <c r="O290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12024,6 +14222,13 @@
       </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>Je sais pas si je suis en bonne place hier bla bla bla m'ont donné un numéro de téléphone 4144135527 et puis c'est pas bon ce numéro là.</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr"/>
+      <c r="O291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12062,6 +14267,13 @@
       </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>Je sais pas si je suis à bonne place hier voudrais m'en donner un numéro de téléphone 4144135527 et puis c'est pas bon ce numéro là.</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr"/>
+      <c r="O292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12100,6 +14312,13 @@
       </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>Je sais pas si je suis à la bonne place hier voir m'ont donné un numéro de téléphone 414413 55 27 et puis c'est pas ce bon numéro là.</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr"/>
+      <c r="O293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12138,6 +14357,13 @@
       </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>Ouais, en fait j'ai un compte avec Desjardins, mais j'aimerais l'ajouter à mes burgers, à les comptes que je fais des virements mais j'arrive pas.</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr"/>
+      <c r="O294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12176,6 +14402,13 @@
       </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>Oui, en fait, j'ai un contact Desjardins, mais j'aimerais l'ajouter à à les compte que je je fais des virements, mais je n'arrive pas.</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr"/>
+      <c r="O295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12214,6 +14447,13 @@
       </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>Oui, en fait, j'ai un compte avec Desjardins, mais j'aimerais l'ajouter à mes. À les comptes que je fais des virements mais je n'arrive pas.</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr"/>
+      <c r="O296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12252,6 +14492,13 @@
       </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>Voilà, j'ai reçu une lettre à la maison, ma marge de crédit, anomalie à votre. À votre pour vos relevés de marge, nous tenons à vous informer que nous avons corrigé une anomalie technique relativement à l'information contenue à votre. Pour vos relever de marge de crédit et mi-janvier dernier, le montant et les intérêts de mai 2020 affichés dans votre relevée, la marge de crédit du mois de janvier a été touchée par cette anomalie. C'est quoi ça?</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr"/>
+      <c r="O297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12290,6 +14537,13 @@
       </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>Mais je viens de recevoir un code de sécurité que quelqu'un a utilisé ma carte Mastercard 925,88$ et j'ai le nom où c'est dépensé. L'argent, c'est Crédit Mutuel.</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr"/>
+      <c r="O298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12328,6 +14582,13 @@
       </c>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>Mais je viens de recevoir un code de sécurité que quelqu'un a utilisé ma ma Mastercard 925,88$, et j'ai le nom où c'est dépensé. L'argent, c'est crédit vers.</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr"/>
+      <c r="O299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -12366,6 +14627,13 @@
       </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>Oui, en fait, c'est par rapport à mon compte en ligne. Quand je me connecte sur Internet, je me demande un code de vérification qui est supposé d'être rendu à mon email. Mais après plusieurs reprises, je reçois aucun code et aucun émail.</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr"/>
+      <c r="O300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -12404,6 +14672,13 @@
       </c>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>En fait, c'est par rapport à mon compte en ligne. Quand je me connecte sur Internet, il me demande un code de vérification qui est supposé d'être rendu à mon e-mail, mais. Après plusieurs reprises, je reçois aucun code et aucun émail.</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr"/>
+      <c r="O301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -12442,6 +14717,13 @@
       </c>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>En fait, c'est par rapport à mon compte en ligne quand tu me connecter sur internet, il me demande un code de vérification qui est supposé d'être rendu à mon email. Mais après plusieurs reprises, je reçois aucun code et aucun émail.</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr"/>
+      <c r="O302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -12480,6 +14762,13 @@
       </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, c'est parce que j'ai perdu ma carte, je sais pas comment mais j'ai perdu ma carte de débit puis je veux vous l'annuler et m'en envoyer une autre nouvelle.</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr"/>
+      <c r="O303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -12518,6 +14807,13 @@
       </c>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr"/>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, c'est parce que j'ai perdu ma carte, je sais pas comment mais j'ai perdu ma carte de débit puis je veux vous l'annuler et m'en envoyer une autre nouvelle.</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr"/>
+      <c r="O304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -12556,6 +14852,13 @@
       </c>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, c'est parce que j'ai perdu ma carte, je sais pas comment mais j'ai perdu ma carte de débit puis je veux vous l'annulez et m'en envoyer une autre nouvelle.</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr"/>
+      <c r="O305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -12594,6 +14897,13 @@
       </c>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>J'ai appelé tout à l'heure, j'ai fait une demande pour un remboursement anticipé.</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr"/>
+      <c r="O306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -12632,6 +14942,13 @@
       </c>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>J'ai appelé tout à l'heure, j'ai fait une demande pour un remboursement anticipé.</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr"/>
+      <c r="O307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -12670,6 +14987,13 @@
       </c>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>J'ai appelé tout à l'heure, j'ai fait une demande pour un remboursement anticipé.</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr"/>
+      <c r="O308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -12708,6 +15032,13 @@
       </c>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour le mois dernier ou ou le 5 février, j'ai reçu une nouvelle carte débit et puis j'ai pas de problème à l'utiliser dans les magasins, ça va très bien mes transactions si je veux écouter de la banque nationale j'ai pas de problème mais si je vais dans un autre guichet je peux pas m'en faire je peux pas faire, je peux pas faire de retrait je peux rien faire, j'ai pas accès à mon compte chèque, j'ai juste un compte là c'est un compte chèque et puis ma carte à fonctionne pas.</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr"/>
+      <c r="O309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -12746,6 +15077,13 @@
       </c>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour le mois dernier ou ou le 5 février, j'ai reçu une nouvelle carte débit et puis j'ai pas de problème à l'utiliser dans les magasins, ça va très bien mes transactions si je vais aux guichets de la banque nationale j'ai pas de problème mais si je vais dans un autre guichet je peux pas m'en SER je peux pas faire de je peux pas faire de retrait je peux rien faire parce que j'ai pas accès à mon compte chèque j'ai juste un compte là c'est un compte chèque et puis ma carte à fonctionne pas.</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr"/>
+      <c r="O310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -12784,6 +15122,13 @@
       </c>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour le mois dernier ou ou ou le 5 février, j'ai reçu une nouvelle carte débit et puis j'ai pas de problème à l'utiliser dans les magasins, ça va très bien mes transactions si je vais au guichet de la Banque nationale j'ai pas de problème mais si je vais dans un autre guichet je peux pas m'en faire je peux pas faire de je peux pas faire de retrait je peux rien faire, j'ai pas accès à mon compte chèque, j'ai juste un compte là c'est un compte chèque et puis ma carte à fonctionne pas.</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr"/>
+      <c r="O311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -12822,6 +15167,13 @@
       </c>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>Je j'aimerais ça savoir. J'ai déposé un chèque par photo ce lundi ou mardi mardi je crois. Puis je veux dire y est, c'était tu gelé. L'avez-vous reçu? Je comprends pas.</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -12860,6 +15212,15 @@
       </c>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>J'aimerais ça savoir. J'ai déposé un chèque. Par photo. Ce lundi ou mardi? Mardi, je crois. Puis je veux dire, il est. C'était tu, celi, l'avez vous reçu? Je comprends pas.</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr"/>
+      <c r="O313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -12898,6 +15259,13 @@
       </c>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>J'aimerais ça savoir. J'ai déposé un chèque par photo ce lundi ou mardi mardi je crois. Puis je veux dire, il est, c'était tu gelé, l'avez vous reçu? Je comprends pas.</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr"/>
+      <c r="O314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -12936,6 +15304,13 @@
       </c>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>Ben moi j'ai changé de numéro de téléphone donc je l'ai changé sur le site de la Banque et par Internet. Mais quand que j'essaie de rentrer version web ou d'utiliser le MES codes de la Banque pour rentrer sur le site du gouvernement, ça l'essaie d'envoyer un code vérificateur quand même. Dans mon ancien numéro.</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr"/>
+      <c r="O315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -12974,6 +15349,13 @@
       </c>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>Ben moi j'ai changé de numéro de téléphone donc je l'ai changé sur le site de la Banque sur par Internet. Mais quand que j'essaie de rentrer version web ou d'utiliser le MES codes de la Banque pour rentrer sur le site du gouvernement, ça l'essaie d'envoyer un code vérificateur quand même. Dans mon ancien numéro.</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr"/>
+      <c r="O316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13012,6 +15394,13 @@
       </c>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>À Ben, moi j'ai changé de numéro de téléphone donc je l'ai changé. Sur le site de la Banque, sur par Internet. Mais quand j'essaie de rentrer version web ou tu utiliser le MES codes de la Banque pour rentrer sur le site du gouvernement, ça l'essaie d'envoyer un code vérificateur quand même. Dans mon ancien numéro.</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13050,6 +15439,13 @@
       </c>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>Écouter je viens de parler avec une dame chez Canassurance parce que vous m'avez transféré la tantôt quand j'ai appelé une première fois et la dame de Canassurance elle me dit que c'est pas elle qui peut m'aider, ce sera plus vous la, mon problème c'est que j'ai payé. J'ai fait un paiement en fait il y a eu un prélèvement sur ma carte de crédit l'année passée concernant un voyage que j'aurais dû faire puis que j'ai pas pu faire à cause que c'était aux États-Unis puis que les frontières sont fermées et la compagnie de location avec qui j'avais fait affaire. On prélève un montant sans mon autorisation. Finalement sur ma carte de crédit. C'est ce montant là que j'ai besoin de faire rembourser.</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr"/>
+      <c r="O318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13088,6 +15484,13 @@
       </c>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>Écouter je viens de de parler avec une dame chez qu'une assurance parce que vous m'avez transféré la tantôt quand j'ai appelé une première fois et la dame de Canassurance elle me dit que c'est pas elle qui peut m'aider, ça sera plus vous la, mon problème c'est que j'ai payé. J'ai fait un paiement en fait il y a eu un prélèvement sur ma carte de crédit l'année passée concernant un voyage que j'aurais dû faire puis que j'ai pas pu faire à cause que c'était aux États-Unis puis que les les frontières sont fermées. Et la compagnie de location avec qui j'avais fait affaire en prélevant un montant sans mon autorisation. Finalement, sur ma carte de crédit, c'est ce montant là que j'ai besoin de faire rembourser.</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr"/>
+      <c r="O319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13126,6 +15529,13 @@
       </c>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>Écoutez hier, j'avais 2 chèques à déposer. Le premier a passé, ça allait, ça a été très bien. Puis le 2e ça me dit que il peut pas déposer en ce moment j'ai essayé et bla bla ce matin puis ça fonctionne pas encore mon chèque, le chèque que j'ai eu, il est un petit peu déchiré dans le coin, en bas à gauche. Est-ce que ça peut être ça?</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr"/>
+      <c r="O320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13164,6 +15574,13 @@
       </c>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>Écoutez hier, j'avais 2 chèques à déposer. Le premier a passé, ça allait, ça a été très bien. Puis le 2e ça me dit que il peut pas déposer en ce moment j'ai réessayé hein ce matin puis ça fonctionne pas encore mon chèque, le chèque que j'ai eu, il est un petit peu déchiré dans le coin, en bas à gauche. Est-ce que ça peut être ça?</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr"/>
+      <c r="O321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13202,6 +15619,13 @@
       </c>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr"/>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>Écoutez hier, j'avais 2 chèques à déposer, les premiers à passer, ça allait, ça a été très bien. Puis le 2e, ça me dit que il peut pas déposer en ce moment. J'ai réessayé mon ce matin puis ça fonctionne pas encore. Mon chèque, le chèque que j'ai eu, il est un petit peu déchiré dans le coin, en bas à gauche. Est-ce que ça peut être ça?</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr"/>
+      <c r="O322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13240,6 +15664,13 @@
       </c>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>En fait, je vous appelle pour annuler un paiement de mon compte chèque vers ma carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr"/>
+      <c r="O323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -13278,6 +15709,13 @@
       </c>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>En fait, je vous appelle pour annuler un paiement de mon compte chèque vers ma ma carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr"/>
+      <c r="O324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -13316,6 +15754,13 @@
       </c>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>Mot. C'est parce qu'il y a j'ai une lettre d'augmentation mot retourne ça par la malle, mot avant 45 jours, je peux tu le faire par téléphone?</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr"/>
+      <c r="O325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -13354,6 +15799,13 @@
       </c>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>C'est parce que hier j'ai une lettre d'augmentation et assez je vais retourne ça par la malle ça avant 45 jours, je peux tu le faire par téléphone?</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr"/>
+      <c r="O326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -13392,6 +15844,13 @@
       </c>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr"/>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>C'est parce que hier j'ai eu l'automation, mon retourne ça par la malle, mot avant 45 jours, je peux tu le faire par téléphone?</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr"/>
+      <c r="O327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -13430,6 +15889,13 @@
       </c>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>En fait, j'ai besoin de me commander des chèques, là je suis sur mon application en ligne en ce moment. Puis je trouve pas l'option.</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr"/>
+      <c r="O328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -13468,6 +15934,13 @@
       </c>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>En fait, j'ai besoin de me commander des chèques, là je suis sur mon application en ligne en ce moment. Puis je trouve pas l'option.</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr"/>
+      <c r="O329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -13506,6 +15979,13 @@
       </c>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr"/>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>En fait, j'ai besoin de me commander des chèques, là je suis sur mon application en ligne en ce moment. Puis je trouve pas l'option.</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr"/>
+      <c r="O330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -13544,6 +16024,13 @@
       </c>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>Moi, j'appelle, j'ai reçu mon relevé hier de de de mon compte, puis moi bien tu sais, j'ai j'ai j'ai annulé ma carte là. De crédit. Puis je venais juste de faire la cotisation, fait que là ils m'ont dit, je serai remboursée, mais là, quand j'ai reçu mon relevé hier c'est comme on marque encore moins moins 30$ là.</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr"/>
+      <c r="O331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -13582,6 +16069,13 @@
       </c>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr"/>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>Moi, j'appelle, j'ai reçu mon relevé hier. Des des des mon compte, puis moi Ben tu sais, j'ai j'ai j'ai annulé ma carte là. De crédit. Puis je venais juste de faire la cotisation, fait que là ils m'ont dit que ça serait remboursé, mais là, quand j'ai reçu mon relevé hier. C'est comme on marque encore moins moins 30$ là.</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr"/>
+      <c r="O332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -13620,6 +16114,13 @@
       </c>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr"/>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>Ce serait pour changer le code de pour avoir l'accès.</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr"/>
+      <c r="O333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -13658,6 +16159,13 @@
       </c>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr"/>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>Ce serait pour changer le code, pour avoir l'accès à Internet.</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr"/>
+      <c r="O334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -13696,6 +16204,13 @@
       </c>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr"/>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>Ce serait pour changer le code de, pour avoir l'accès internet.</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr"/>
+      <c r="O335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -13734,6 +16249,13 @@
       </c>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr"/>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>Bonjour Monsieur, j'arrive pas à me connecter sur ma sur internet bla-bla à la Banque.</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr"/>
+      <c r="O336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -13772,6 +16294,13 @@
       </c>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr"/>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>Bonjour Monsieur, j'arrive pas à me connecter sur ma sur Internet à la Banque.</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr"/>
+      <c r="O337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -13810,6 +16339,13 @@
       </c>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>Je viens de sortir de l'épicerie et je me suis rendu compte ne plus avoir même carte Mastercard sur moi.</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -13848,6 +16384,13 @@
       </c>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>Je viens de sortir de l'épicerie et je me suis rendu compte ne plus avoir ma carte Mastercard sur moi.</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -13886,6 +16429,13 @@
       </c>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>Dans le fond, c'est à titre d'information. J'aimerais savoir pourquoi depuis à peu près une semaine, le paypass de ma carte fonctionne pas puis l'application aussi je. J'ai de la misère à, c'est juste sur l'application en tant que tel.</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -13924,6 +16474,13 @@
       </c>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>Dans le fond, c'est à titre d'information. J'aimerais savoir pourquoi depuis à peu près une semaine, le paypass de ma carte fonctionne pas bien, puis l'application aussi. J'ai de la misère à c'est juste sur l'application en tant que tel.</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -13962,6 +16519,13 @@
       </c>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>Dans le fond, c'est à titre d'information. J'aimerais savoir pourquoi depuis à peu près une semaine, le paypass. De ma carte fonctionne pas. Puis l'application aussi, j'ai de la misère à, c'est juste sur l'application en tant que tel.</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr"/>
+      <c r="O342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14000,6 +16564,13 @@
       </c>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>J'avais un message de vous rappeler concernant les transactions qui auraient été faites sur ma carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr"/>
+      <c r="O343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14038,6 +16609,13 @@
       </c>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>J'avais un message de vous rappeler concernant des transactions qui ont été faites sur ma carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr"/>
+      <c r="O344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14076,6 +16654,13 @@
       </c>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr"/>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>J'avais un message de vous rappeler qu'en concernant des transactions qui auraient été faites sur ma carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr"/>
+      <c r="O345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14114,6 +16699,13 @@
       </c>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr"/>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>Donc pour moi ça sera pas la première fois, ça fait 8 ans que je retourne des virements du Maroc et ça fait vraiment plus de 4 jours ouvrables donc. Je sais pas si vous pouvez d'une façon ou d'une autre vérifier la trajectoire du virement.</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr"/>
+      <c r="O346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -14152,6 +16744,13 @@
       </c>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr"/>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>Donc pour moi ça sera pas la première fois, ça fait 8 ans que je retourne des virements du Maroc. Et. Ça fait vraiment plus de 4 jours ouvrables, donc je sais pas si vous pouvez d'une façon ou d'une autre vérifier la trajectoire du virement.</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr"/>
+      <c r="O347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -14190,6 +16789,13 @@
       </c>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr"/>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>Donc pour moi ça sera pas la première fois, ça fait 8 ans que je retourne des virements du Maroc et ça fait vraiment plus de 4 jours ouvrables. Donc je sais pas si vous pouvez d'une façon ou d'une autre vérifier la trajectoire du virement.</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr"/>
+      <c r="O348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -14228,6 +16834,13 @@
       </c>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr"/>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>J'ai des points à la carte dans ma dans mon compte Mastercard. C'est une Mastercard allure. J'aimerais savoir à combien ça équivaut à peu près en argent.</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr"/>
+      <c r="O349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -14266,6 +16879,13 @@
       </c>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr"/>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>J'ai des points à la carte mais dans ma dans mon compte, ma secave, c'est une Mastercard allure. J'aimerais savoir à combien ça équivaut à peu près en argent.</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr"/>
+      <c r="O350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -14304,6 +16924,13 @@
       </c>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr"/>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>J'ai des points à la carte dans ma dans mon compte Mastercard. C'est une Mastercard allure. J'aimerais savoir à combien ça équivaut à peu près en argent.</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr"/>
+      <c r="O351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -14342,6 +16969,13 @@
       </c>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr"/>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>Ben moi, j'ai un prêt auto avec vous, là j'aimerais ça faire un paiement de 2500 vendredi.</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr"/>
+      <c r="O352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -14380,6 +17014,13 @@
       </c>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr"/>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>Moi, j'ai un prêt auto avec vous, là j'aimerais ça faire un paiement de 2500 vendredi.</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr"/>
+      <c r="O353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -14418,6 +17059,13 @@
       </c>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr"/>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>Moi, j'ai un prêt auto avec vous, là j'aimerais ça faire un paiement de 2500 vendredi.</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr"/>
+      <c r="O354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -14456,6 +17104,13 @@
       </c>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr"/>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>Ah, c'est parce qu'il m'avait appelé Moi, j'avais appelé pour Ben pour faire arrêter un paiement, là c'était Xbox à 13$ par mois et puis là ils ont dit Ben c'est une fraude nous autres on prend ça comme une fraude là pis y a quelqu'un qui m'avait rappelé là-dessus. Et puis là je retournais l'appel.</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr"/>
+      <c r="O355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -14494,6 +17149,13 @@
       </c>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr"/>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>À c'est parce qu'il m'avait appelé moi, j'avais appelé pour pour faire arrêter un paiement, là c'était Xbox à 13$ par mois et puis là ils ont dit Ben c'est une fraude nous autres on prend ça comme une fraude là pis y a quelqu'un qui m'avait rappelé là-dessus, puis là je retournais l'appel.</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr"/>
+      <c r="O356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -14532,6 +17194,13 @@
       </c>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>Ah, c'est parce qu'il m'avait appelé Moi, j'avais appelé pour Ben pour faire. Arrêter un paiement là, c'était Xbox à 13$ par mois et puis là ils ont dit Ben c'est une fraude nous autres on prend ça comme une fraude là puis il y a quelqu'un qui m'avait rappelé là-dessus et puis là je retournais l'appel.</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr"/>
+      <c r="O357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -14570,6 +17239,13 @@
       </c>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr"/>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> J'ai eu des frais là d'intérêt, sur ma carte de crédit. Le paiement a été fait là le le lendemain de la date, je trouve ça plate un petit peu qu'on n'est pas de de rappel par courriel hein, moi je.</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr"/>
+      <c r="O358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -14608,6 +17284,13 @@
       </c>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr"/>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>J'ai eu des frais là d'intérêt, sur ma carte de crédit. Le paiement a été fait là le le le lendemain de la date je trouve ça plate un petit peu qu'on n'est pas de de rappel par courriel. Moi je.</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr"/>
+      <c r="O359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -14646,6 +17329,13 @@
       </c>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr"/>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>J'ai eu des frais là d'intérêt, sur ma carte de crédit. Le paiement a été fait là le le le lendemain de la date je trouve ça plate un petit peu qu'on n'est pas de de rappel par courriel hein, moi je.</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr"/>
+      <c r="O360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -14684,6 +17374,13 @@
       </c>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr"/>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>Je vous explique juste un peu. C'est quoi le le problème? Suis allée avec ma mère la semaine passée pour signer une procuration à la banque, parce que c'est moi qui va payer comme c'est compte et tout ça. Et puis avant, quand je j'accédais la banque nationale en ligne, je voyais, c'est sûr, Mastercard, j'étais capable de payer automatiquement en ligne. Maintenant, je le vois pas parce que quand ils ont fait la la procuration, Monsieur à la Banque qui me l'a mis comme sur mon compte, comme si j'avais un compte d'épargne de plus, pis que je vais le compte de maman. Sauf que j'ai pas accès à sa Mastercard. Ça cloche chez IGA. J'ai la Mastercard Accès D la Banque en ligne, là, sur son iPad. Mais là, je voulais juste avec son autorisation, qu'elle mette aussi mon nom sur son compte si jamais il arrivait des choses comme c'est un une, chargé, une surcharge où hiver que je pourrais vous parler de automatiquement directement s'il y avait des choses comme ça, c'est correct.</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr"/>
+      <c r="O361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -14722,6 +17419,13 @@
       </c>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr"/>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>Je vous explique juste un peu. C'est quoi le le problème? Je. Je suis allé avec ma mère la semaine passée pour signer une procuration à la banque, parce que c'est moi qui va payer comme ces comptes et tout ça. Et puis avant, quand j'accédais la banque nationale en ligne? Je voyais. C'est sans Mastercard et j'étais capable de la de le payer automatiquement en ligne. Maintenant je le vois pas parce que quand qui en fait la la procuration, Monsieur à la Banque, il me l'a mis comme sur mon compte, comme si j'avais comme un compte d'épargne de plus, pis que je vois le compte de ma mère sauf que j'ai pas accès à sa Mastercard. C'est que là je suis chez iga, j'ai la Mastercard, accéder. La Banque en ligne, il l'a sur son iPad, mais là, je voulais juste avec son autorisation, qu'elle mette aussi mon nom sur son compte si jamais il arrivait des choses comme c'est un une chargé, une surcharge welliver que je pourrais vous parler de automatiquement directement s'il y avait des choses comme ça, c'est correct.</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr"/>
+      <c r="O362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -14760,6 +17464,13 @@
       </c>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr"/>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>Je vous explique juste un peu. C'est quoi le le problème? Je suis allé avec ma mère la semaine passée pour, c'est une procuration à la Banque parce que c'est moi qui va payer comme c'est comptes et tout ça. Et puis avant quand je j'accédais banque nationale en ligne, je voyais, tu sais son Mastercard et j'étais capable de le payer automatiquement en ligne. Maintenant je le vois pas moi parce que quand ils ont fait la la procuration Monsieur à la Banque il me l'a mis comme sur mon compte comme si j'avais un compte d'épargne de plus. Que je vois le compte de ma mère, sauf que j'ai pas accès à sa Mastercard fait que là je suis à IGA, j'ai la Mastercard, accéder à la banque en ligne, là sur son iPad, mais là je voulais juste avec son autorisation qu'elle mette aussi mon nom sur son compte si jamais il arrivait des choses comme c'est un une, chargé, une surcharge où wever que je pourrais vous parler de automatiquement directement s'il y avait des choses comme ça, c'est correct.</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr"/>
+      <c r="O363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -14798,6 +17509,13 @@
       </c>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr"/>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>Dans le fond, moi, j'ai un prêt avec la banque nationale qui a été contracté par un concessionnaire, je veux savoir c'est quoi si je donne ma voiture pis je veux claire le prêt au complet, j'ai tu des frais dans le fond.</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr"/>
+      <c r="O364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -14836,6 +17554,13 @@
       </c>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr"/>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>Dans le fond, moi, j'ai un prêt avec la banque nationale qui a été contracté par un concessionnaire et je veux savoir c'est quoi si je donne ma voiture, puis je veux clairer le pré au complet, j'ai tu des frais dans le fond?</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr"/>
+      <c r="O365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -14874,6 +17599,13 @@
       </c>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr"/>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>Alors, on me transfère parce que moi je vais pas me déplacer en succursale pour ça, c'est que moi, mon paiement est toujours prêt. Autorisé avec Nissan finance le 17 de chaque mois au montant de 290 alors mars est payé, le prochain sera le 17 avril sauf demain. Je vais chercher ma nouvelle voiture et le montant va être prélevé alors faudrait annuler le 17 avril 290 puis moi demain je vais faire un nouveau chèque au montant de la voiture là qui était 300 quelque chose là.</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr"/>
+      <c r="O366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -14912,6 +17644,13 @@
       </c>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr"/>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>Alors en me transfert parce que moi je vais pas me déplacer en succursale pour ça, c'est que moi mon paiement est toujours prêt. Autorisé avec Nissan finance le 17 de chaque mois au montant de 290$ alors mars est payé, le prochain sera le 17 avril sauf demain. Je vais chercher ma nouvelle voiture et le menton va être prélevé alors faudrait annuler 17 avril 290 puis moi demain je vais faire un nouveau chèque au montant de la voiture là qui était 300 quelque chose là.</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr"/>
+      <c r="O367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -14950,6 +17689,13 @@
       </c>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr"/>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>Alors, on me transfère parce que moi je vais pas me déplacer en succursale pour ça, c'est que moi, mon paiement est toujours prêt. Autorisé avec Nissan finance le 17 de chaque mois au montant de 290 alors merci payé. Le prochain sera le 17 avril sauf demain. Je vais chercher ma nouvelle voiture, elle montant va être prélevé alors faudrait annuler 17 avril 290 puis moi demain je vais faire un nouveau chèque au montant de la voiture là qui était 300 quelque chose là.</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr"/>
+      <c r="O368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -14988,6 +17734,13 @@
       </c>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr"/>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>C'est juste pour, j'aimerais ça faire mettre, baisser ma, ma, ma carte. Là je pense qu'elle est à 9005, j'aimerais ça baisser à 3000 seulement.</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr"/>
+      <c r="O369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15026,6 +17779,13 @@
       </c>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr"/>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>C'est juste pour, j'aimerais ça faire mettre, baisser ma, ma, ma carte. Là je pense que à 9005 j'aimerais ça baisser à 3000 seulement.</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr"/>
+      <c r="O370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -15064,6 +17824,13 @@
       </c>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr"/>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>C'est juste pour, j'aimerais ça faire mettre, baisser ma, ma, ma carte. Là je pense qu'il y a 9005, j'aimerais ça baisser à 3000 seulement.</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr"/>
+      <c r="O371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -15102,6 +17869,13 @@
       </c>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr"/>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>Un, c'est juste que je voulais voir mon mon compte Mastercard en ligne, puis je peux voir le l'historique des transactions. Puis il y a une transaction datée du 13 avril qui qui est entrée en double.</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr"/>
+      <c r="O372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -15140,6 +17914,13 @@
       </c>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr"/>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>Hein? C'est juste que je voulais voir mon mon compte Mastercard en ligne, puis je peux voir le l'historique des transactions. Puis il y a une transaction datée du 13 avril qui qui est entrée en double.</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr"/>
+      <c r="O373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -15178,6 +17959,13 @@
       </c>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr"/>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>C'est juste que je voulais voir mon mon compte Mastercard en ligne, puis je peux voir le l'historique des transactions. Puis il y a une transaction datée du 13 avril qui qui est entrée en double.</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr"/>
+      <c r="O374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -15216,6 +18004,13 @@
       </c>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr"/>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>J'ai essayé de rajouter un destinataire pour les virements interac, puis j'avais mon ancienne carte de débit fait que j'ai pas rentré la bonne date d'expiration mot. Là je suis bloquée.</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr"/>
+      <c r="O375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -15254,6 +18049,13 @@
       </c>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr"/>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>J'ai essayé de rajouter un destinataire pour les virements interac, puis j'avais mon ancienne carte de débit. Fait que j'ai pas rentré la bonne date d'expiration là bla-bla. Là je suis bloqué.</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr"/>
+      <c r="O376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -15292,6 +18094,13 @@
       </c>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr"/>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>J'ai essayé de rajouter un destinataire pour les virements interac, puis j'avais mon ancienne carte de débit fait que j'ai pas rentré la bonne date d'expiration dans le là je suis bloquée.</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr"/>
+      <c r="O377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -15330,6 +18139,13 @@
       </c>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr"/>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai parlé à quelqu'un tantôt pour en fait parce que j'ai reçu un courriel de la Banque parce que mon hypothèque se renouvelle au mois d'août, puis on me disait, je pouvais renouveler l'intérêt avec un taux plus bas, là fait que j'ai parlé à quelqu'un tantôt prendre des informations. J'ai dit que je rappellerais pour choisir là, donc c'est ça. J'ai rappelé.</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr"/>
+      <c r="O378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -15368,6 +18184,13 @@
       </c>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr"/>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>Bonjour, j'ai parlé à quelqu'un tantôt pour en fait parce que j'ai reçu un courriel de la Banque parce que mon hypothèque se renouvelle au mois d'août. Puis on me disait que je pouvais renouveler l'intérêt avec un taux plus bas. Lol c'est que j'ai parlé à quelqu'un. Ton tour prendre des informations. J'ai dit que je rappellerais pour choisir là, donc c'est ça. J'ai rappelé.</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr"/>
+      <c r="O379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -15406,6 +18229,13 @@
       </c>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr"/>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. Je parlais à quelqu'un tantôt pour en fait parce que j'ai reçu un courriel de la Banque parce que mon hypothèque se renouvelle au mois d'août, pis on me disait, je pouvais renouveler l'intérêt avec un taux plus bas, là fait que j'ai parlé à quelqu'un tantôt prendre des informations. J'ai dit que je rappellerais pour choisir, donc là c'est ça que j'ai rappelé.</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr"/>
+      <c r="O380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -15444,6 +18274,13 @@
       </c>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr"/>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>Dans le fond, j'ai 2 nouveaux dans le fond, place que je dois faire des des paiements. J'aimerais ça les ajouter dans le fond pour que je puisse les payer par Internet.</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr"/>
+      <c r="O381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -15482,6 +18319,13 @@
       </c>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr"/>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>Ben dans le fond, j'ai 2 nouveaux dans le fond, place que je dois faire des. Paiement, j'aimerais ça les ajouter dans le fond pour que je puisse les payer par Internet.</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr"/>
+      <c r="O382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -15520,6 +18364,13 @@
       </c>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr"/>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>Voici ce que la puce de ma carte de crédit fonctionne pour ainsi dire jamais dans les magasins actuellement depuis quelques temps.</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr"/>
+      <c r="O383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -15558,6 +18409,13 @@
       </c>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr"/>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>Ben voilà ce qui est arrivé hier, j'étais dans un commerce à Saint-Jérôme et je demeure à Saint-Jérôme et. Et puis là j'ai été payé une mot de 8 piasses avec ma carte mot. Et puis ça a jamais passé 123. Et puis bon alors là j'ai été obligé de le payer autrement. Là, j'ai été chez le commerce à côté, à l'épicerie, je j'achète ce que j'ai acheté mot. Ma carte s'était était barrée, je pouvais pas m'en servir, mais là, j'ai YAYAYA des fonds albums.</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr"/>
+      <c r="O384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -15596,6 +18454,13 @@
       </c>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr"/>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>Bien voilà ce qui arrivait hier. J'étais dans un commerce à Saint-Jérôme. Je demeure à Saint-Jérôme et bla-Bla-bla. Et puis là, j'ai été payée une bla-bla-bla de 8 Piasses avec ma carte bla-bla-bla. Et puis ça jamais passé et 123. Et puis bon alors là j'ai été obligée de le payer autrement là. J'ai acheté été chez le commerce à côté, à l'épicerie. Je j'achète ce que j'ai à acheter, bla-bla-bla. Ma carte s'était était barrée, je pouvais pas m'en servir, mais là j'ai y a y a. Y a. Des fonds dans le compte.</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr"/>
+      <c r="O385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -15634,6 +18499,13 @@
       </c>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr"/>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>Ben voilà ce qui est arrivé hier, j'étais dans un commerce à Saint-Jérôme. Je demeure à Saint-Jérôme et blabla, puis là j'ai été payé une blabla de 8 piasses avec ma carte bla-bla-bla et puis là ça a jamais passé et 123 et puis bon alors là j'ai été obligé de le payer autrement. Là j'ai été chez le commerce à côté, à l'épicerie, je j'achète ce que j'ai à acheter, bla-bla-bla. La carte c'était était barrée, je pouvais pas m'en servir mais là j'ai Aya des fonds dans le compte.</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr"/>
+      <c r="O386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -15672,6 +18544,13 @@
       </c>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr"/>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>En fait, j'aimerais bien payer ma carte bancaire Mastercard avant j'avais cette possibilité mais ça a disparu sur le site, mais je ne me souviens plus exactement comment la payer en fait.</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr"/>
+      <c r="O387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -15710,6 +18589,13 @@
       </c>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr"/>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>En fait, j'aimerais bien payer ma carte bancaire Mastercard avant j'avais cette possibilité mais ça a disparu sur le site, mais je ne me souviens plus exactement comment la payer en fait.</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr"/>
+      <c r="O388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -15748,6 +18634,13 @@
       </c>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr"/>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>Oui, en fait, je voulais juste savoir pourquoi je paie des frais d'intérêt dans ma carte de crédit. En fait, comme là le dernier frais c'est 23,00$ les mois passés, c'est comme 90, ça tournait autour de ça.</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr"/>
+      <c r="O389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -15786,6 +18679,13 @@
       </c>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr"/>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>Oui, en fait, je voulais juste savoir pourquoi je paie des frais d'intérêt dans ma carte de crédit. En fait, comme là le le dernier frais c'est 23,00$ le les mois passés c'est comme 90, ça tournait autour de ça.</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr"/>
+      <c r="O390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -15824,6 +18724,13 @@
       </c>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr"/>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>Oui, en fait, je voulais juste savoir pourquoi je paie des frais d'intérêt dans ma carte de crédit. En fait, comme là le le dernier frais c'est 23,00$ le les mois passés c'est comme 90, ça tournait autour de ça.</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr"/>
+      <c r="O391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -15868,6 +18775,15 @@
         <v>0</v>
       </c>
       <c r="L392" t="inlineStr"/>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>Oui, alors un instant là j'ai des comptes, faire avec vous là, donc vous avez toutes mes informations là, mon nom et cetera.</t>
+        </is>
+      </c>
+      <c r="N392" t="n">
+        <v>0</v>
+      </c>
+      <c r="O392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -15912,6 +18828,15 @@
         <v>0</v>
       </c>
       <c r="L393" t="inlineStr"/>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>Oui, alors un instant là j'ai des comptes, faire. Avec vous là. Donc vous avez toutes mes informations là, mon nom et cetera.</t>
+        </is>
+      </c>
+      <c r="N393" t="n">
+        <v>0</v>
+      </c>
+      <c r="O393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -15956,6 +18881,15 @@
         <v>0</v>
       </c>
       <c r="L394" t="inlineStr"/>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>Oui, alors un instant là j'ai des comptes, faire avec vous là, donc vous avez toutes mes informations là, mon nom et cetera.</t>
+        </is>
+      </c>
+      <c r="N394" t="n">
+        <v>0</v>
+      </c>
+      <c r="O394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -15994,6 +18928,13 @@
       </c>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr"/>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>Oui, j'arrive de la Banque, je suis allé faire un emprunt, un prêt personnel pour pour payer la carte de crédit Mastercard au complet. Là je vais sur mon compte qu'elle n'est pas c'est pas encore rentré dans le compte Mastercard. Mais mon le mon agent m'avait dit que c'était effectif tout de suite. Ce que je souhaiterais faire aujourd'hui, ça serait diminuer la marge de crédit s'il vous plaît, est-ce que c'est possible?</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr"/>
+      <c r="O395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -16032,6 +18973,13 @@
       </c>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr"/>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>Oui, j'arrive de la Banque, je suis allée faire un emprunt, un prêt personnel pour pour payer la carte de crédit Mastercard au complet. Là je vois sur mon compte qu'elle n'est pas c'est pas encore rentré dans le compte Mastercard mais mon le mon agent avait m'avait dit que c'était effectif tout de suite. Ce que je souhaiterais faire aujourd'hui, ça serait diminuer la marge de crédit s'il vous plaît. Est-ce que c'est possible?</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr"/>
+      <c r="O396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -16070,6 +19018,13 @@
       </c>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr"/>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>Oui, j'arrive de la Banque, je suis allé faire un emprunt, un prêt personnel pour pour payer la carte de crédit Mastercard au complet. Là, je vois sur mon compte qu'elle n'est pas c'est pas encore rentré dans le compte Mastercard mais mon le mon agent m'avait dit que c'était effectif tout de suite. Ce que je souhaiterais faire aujourd'hui, ça serait diminuer la marge de crédit s'il vous plaît, est-ce que c'est possible?</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -16108,6 +19063,13 @@
       </c>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr"/>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bon, moi j'ai eu un appel ce matin, quelqu'un qui disait qu'on essayait de frauder dans mon compte de banque s'il ne suit, qui était très instant, il disait que c'est la banque mot de Toronto. L'appel, c'est une fraude nationale. En tout cas, c'est clair. M'a demandé lequel. Appareil j'utilisais et m'a fait ouvrir mon ordinateur et tout et là quand j'ai vu que c'était marqué mot.com, puis qu'il y avait une alerte, j'ai refusé de rentrer dans le système qui disait Faites le Monsieur était pas content mais je comprends pas qu'il a eu mon numéro de téléphone. </t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr"/>
+      <c r="O398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -16146,6 +19108,13 @@
       </c>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr"/>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>Bon, moi j'ai eu un appel ce matin, quelqu'un qui disait qu'on essayait de frauder dans mon compte de banque, c'est le Monsieur qui était très insistant et il disait que c'est la Banque, que le rôle de Toronto, la paix, c'est une fraude nationale. En tout cas, c'est que là il m'a demandé lequel appareil j'utilisais. Il m'a fait ouvrir mon ordinateur et tout est là. Quand j'ai vu que c'était marque.com puis qu'il y avait une alerte, j'ai refusé de de rentrer dans le système qui me disait. C'est que là, le Monsieur était pas content, mais je comprends pas qu'il est mon eu, mon numéro de téléphone.</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr"/>
+      <c r="O399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -16184,6 +19153,13 @@
       </c>
       <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr"/>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>Bon, moi j'ai un appel ce matin, quelqu'un qui disait qu'on essaie de frauder dans mon compte de banque, c'est le Monsieur qui était très insistant. Il disait que c'est la Banque qui aura de Toronto. L'appel c'est une fraude nationale, en tout cas fait que là il m'a demandé lequel apparaît. J'utilisais. Il m'a fait ouvrir mon ordinateur et tout et là quand j'ai vu que c'était marqué bla.com puis qu'il y avait une alerte, j'ai refusé de de rentrer dans le système qui me disait fait que là le Monsieur était pas content mais je comprends pas qu'il a eu mon numéro de téléphone.</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr"/>
+      <c r="O400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -16222,6 +19198,13 @@
       </c>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr"/>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>Ouais c'est ça. Je vous appelle parce que j'ai essayé de payer ma ma marge de crédit à partir de de mon courriel, j'ai j'envoyé de d'argent sur mon courriel. Après ça, je vais faire un transfert. Mais aussitôt quand, quand apparaître de banque nationale j'ai tout de suite le le problème technique, c'est comme si transfert et c'est comme bloqué ou quelque chose.</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr"/>
+      <c r="O401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -16260,6 +19243,13 @@
       </c>
       <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr"/>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>Ouais c'est ça. Je vous appelle parce que j'ai essayé de payer ma ma marge de crédit à partir de mon courriel et j'ai envoyé de de d'argent sur mon courriel. Après ça, je voulais faire un transfert. Mais aussitôt quand quand apparaître. De banque nationale, j'ai tout de suite le le. Le problème technique, c'est comme si transfert il s'est comme bloqué ou quelque chose.</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr"/>
+      <c r="O402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -16298,6 +19288,13 @@
       </c>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr"/>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai parlé à notre personne d'avance avant toi c'était concernant c'est parce qu'on s'est fait pirater notre courriel, notre cellulaire. Je voulais savoir si ça pouvait avoir une incidence sur nos comptes de banque, est-ce qu'il fallait que j'avertisse pour que, pour que vous vérifiez mieux, les comptes de banque pour pas qu'il arrive des transactions bizarres comme on dit, où on laisse ça comme ça? Fallait que j'avertisse.</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -16336,6 +19333,13 @@
       </c>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr"/>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai parlé à une autre personne d'avance avant toi c'était concernant c'est parce qu'on s'est fait pirater notre courriel notre cellulaire. Je voulais savoir si ça pouvait avoir une incidence sur nos comptes de banque, est-ce qu'il fallait que j'avertisse pour que, pour que vous vérifiez mieux, les comptes de banque pour pas qu'il arrive des transactions bizarres comme on dit, où on laisse ça comme ça? Il fallait que j'avertisse.</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr"/>
+      <c r="O404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -16374,6 +19378,13 @@
       </c>
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr"/>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai parlé à une autre personne d'avance avant toi c'était concernant c'est parce qu'on s'est fait pirater notre courriel notre cellulaire. Je voulais savoir si ça pouvait avoir une incidence sur nos comptes de banque, est-ce qu'il fallait que j'avertisse pour que, pour que vous vérifiez mieux, les comptes de banque pour pas qu'il arrive des transactions bizarres comme on dit, où on laisse ça comme ça? Il fallait que je l'avertisse.</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr"/>
+      <c r="O405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -16412,6 +19423,13 @@
       </c>
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr"/>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>Puis, dans le fond, je voulais juste m'assurer, parce que ma mon en fait mon prochain paiement, bla-bla-bla. Taxes municipales était le 3 juin, puis la prise de possession est le 27 mai. Fait que je voulais m'assurer que ce soit pas pris. Puis s'il y avait un solde restant dans mon compte de taxes municipales et scolaires, bien je pense que vous vous l'appliquez au solde hypothécaire directement.</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr"/>
+      <c r="O406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -16450,6 +19468,13 @@
       </c>
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr"/>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>Puis, dans le fond, je voulais juste m'assurer, parce que ma mon en fait mon prochain paiement de taxe municipale était le 3 juin, puis la prise de possession est le 27 mai. C'est que je voulais m'assurer que ça soit pas pris. Puis s'il y avait un solde restant dans mon compte de taxes municipales et scolaires, bien je pense que vous vous l'appliquez au solde hypothécaire directement.</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr"/>
+      <c r="O407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -16488,6 +19513,13 @@
       </c>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr"/>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>Puis, dans le fond, je voulais juste m'assurer, parce que ma mon en fait, mon prochain paiement. Taxe municipale était le 3 juin, puis la prise de possession est le 27 mai fait que je voulais m'assurer que ça soit pas pris. Puis s'il y avait un solde restant dans mon compte de taxe municipale scolaire, bien je pense que vous vous l'appliquez au solde hypothécaire directement.</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr"/>
+      <c r="O408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -16526,6 +19558,13 @@
       </c>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr"/>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'appelle parce que j'ai une marge tout en un et je paye les intérêts minimum mensuellement donc je paye un 6$. L'âge qui mensuellement se débit directement de mon compte et j'aimerais faire augmenter ce paiement là.</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr"/>
+      <c r="O409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -16564,6 +19603,13 @@
       </c>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr"/>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'appelle parce que j'ai une marge tout en un et je paye les intérêts minimum mensuellement donc je paye un 6$ là qui mensuellement se débite directement de mon compte et j'aimerais faire augmenter ce paiement là bla-bla.</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -16602,6 +19648,13 @@
       </c>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr"/>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>Présentement, j'ai subi un vol d'identité.</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr"/>
+      <c r="O411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -16640,6 +19693,13 @@
       </c>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr"/>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>Présentement, j'ai subi un vol d'identité.</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr"/>
+      <c r="O412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -16678,6 +19738,13 @@
       </c>
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr"/>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>Présentement, j'ai su bien un vol d'identité.</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -16716,6 +19783,13 @@
       </c>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>J'aimerais avoir une confirmation parce que j'ai été en discussion ce matin hier, avec des collègues, puis que je souhaite. En fait, j'ai une carte de crédit Mastercard avec vous une platine. J'ai discuté avec certains de vos collègues dans la journée pour souscrire à une World Elite. Par contre, je voulais juste m'assurer parce que je sais que j'ai discuté avec des collègues tantôt, puis je vais avoir vu que je suis cliente depuis un certain nombre d'années. L'exonération des frais de 150$ la première année?</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -16754,6 +19828,13 @@
       </c>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr"/>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>J'aimerais avoir confirmation parce que j'ai été en discussion ce matin hier, avec des collègues, puis que je souhaite en fait, j'ai une carte de crédit Mastercard avec vous une platine. J'ai discuté avec certains de vos collègues dans la journée pour souscrire à une World Elite. Par contre, je voulais juste m'assurer parce que je sais que j'ai discuté avec des collègues tantôt, puis je vais avoir vu que je suis client depuis un certain nombre d'années. L'exonération des frais de 150$ la première année?</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr"/>
+      <c r="O415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -16792,6 +19873,13 @@
       </c>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>J'aimerais avoir une confirmation parce que j'ai été en discussion ce matin hier, avec des collègues, puis que je souhaite. En fait, j'ai une carte de crédit Mastercard avec vous une platine. J'ai discuté avec certains de vos collègues dans la journée pour souscrire à World Elite. Par contre, je voulais juste m'assurer parce que je sais que j'ai discuté avec des collègues tantôt, puis je vais avoir vu que je suis client depuis un certain nombre d'années. L'exonération des frais de 150$ la première année?</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -16842,6 +19930,17 @@
       <c r="L417" t="n">
         <v>1</v>
       </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>Ma question est la suivante, en fait, c'est en ce qui à trait à mon compte celi? Je pense que dès qu'il y a une nouvelle mise à jour qui a été faite sur le site internet et j'arrive plus à retirer de l'argent.</t>
+        </is>
+      </c>
+      <c r="N417" t="n">
+        <v>1</v>
+      </c>
+      <c r="O417" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -16890,6 +19989,15 @@
         <v>0</v>
       </c>
       <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>Ma question est la suivante, en fait, c'est en ce qui à trait à mon compte Célia? Je pense que dès qu'il y a une nouvelle mise à jour qui a été faite sur le site internet et que j'arrive plus à retirer mon argent.</t>
+        </is>
+      </c>
+      <c r="N418" t="n">
+        <v>0</v>
+      </c>
+      <c r="O418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -16938,6 +20046,17 @@
         <v>1</v>
       </c>
       <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>Ma question est la suivante, en fait, c'est en ce qui à trait à mon compte celi? Je pense que dès qu'il y a une nouvelle mise à jour qui a été faite sur le site Internet et je n'arrive plus à retirer de l'argent.</t>
+        </is>
+      </c>
+      <c r="N419" t="n">
+        <v>1</v>
+      </c>
+      <c r="O419" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16978,6 +20097,13 @@
       </c>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr"/>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour voyons. Excusez, j'aimerais savoir, on bloque l'accès pour que je puisse mettre mon compte pour acheter sur crypto.com des monnaies crypto? Puis je voudrais faire qu'est-ce que ça bloque pas?</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -17016,6 +20142,13 @@
       </c>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour voyons. Excusez, j'aimerais savoir, on bloque l'accès pour que je puisse mettre mon compte pour acheter sur crypto.com des money crypto puis je voudrais faire qu'est-ce que ça bloque pas?</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -17054,6 +20187,13 @@
       </c>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>J'ai essayé hier de me connecter puis avec ma clé mais c'est comme si mon code d'utilisateur avait changé. Je suis plus capable de me connecter, puis j'ai des employés qui bien une nouvelle employée, puis il faut que je modifie son compte là.</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -17092,6 +20232,13 @@
       </c>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr"/>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>J'ai essayé hier de me reconnecter, puis avec ma clé, mais c'est comme si mon code d'utilisateur avait changé. Je suis plus capable de me connecter. Puis j'ai des employés qui bien une nouvelle employée, puis il faut que je modifie son compte là.</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr"/>
+      <c r="O423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -17130,6 +20277,13 @@
       </c>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr"/>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>Aya hier de me reconnecter puis avec ma clé, mais c'est comme si mon code d'utilisateur avait changé, je suis plus capable de me connecter. Puis j'ai des employés qui bien une nouvelle employée, puis il faut que je modifie son compte là.</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr"/>
+      <c r="O424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -17168,6 +20322,13 @@
       </c>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr"/>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>Ben moi j'utilise pas ma carte, j'aimerais ça fermer le compte là si jamais je j'en utilise. Un autre fait que.</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -17206,6 +20367,13 @@
       </c>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr"/>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>Bien, moi j'utilise pas ma carte, j'aimerais ça fermer le compte là si jamais je j'en utilise. Un autre fait que.</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -17244,6 +20412,13 @@
       </c>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>Ben moi j'utilise pas ma carte, j'aimerais ça fermer le compte là si jamais je j'en utilise. Un autre fait que.</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr"/>
+      <c r="O427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -17294,6 +20469,17 @@
       <c r="L428" t="n">
         <v>1</v>
       </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>Oui, je voudrais retirer de l'argent de mon celi s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N428" t="n">
+        <v>1</v>
+      </c>
+      <c r="O428" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -17344,6 +20530,17 @@
       <c r="L429" t="n">
         <v>1</v>
       </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>Oui, je voudrais retirer de l'argent de mon celi s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N429" t="n">
+        <v>1</v>
+      </c>
+      <c r="O429" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -17392,6 +20589,17 @@
         <v>1</v>
       </c>
       <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>Oui, je voudrais retirer de l'argent de mon celi s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N430" t="n">
+        <v>1</v>
+      </c>
+      <c r="O430" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17432,6 +20640,13 @@
       </c>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr"/>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>Oui Bonjour alors ici j'ai essayé de passer de faire un achat chez Iga et ça comme dit que c'était refusé où je sais pas.</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr"/>
+      <c r="O431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -17470,6 +20685,13 @@
       </c>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr"/>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour alors j'ai essayé de passer te faire un achat chez IGA et ça a comme dit que c'était refusé où je sais pas.</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr"/>
+      <c r="O432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -17508,6 +20730,13 @@
       </c>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr"/>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>Bonjour Monsieur, j'essaie d'accéder à mon compte bancaire en ligne pour me dit qu'il est verrouillé.</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr"/>
+      <c r="O433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -17546,6 +20775,13 @@
       </c>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>Bonjour Monsieur, j'essaie d'accéder à mon compte bancaire en ligne, puis on me dit qu'il est verrouillé.</t>
+        </is>
+      </c>
+      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -17584,6 +20820,13 @@
       </c>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr"/>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>Bonjour Monsieur, j'essaie d'accéder à mon compte bancaire en ligne, puis on me dit qu'il est verrouillé.</t>
+        </is>
+      </c>
+      <c r="N435" t="inlineStr"/>
+      <c r="O435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -17622,6 +20865,13 @@
       </c>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr"/>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>En fait, dans le fond, j'avais appelé tout à l'heure, puis c'était parce que j'arrivais pas à me connecter au compte bancaire en ligne.</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr"/>
+      <c r="O436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -17660,6 +20910,13 @@
       </c>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr"/>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>En fait, dans le fond, j'avais appelé tout à l'heure, puis c'était parce que j'arrivais pas à me connecter au compte bancaire en ligne.</t>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr"/>
+      <c r="O437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -17698,6 +20955,13 @@
       </c>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr"/>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>En fait, dans le fond, j'avais appelé tout à l'heure, puis c'est parce que j'arrivais pas à me connecter au compte bancaire en ligne.</t>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr"/>
+      <c r="O438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -17736,6 +21000,13 @@
       </c>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr"/>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. Hier j'ai parlé avec une dame qui a ouvert un contrat. Puis elle m'avait, elle m'avait dit fallait juste rappeler pour avoir le le voyant. La confirmation de de mon conjoint et moi.</t>
+        </is>
+      </c>
+      <c r="N439" t="inlineStr"/>
+      <c r="O439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -17774,6 +21045,13 @@
       </c>
       <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr"/>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. Hier j'ai parlé avec une dame qui a ouvert un contrat, puis elle m'avait, elle m'avait dit fallait juste rappeler pour avoir le le le le le voyons la confirmation de de mon conjoint et moi.</t>
+        </is>
+      </c>
+      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -17812,6 +21090,13 @@
       </c>
       <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr"/>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. Hier j'ai parlé avec une dame qui a ouvert un contrat, puis elle m'avait, elle m'avait dit fallait juste rappeler pour avoir le le le voyant la confirmation de de mon conjoint et moi.</t>
+        </is>
+      </c>
+      <c r="N441" t="inlineStr"/>
+      <c r="O441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -17850,6 +21135,13 @@
       </c>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>J'appelle pour une information, nous on Ben. On a présentement une hypothèque qu'en vigueur la, avec la banque nationale. Puis on est dû pour un renouvellement au mois d'août. Je. J'avais contacté votre service il y a pas longtemps, puis on m'avait dit, Ben, vous pourriez, je l'ai, si on veut ou tu sais avoir pris l'autorisé le le taux présentement, puis éventuellement la faire votre renouvellement. Puis je voulais savoir comment ça fonctionnait ce ce fonction la de je l'ai un tour, est-ce qu'on gelé un tour si par exemple on veut un taux en date d'aujourd'hui, est-ce que, s'il varie dans le temps d'ici à ma date de renouvellement, je peux? Je peux aller en auto où est-ce que c'est une fois que j'ai eu un taux? C'est celui-là qui va être appliqué.</t>
+        </is>
+      </c>
+      <c r="N442" t="inlineStr"/>
+      <c r="O442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -17888,6 +21180,13 @@
       </c>
       <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>J'appelle pour un information. Nous, on, on a présentement une hypothèque en vigueur la, avec la banque nationale. Puis on est dû pour un renouvellement au mois d'août. J'avais contacté votre service il y a pas longtemps et puis on m'avait dit Ben vous pourriez geler si on veut ou tu sais avoir pris autorisé le le. Le taux présentement, puis éventuellement la faire votre renouvellement. Puis je voulais savoir comment ça fonctionnait ce. Ce fonction là de geler un taux, est-ce que on gelé un taux si, par exemple, on veut un taux en date d'aujourd'hui, est-ce que si il varie dans le temps d'ici à ma date de renouvellement, je peux je peux geler un auto où est-ce que. C'est une fois que j'ai eu un taux, celui-là qui va être appliqué.</t>
+        </is>
+      </c>
+      <c r="N443" t="inlineStr"/>
+      <c r="O443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -17926,6 +21225,13 @@
       </c>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>J'appelle pour une information, nous on Ben. On a présentement une hypothèque en vigueur la, avec la banque nationale, puis on est dû pour un renouvellement au mois d'août. J'avais contacté votre service il y a pas longtemps et puis on m'avait dit Ben vous pourriez geler si on veut ou tu sais avoir prêt, autorisé le taux présentement, puis éventuellement la faire votre renouvellement. Puis je voulais savoir comment ça fonctionnait ce. Ce fonction là de geler un tout? Est-ce que on gelé un tout si, par exemple, on veut un taux en date d'aujourd'hui, est-ce que si il varie dans le temps d'ici à ma date de renouvellement, je peux je peux geler à un autre tout, où est-ce que c'est une fois que j'ai eu un tout, c'est celui-là qui va être appliqué.</t>
+        </is>
+      </c>
+      <c r="N444" t="inlineStr"/>
+      <c r="O444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -17964,6 +21270,13 @@
       </c>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr"/>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour j'aimerais réactiver la carte de renouvellement.</t>
+        </is>
+      </c>
+      <c r="N445" t="inlineStr"/>
+      <c r="O445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -18002,6 +21315,13 @@
       </c>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'aimerais réactiver ma carte de renouvellement Mastercard.</t>
+        </is>
+      </c>
+      <c r="N446" t="inlineStr"/>
+      <c r="O446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -18040,6 +21360,13 @@
       </c>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr"/>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour j'aimerais réactiver la carte de renouvellement Mastercard.</t>
+        </is>
+      </c>
+      <c r="N447" t="inlineStr"/>
+      <c r="O447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -18078,6 +21405,13 @@
       </c>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>C'est ça, c'est le problème. J'ai fait une ******** je voulais, je voulais détruire moi la vieille carte Mastercard de de de de crédit. J'ai, j'ai j'ai charcuté la carte de débit.</t>
+        </is>
+      </c>
+      <c r="N448" t="inlineStr"/>
+      <c r="O448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -18116,6 +21450,13 @@
       </c>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr"/>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>C'est ça le problème. J'ai fait une ******** je voulais, je voulais détruire moi ma vieille carte Mastercard de de crédit. J'ai j'ai, j'ai charcuté la carte de débit.</t>
+        </is>
+      </c>
+      <c r="N449" t="inlineStr"/>
+      <c r="O449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -18154,6 +21495,13 @@
       </c>
       <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr"/>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>C'est ça, c'est le problème. J'ai fait une ******** je voulais, je voulais détruire moi la vieille carte Mastercard de de de de crédit. J'ai, j'ai, j'ai charcuté le carte de débit.</t>
+        </is>
+      </c>
+      <c r="N450" t="inlineStr"/>
+      <c r="O450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -18192,6 +21540,13 @@
       </c>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr"/>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>Ouais, moi c'est pour ajouter un administrateur de notre compte de banque pour les solutions à faire.</t>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr"/>
+      <c r="O451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -18230,6 +21585,13 @@
       </c>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr"/>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>Ouais moi c'est pour rajouter un administrateur de notre compte de banque. Pour les solutions affaires.</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr"/>
+      <c r="O452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -18268,6 +21630,13 @@
       </c>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr"/>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>Ouais, moi c'est pour ajouter un administrateur de notre compte de banque pour les solutions affaires.</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr"/>
+      <c r="O453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -18306,6 +21675,13 @@
       </c>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr"/>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, je téléphone parce que mon solde, mon prêt hypothécaire, vient à échéance bientôt et vous m'avez envoyé un courriel pour dire que je pouvais vous appeler pour négocier le taux dès maintenant.</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr"/>
+      <c r="O454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -18344,6 +21720,13 @@
       </c>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr"/>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, je téléphone parce que mon solde, mon prêt hypothécaire, vient à échéance bientôt et vous m'avez envoyé un courriel pour dire que je pouvais vous appeler pour négocier le taux dès maintenant.</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr"/>
+      <c r="O455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -18382,6 +21765,13 @@
       </c>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr"/>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, je téléphone parce que mon solde, mon prêt hypothécaire, vient à échéance bientôt et vous m'avez envoyé un courriel pour dire que je pouvais vous appeler pour négocier le taux dès maintenant.</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr"/>
+      <c r="O456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -18420,6 +21810,13 @@
       </c>
       <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr"/>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>En fait, moi j'ai cette fin de semaine, je voulais acheter quelque chose sur un site internet, j'ai utilisé ma carte, Ben en fait le Paypal, mais en fait le site c'est un site fictif donc quand j'entrai le de le montant j'ai fait la transaction, j'ai rien reçu comme comment on peut dire que c'est bien placé la commande donc ils ont dit oui accepté mais y'a aucune autre information à ce. Je me suis rendu compte que c'était un site frauduleux.</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr"/>
+      <c r="O457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -18458,6 +21855,13 @@
       </c>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr"/>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>En fait, moi j'ai cette fin de semaine, je voulais acheter quelque chose sur un site internet, j'ai utilisé ma carte d'un. En fait le Paypal, mais en fait le site c'est un site fictif donc quand j'ai rentré le montant j'ai fait la transaction, j'ai rien reçu comme comment on peut dire que c'est bien placée la commande donc ils ont dit oui accepté mais il y a aucune autre information à ce Blu. Je me suis rendue compte que c'était un site frauduleux.</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr"/>
+      <c r="O458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -18496,6 +21900,13 @@
       </c>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr"/>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>En fait, moi j'ai cette fin de semaine, je voulais acheter quelque chose sur un site internet, j'utilisais ma carte, Ben en fait le Paypal, mais en fait le site c'est un site fictif donc quand j'ai entré de le montant, j'ai fait la transaction, j'ai rien reçu comme comment on peut dire que c'est bien placé la commande donc ils ont dit oui accepter mais il y a aucune autre information à ce matin. Je me suis rendu compte que c'était un site frauduleux.</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr"/>
+      <c r="O459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -18534,6 +21945,13 @@
       </c>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr"/>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>Okay, donc vous devez avoir l'information, c'est à cause que j'ai appelé de ça. Peut-être 3 semaines de ça à peu près pour des choses qui embarquent sur mon compte. Je sais pas d'où ça vient, sont en train de supposer, vérifier puis m'enlever ça sur mon compte, savoir si ça a été fait.</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr"/>
+      <c r="O460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -18572,6 +21990,13 @@
       </c>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr"/>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>Ok, donc vous devez avoir l'information, c'est à cause que j'ai appelé de ça. Peut-être 3 semaines de ça à peu près pour des choses qui embarquent sur mon compte. Je sais pas d'où ça vient, sont en train de supposer, vérifier puis m'enlever ça sur mon compte, va savoir si ça a été fait.</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -18610,6 +22035,13 @@
       </c>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr"/>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>Okay, donc vous devez avoir l'information, c'est à cause que j'ai appelé de ça. Peut-être 3 semaines de ça à peu près pour des choses qui embarquent sur mon compte. Je sais pas d'où ça vient, sont en train supposé vérifier puis m'enlever ça sur mon compte. Ben savoir si ça a été faite.</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr"/>
+      <c r="O462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -18648,6 +22080,13 @@
       </c>
       <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr"/>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>J'ai fait un prêt hypothécaire là le l'année passée je l'avais augmenté, puis j'avais droit de mettre je pense 10 pourcent donc ça fait que cette année et c'est ça là j'en ai fait un initialement quand j'ai réhypothéqué vu que c'était l'année passée donc cette année j'aurais encore le droit de mettre un autre 10 pourcent.</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr"/>
+      <c r="O463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -18686,6 +22125,13 @@
       </c>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr"/>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>J'ai fait un prêt hypothécaire là le l'année passée je l'avais augmenté puis j'avais le droit de mettre je pense 10 pourcent donc ça fait que cette année c'est ça. Là j'en ai fait un initialement quand que j'ai réhypothéqué vu que c'était l'année passée donc cette année je encore le droit de mettre un autre 10%.</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr"/>
+      <c r="O464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -18724,6 +22170,13 @@
       </c>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr"/>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>J'ai fait un prêt hypothécaire là le l'année passée je l'avais augmenté puis j'avais le droit de mettre je pense 10 pourcent donc ça fait que cette année c'est ça. Là j'en ai fait un initialement quand que j'ai réhypothéqué vu que c'était l'année passée donc cette année j'aurais encore le droit de mettre un autre 10 pourcent.</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr"/>
+      <c r="O465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -18762,6 +22215,13 @@
       </c>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr"/>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>Oui, moi c'est pour payer la Mastercard Canadian tire et puis la Mastercard de la Banque, j'ai 2 comptes.</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr"/>
+      <c r="O466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -18800,6 +22260,13 @@
       </c>
       <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>Oui, moi c'est pour payer la Mastercard Canadian tire. Et puis la Mastercard de la Banque, j'ai 2 comptes.</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr"/>
+      <c r="O467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -18838,6 +22305,13 @@
       </c>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>Oui, moi c'est pour payer la Mastercard Canadian tire et puis la Mastercard de la Banque, j'ai 2 comptes.</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr"/>
+      <c r="O468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -18876,6 +22350,13 @@
       </c>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr"/>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>Alors Ben c'est comme j'expliquait à Julie précédemment j'ai reçu un virement interac par mon adresse e-mail, et là j'essaie de le déposer dans ma banque nationale et ça ne fonctionne pas.</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr"/>
+      <c r="O469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -18914,6 +22395,13 @@
       </c>
       <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr"/>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>Alors Ben c'est comme j'expliquais à Julie précédemment j'ai reçu un virement interac par mon adresse e-mail. Et là, j'essaie de le déposer dans ma banque nationale et ça ne fonctionne pas.</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr"/>
+      <c r="O470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -18952,6 +22440,13 @@
       </c>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>Alors Ben c'est comme j'expliquais à Julie précédemment j'ai reçu un virement interac par mon adresse e-mail. Et là, j'essaie de le déposer dans ma banque nationale et ça ne fonctionne pas.</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr"/>
+      <c r="O471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -19002,6 +22497,17 @@
       <c r="L472" t="n">
         <v>1</v>
       </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'aurais voulu transférer 1000$ de mon celi à mon compte courant s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N472" t="n">
+        <v>1</v>
+      </c>
+      <c r="O472" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -19050,6 +22556,17 @@
         <v>1</v>
       </c>
       <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>Oui Bonjour, j'aurais voulu transférer 1000$ de mon celi à mon compte courant s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N473" t="n">
+        <v>1</v>
+      </c>
+      <c r="O473" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19090,6 +22607,13 @@
       </c>
       <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>Je vous appelle parce que en fait j'ai 3 compagnies en tout à la banque nationale et en a une qui a été créée récemment et on m'a envoyé un code d'utilisateur et un mot de passe. Là j'ai été modifier ça tantôt, mais en fait ce que j'aimerais c'est que cette 3e compagnie là soit intégrée à mon autre compte, mon autre code d'utilisateur où j'ai déjà mes 2 autres compagnies.</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr"/>
+      <c r="O474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -19128,6 +22652,13 @@
       </c>
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr"/>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>Je vous appelle parce qu'en fait j'ai 3 compagnies en tout à la banque nationale, il y en a une qui a été créée récemment, on m'a envoyé un code d'utilisateur et un mot de passe. Là j'ai été modifier ça tantôt, mais en fait ce que j'aimerais c'est que cette 3e compagnie là soit intégrée à mon autre compte, mon autre code d'utilisateur où j'ai déjà mes 2 autres compagnies.</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr"/>
+      <c r="O475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -19166,6 +22697,13 @@
       </c>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr"/>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>Je vous appelle parce qu'en fait j'ai 3 compagnies en tout à la banque nationale, y en a une qui a été créée récemment, on m'a envoyé un code d'utilisateur et un mot de passe. Là, j'ai été modifier ça tantôt, mais en fait ce que j'aimerais c'est que cette 3e compagnie là soit intégrée à mon autre compte, mon autre code d'utilisateur où j'ai déjà mes 2 autres compagnies.</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr"/>
+      <c r="O476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -19204,6 +22742,13 @@
       </c>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr"/>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour moi je voudrais installer un nouveau membre.</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr"/>
+      <c r="O477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -19242,6 +22787,13 @@
       </c>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr"/>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour moi je voudrais installer un nouveau membre.</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr"/>
+      <c r="O478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -19280,6 +22832,13 @@
       </c>
       <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr"/>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour moi je voudrais installer un nouveau membre.</t>
+        </is>
+      </c>
+      <c r="N479" t="inlineStr"/>
+      <c r="O479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -19318,6 +22877,13 @@
       </c>
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>Oui, je voulais vous m'aider à propos d'un paiement à propos de la paiement, j'ai fait un paiement avec les gens, bla-bla-bla depuis le 11 mai, mais ils m'ont dit qu'ils n'ont pas reçu ce paiement. Mais je vois dans mon compte et ils m'ont dit que c'est déjà passé.</t>
+        </is>
+      </c>
+      <c r="N480" t="inlineStr"/>
+      <c r="O480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -19356,6 +22922,13 @@
       </c>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>Oui je voulais vous m'aidez à propos d'un paiement à propos de la paiement. J'ai fait un paiement avec les gens, bla-bla-bla depuis le 11 mai, mais ils m'ont dit qu'ils n'ont pas reçu ce paiement. Mais je vois dans mon compte et ils m'ont dit que c'est déjà passé.</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr"/>
+      <c r="O481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -19394,6 +22967,13 @@
       </c>
       <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>Oui je voulais vous m'aidez à propos d'un paiement à propos de la paiement. J'ai fait un paiement avec les gens là-bas depuis le 11 mai, mais ils m'ont dit qu'ils n'ont pas reçu ce paiement. Mais je vois dans mon compte et ils m'ont dit que c'est déjà passé.</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr"/>
+      <c r="O482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -19432,6 +23012,13 @@
       </c>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>Je te faire une transaction en ligne, mais toujours toujours arrêtée. Je voulais savoir, je m'assure que ça vient de la carte, là fait que peut-être que vous avez quelque chose ou je sais pas.</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr"/>
+      <c r="O483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -19470,6 +23057,13 @@
       </c>
       <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr"/>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>J'essaie de faire une transaction en ligne, mais elle est toujours toujours arrêtée. Je voulais savoir, mais je suis pas mal sûr que c'est bien de la carte là fait que peut-être que vous avez quelque chose ou je sais pas.</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr"/>
+      <c r="O484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -19508,6 +23102,13 @@
       </c>
       <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr"/>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>J'essaie de faire une transaction en ligne, mais elle est toujours toujours arrêtée. Je voulais savoir, mais je suis pas mal sûr que ça la carte là fait que peut-être, vous avez quelque chose ou je sais pas oui Bonjour, en ce moment je suis avec ma conjointe et on essaie de faire des transferts entre nos comptes. Mais on est pas capable parce que c'est des montants Excedent 3000$. C'est juste. J'aimerais bien si c'est possible de faire les transferts avec vous parce qu'on a vraiment besoin de faire les les transferts entre les comptes là.</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr"/>
+      <c r="O485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -19546,6 +23147,13 @@
       </c>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr"/>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>Quand je fais ajouter une facture avec le nom du du magasin pépinière du Cap Pis y'a rien qui se passe. Aucune recherche même le la pépinière du Cap j'ai le transit et le numéro de compte fait que je sais pas comment dans l'système on peut avoir on peut rentrer une facture quand on a un transit?</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr"/>
+      <c r="O486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -19584,6 +23192,13 @@
       </c>
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr"/>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>Quand je fais ajouter une facture avec le nom du du magasin pépinière du Cap Pis y'a rien qui se passe. Aucune recherche même le la pépinière du Cap j'ai le transit et le numéro de compte fait que je sais pas comment dans le système on peut avoir on peut rentrer une facture quand on a un transit?</t>
+        </is>
+      </c>
+      <c r="N487" t="inlineStr"/>
+      <c r="O487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -19622,6 +23237,13 @@
       </c>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. Parce que je suis en train de relever mon mon relevé par Internet. Puis j'avais une interrogation pour un montant qui. Qui avait été enlevé.</t>
+        </is>
+      </c>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -19660,6 +23282,13 @@
       </c>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr"/>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, c'est parce que je suis en train de relever mon mon relevé par Internet, puis j'avais une interrogation pour un montant qui qui avait été enlevé.</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr"/>
+      <c r="O489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -19698,6 +23327,13 @@
       </c>
       <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr"/>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, c'est parce que je suis en train de relever mon mon relevé par Internet, puis j'avais une interrogation pour un montant qui qui avait été enlevé.</t>
+        </is>
+      </c>
+      <c r="N490" t="inlineStr"/>
+      <c r="O490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -19736,6 +23372,13 @@
       </c>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr"/>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>Oui, je voulais juste savoir. J'ai appelé un de vos collègues là la semaine dernière par rapport au fait que j'ai un prêt avec la banque nationale pour mon auto. J'ai appelé en fait mercredi dernier puis il m'a dit que dans le fond c'était pour le remboursement du prêt là.</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr"/>
+      <c r="O491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -19774,6 +23417,13 @@
       </c>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>Oui, je voulais juste savoir. J'ai appelé un de vos collègues là la semaine dernière par rapport au fait que j'ai un prêt avec la banque nationale pour mon auto. J'ai appelé en fait mercredi dernier puis il m'a dit que dans le fond c'était pour le remboursement du prêt là.</t>
+        </is>
+      </c>
+      <c r="N492" t="inlineStr"/>
+      <c r="O492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -19812,6 +23462,13 @@
       </c>
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>Oui, sur mon application banque nationale, je suis pas capable de faire des transactions. Je sais pas si y'a une solution pour ça.</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -19850,6 +23507,13 @@
       </c>
       <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr"/>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>Oui, sur mon application banque nationale, je suis pas capable de faire des transactions. Je sais pas si y'a une solution pour ça.</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr"/>
+      <c r="O494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -19888,6 +23552,13 @@
       </c>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr"/>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>Oui, c'est un compte en souffrance. C'est un compte que j'ai utilisé parce que je faisais affaire avec le groupe Investors. Et quand j'ai eu la succession, tout l'argent de notre succession est passé par l'entremise de ce compte là. Par la suite, le groupe investit la place. Et j'ai reçu la lettre comme quoi qu'il était en souffrance. Est-ce que je peux te donner le numéro de compte?</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr"/>
+      <c r="O495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -19926,6 +23597,13 @@
       </c>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr"/>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>Oui, c'est un compte en souffrance. C'est un compte que j'ai utilisé parce que je faisais affaire avec le groupe Investors et quand j'ai eu la succession, tout l'argent de la succession est passé par l'entremise de ce compte là. Par la suite, le groupe Investors l'a placé et j'ai reçu la lettre comme quoi qu'il était en souffrance. Est-ce que je peux te donner le numéro de compte?</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr"/>
+      <c r="O496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -19964,6 +23642,13 @@
       </c>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr"/>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>Oui, c'est un compte en souffrance. C'est un compte que j'ai utilisé parce que je faisais affaire avec le groupe Investors et quand j'ai eu la succession, tout l'argent de notre succession est passé par l'entremise de ce compte là. Par la suite, le groupe Investors l'a placé et j'ai reçu la lettre comme quoi qu'il était en souffrance. Est-ce que je peux te donner le numéro de compte?</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr"/>
+      <c r="O497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -20002,6 +23687,13 @@
       </c>
       <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr"/>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>Oui Bonjour hé, regarde moi j'ai fait le paiement de ma carte de crédit en fait j'ai 2 cartes de crédit puis là je m'apercevoir que j'ai fait les 2 paiements sur la même puis la compagnie de carte de crédit m'ont dit qu'il fallait que je vous appelle vous pour annuler ça.</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -20040,6 +23732,13 @@
       </c>
       <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr"/>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, allez, regarde moi j'ai fait le changement de ma carte de crédit en fait j'ai 2 cartes de crédit, puis là je viens de m'apercevoir que j'ai fait les 2 paiements sur la même puis la compagnie de carte de crédit m'ont dit qu'il fallait que je vous appelle vous pour annuler ça.</t>
+        </is>
+      </c>
+      <c r="N499" t="inlineStr"/>
+      <c r="O499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -20078,6 +23777,13 @@
       </c>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr"/>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour Hey, regarde moi j'ai fait le paiement de ma carte de crédit en fait j'ai 2 cartes de crédit puis là je viens de m'apercevoir que j'ai fait les 2 paiements sur la même puis la compagnie de carte de crédit m'ont dit qu'il fallait que je vous appelle vous pour annuler ça.</t>
+        </is>
+      </c>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -20116,6 +23822,13 @@
       </c>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>Écoute, c'est juste que j'ai acheté un scooter à mon gars, je m'en vais chercher aujourd'hui puis sur ma carte de débit. Où est-ce que j'achète ce scooter? Ils prennent juste la carte de débit. Je vais avoir une protection là, mettons d'ici à la fin de la journée d'autour de 3200$ sur ma carte, y'a tu moyen de m'allouer cette transaction là où?</t>
+        </is>
+      </c>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -20154,6 +23867,13 @@
       </c>
       <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr"/>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>Écoute, c'est juste que j'ai acheté un scooter à manga, je m'en vais le chercher aujourd'hui puis sur ma carte de débit. Où est-ce que j'achète ce scooter? Ils prennent juste la carte de débit. Je vais avoir une transaction là, mettons d'ici à la fin de la journée d'autour de 3200$ sur ma carte. Il y a eu moyen de m'allouer ces transactions là où?</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -20192,6 +23912,13 @@
       </c>
       <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr"/>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>Écoute, c'est juste que j'ai acheté un scooter à mon gars, je m'en va le chercher aujourd'hui puis sur ma carte de débit. Où est-ce que j'achète ce scooter? Ils prennent juste la carte débit. Je vais avoir une transaction là, mettons d'ici à la fin de la journée d'autour de 3200$ sur ma carte, y'a tu moyen de m'allouer cette transaction là où?</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr"/>
+      <c r="O503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -20230,6 +23957,13 @@
       </c>
       <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr"/>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>J'ai, j'ai reçu ma nouvelle carte Mastercard la semaine passée, je l'ai activée, puis là je commande à réno dépôt. Puis ils me disent mode de communication pour l'envoi de votre code sécurisé n'est pas à jour. Par conséquent cette carte ne peut être utilisée pour finaliser cette transaction en ligne sécurisée, veuillez communiquer avec le service à la clientèle banque nationale.</t>
+        </is>
+      </c>
+      <c r="N504" t="inlineStr"/>
+      <c r="O504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -20268,6 +24002,13 @@
       </c>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr"/>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>J'ai, j'ai reçu ma nouvelle carte Mastercard la semaine passée. Je l'ai activée au, puis là je commande à réno dépôt. Qu'ils me disent mode de communication pour l'envoi de votre code sécurisé n'est pas à jour. Par conséquent, cette carte ne peut être utilisée pour finaliser la transaction en ligne sécurisée. Veuillez communiquer avec le service à la clientèle banque nationale.</t>
+        </is>
+      </c>
+      <c r="N505" t="inlineStr"/>
+      <c r="O505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -20306,6 +24047,13 @@
       </c>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr"/>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>J'ai, j'ai reçu ma nouvelle carte Mastercard la semaine passée, je l'ai activée, puis là je commande Ben Réno dépôt puis ils me disent mode de communication pour l'envoi de votre code sécurisé n'est pas à jour. Par conséquent cette carte ne peut être utilisée pour finaliser cette transaction en ligne sécurisée, veuillez communiquer avec le service à la clientèle banque nationale.</t>
+        </is>
+      </c>
+      <c r="N506" t="inlineStr"/>
+      <c r="O506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -20344,6 +24092,13 @@
       </c>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr"/>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>Je voudrais savoir ce que mon dépôt a été fait à mon compte?</t>
+        </is>
+      </c>
+      <c r="N507" t="inlineStr"/>
+      <c r="O507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -20382,6 +24137,13 @@
       </c>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr"/>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>Je voudrais savoir ce que mon dépôt a été fait à mon compte?</t>
+        </is>
+      </c>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -20420,6 +24182,13 @@
       </c>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr"/>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>Oui, Allô? Dans le fond, tantôt moi j'ai fait une demande d'augmentation de la limite de crédit.</t>
+        </is>
+      </c>
+      <c r="N509" t="inlineStr"/>
+      <c r="O509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -20458,6 +24227,13 @@
       </c>
       <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr"/>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>Oui, Allô? Dans le fond, tantôt moi j'ai fait une demande d'augmentation de la limite de crédit.</t>
+        </is>
+      </c>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -20496,6 +24272,13 @@
       </c>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oui, Allô? Dans le fond, tantôt moi j'ai fait une demande d'augmentation de la limite de crédit. </t>
+        </is>
+      </c>
+      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -20534,6 +24317,13 @@
       </c>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr"/>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>Oui, salut je. Moi, j'appelle c'est ça. J'ai reçu à peu près 4 ou 5 appels de la banque nationale depuis les 2 dernières semaines. Je veux juste, habituellement, quand je reçois ce genre d'appel, là il me remercie étant donné que je fais plus confiance à qui me téléphone là. Puis je me demandais si y'avait quelque chose.</t>
+        </is>
+      </c>
+      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -20572,6 +24362,13 @@
       </c>
       <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr"/>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>Oui salut moi, j'appelle sa sœur, j'ai reçu à peu près 4 ou 5 appels de la banque nationale depuis les 2 dernières semaines. Je veux juste, habituellement, quand je reçois ce genre d'appel, là il me remercie étant donné que je fais plus confiance à qui me téléphone là. Puis je me demandais s'il y avait quelque chose.</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr"/>
+      <c r="O513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -20610,6 +24407,13 @@
       </c>
       <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr"/>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>Oui, salut moi, j'appelle, c'est ça. J'ai reçu à peu près 4 ou 5 appels de la banque nationale depuis les 2 dernières semaines. Je veux juste habituellement quand je reçois ce genre d'appel, là il me remercie étant donné que je fais plus confiance à qui me téléphone là. Puis je me demandais si y'avait quelque chose.</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr"/>
+      <c r="O514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -20648,6 +24452,13 @@
       </c>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr"/>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>Merci, c'est qu'est-ce que je veux savoir, c'est que je veux envoyer de l'argent à Nissan à Toronto blabla quelque part en Ontario. Et puis j'ai mon numéro de compte. De quelle façon que je procède?</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr"/>
+      <c r="O515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -20686,6 +24497,13 @@
       </c>
       <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr"/>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>Merci. Qu'est-ce que je veux savoir? C'est que je veux envoyer de l'argent en lisant à Toronto, mot quelque part en Ontario et. Et puis j'ai mon numéro de compte. De quelle façon que je procède?</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr"/>
+      <c r="O516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -20724,6 +24542,13 @@
       </c>
       <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr"/>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>J'ai reçu hier un courriel de support banque nationale et ce que c'est parce qu'il y a tellement de fraudes qu'ils disent que est-ce que c'est normal que j'ai reçu ça?</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr"/>
+      <c r="O517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -20762,6 +24587,13 @@
       </c>
       <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr"/>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>J'ai reçu hier un courriel de support à la banque nationale. Est-ce que c'est parce qu'il y a tellement de fraudes qu'ils disent que est-ce que c'est normal que j'ai reçu ça?</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr"/>
+      <c r="O518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -20800,6 +24632,13 @@
       </c>
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr"/>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>J'ai reçu hier un courriel de support mot banque nationale. Est-ce que c'est parce qu'il y a tellement de fraudes qui disent que est-ce que c'est normal que j'ai reçu ça?</t>
+        </is>
+      </c>
+      <c r="N519" t="inlineStr"/>
+      <c r="O519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -20838,6 +24677,13 @@
       </c>
       <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr"/>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>Là, je vais vous expliquer mon problème, puis je vais vous dire ce que j'ai fait maintenant, c'est que y'a une transaction qui faut que je fasse puis sur sur mon, mon mon ma banque en ligne, j'arrive pas à trouver où faut que j'aille pour ça.</t>
+        </is>
+      </c>
+      <c r="N520" t="inlineStr"/>
+      <c r="O520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -20876,6 +24722,13 @@
       </c>
       <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr"/>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>La. Je vais vous expliquer mon problème, puis je vais vous dire ce que j'ai fait maintenant, c'est que y a une transaction. Qu'il faut que je fasse, puis sur sur mon, mon, mon, ma banque en ligne. J'arrive pas à trouver où faut j'aille pour ça.</t>
+        </is>
+      </c>
+      <c r="N521" t="inlineStr"/>
+      <c r="O521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -20914,6 +24767,13 @@
       </c>
       <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr"/>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>Là, je vais vous expliquer mon problème, puis je vais vous dire, qu'est-ce que j'ai fait maintenant, c'est que il y a une transaction qu'il faut que je fasse. Puis sur sur mon, mon, mon, ma banque en ligne, j'arrive pas à trouver où faut que j'aille pour ça.</t>
+        </is>
+      </c>
+      <c r="N522" t="inlineStr"/>
+      <c r="O522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -20952,6 +24812,13 @@
       </c>
       <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr"/>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour depuis mars que j'ai des problèmes avec mon financement pour payer mes taxes municipales, on a envoyé des messages, puis tout, puis c'est toujours pas réglé. En date du 3 juin, on est quasiment rendu au 2e paiement de taxes municipales, puis le transfert de fond n'a pas été fait, hein?</t>
+        </is>
+      </c>
+      <c r="N523" t="inlineStr"/>
+      <c r="O523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -20990,6 +24857,13 @@
       </c>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr"/>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour depuis mars que j'ai des problèmes avec mon financement pour payer mes taxes municipales, on a envoyé des messages, puis tout, puis c'est toujours pas réglé. En date du 3 juin, on est quasiment rendu au 2e paiement de taxes municipales, puis le transfert des fonds n'a pas été fait, hein?</t>
+        </is>
+      </c>
+      <c r="N524" t="inlineStr"/>
+      <c r="O524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -21028,6 +24902,13 @@
       </c>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr"/>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour depuis mars que j'ai des problèmes avec mon financement pour payer mes taxes municipales, on a envoyé des messages, puis tout, puis c'est toujours pas réglé. En date du 3 juin, on est quasiment rendu au 2e paiement de taxes municipales, puis le transfert des fonds n'a pas été fait, hein?</t>
+        </is>
+      </c>
+      <c r="N525" t="inlineStr"/>
+      <c r="O525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -21066,6 +24947,13 @@
       </c>
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr"/>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>Moi, c'est juste pour une question. J'avais fait un virement en date du 28 mai à ma fille qui qui elle fait partie de la caisse populaire Desjardins, mais elle a refusé finalement le virement. Mais là dernièrement on s'est aperçu que le virement n'est pas revenu chez moi.</t>
+        </is>
+      </c>
+      <c r="N526" t="inlineStr"/>
+      <c r="O526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -21104,6 +24992,13 @@
       </c>
       <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr"/>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>Moi, c'est juste pour une question. J'avais fait un un virement en date du 28 mai à ma fille qui qui elle est fait partie de la caisse populaire Desjardins, mais elle a refusé finalement le virement. Mais là dernièrement on s'est aperçu que le virement n'est pas revenu chez moi.</t>
+        </is>
+      </c>
+      <c r="N527" t="inlineStr"/>
+      <c r="O527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -21142,6 +25037,13 @@
       </c>
       <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr"/>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>Moi, c'est juste pour une question que j'avais fait un virement en date du 28 mai à ma fille qui qui elle fait partie de la caisse populaire Desjardins, mais elle a refusé finalement le virement. Mais là dernièrement, on s'est aperçu que le virement n'est pas revenu chez moi.</t>
+        </is>
+      </c>
+      <c r="N528" t="inlineStr"/>
+      <c r="O528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -21180,6 +25082,13 @@
       </c>
       <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr"/>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>Ben, j'ai reçu une nouvelle carte à puce, je crois, il fonctionne plus Mastercard.</t>
+        </is>
+      </c>
+      <c r="N529" t="inlineStr"/>
+      <c r="O529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -21218,6 +25127,13 @@
       </c>
       <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr"/>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>Oui, c'est pour activer ma nouvelle carte.</t>
+        </is>
+      </c>
+      <c r="N530" t="inlineStr"/>
+      <c r="O530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -21256,6 +25172,13 @@
       </c>
       <c r="K531" t="inlineStr"/>
       <c r="L531" t="inlineStr"/>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>Oui, c'est pour activer ma nouvelle carte.</t>
+        </is>
+      </c>
+      <c r="N531" t="inlineStr"/>
+      <c r="O531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -21294,6 +25217,13 @@
       </c>
       <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr"/>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>Oui, c'est pour activer ma nouvelle carte.</t>
+        </is>
+      </c>
+      <c r="N532" t="inlineStr"/>
+      <c r="O532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -21332,6 +25262,13 @@
       </c>
       <c r="K533" t="inlineStr"/>
       <c r="L533" t="inlineStr"/>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai fait une demande pour une carte de crédit dans mon compte affaire il y a plusieurs semaines puis j'ai pas de nouvelles.</t>
+        </is>
+      </c>
+      <c r="N533" t="inlineStr"/>
+      <c r="O533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -21370,6 +25307,13 @@
       </c>
       <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr"/>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai fait une demande pour une carte de crédit dans mon compte affaires il y a plusieurs semaines puis j'ai pas de nouvelles.</t>
+        </is>
+      </c>
+      <c r="N534" t="inlineStr"/>
+      <c r="O534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -21408,6 +25352,13 @@
       </c>
       <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr"/>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai fait une demande pour une carte de crédit dans mon compte affaire il y a plusieurs semaines puis j'ai pas de nouvelles.</t>
+        </is>
+      </c>
+      <c r="N535" t="inlineStr"/>
+      <c r="O535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -21446,6 +25397,13 @@
       </c>
       <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr"/>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>Fait que là là, la Mastercard World Elite là j'ai fait un mot, j'ai payé le montant total. D'habitude on voit à l'écran là.</t>
+        </is>
+      </c>
+      <c r="N536" t="inlineStr"/>
+      <c r="O536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -21484,6 +25442,13 @@
       </c>
       <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr"/>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>Fait que là là, la Mastercard World Elite là j'ai fait un bla-bla, j'ai payé le montant total. D'habitude on le voit à l'écran là.</t>
+        </is>
+      </c>
+      <c r="N537" t="inlineStr"/>
+      <c r="O537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -21522,6 +25487,13 @@
       </c>
       <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr"/>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>C'est que là là, la Mastercard World Elite là j'ai fait un Ben ouais j'ai payé le montant total. D'habitude on le voit à l'écran là.</t>
+        </is>
+      </c>
+      <c r="N538" t="inlineStr"/>
+      <c r="O538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -21560,6 +25532,13 @@
       </c>
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr"/>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>Bonjour Madame, je viens de faire un transfert d'argent cette semaine dans mon compte élevé là intérêt élevé puis y a eu des frais de 15$ pourquoi?</t>
+        </is>
+      </c>
+      <c r="N539" t="inlineStr"/>
+      <c r="O539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -21598,6 +25577,13 @@
       </c>
       <c r="K540" t="inlineStr"/>
       <c r="L540" t="inlineStr"/>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>Bonjour Madame, je viens de faire un transfert d'argent cette semaine dans mon compte élevé là intérêt élevé. Puis il y a eu des frais de 15$ pourquoi?</t>
+        </is>
+      </c>
+      <c r="N540" t="inlineStr"/>
+      <c r="O540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -21636,6 +25622,13 @@
       </c>
       <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr"/>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>Bonjour Madame, je viens de faire un transfert d'argent cette semaine dans mon compte élevé là intérêt élevé. Puis il y a eu des frais de 15$ pourquoi?</t>
+        </is>
+      </c>
+      <c r="N541" t="inlineStr"/>
+      <c r="O541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -21674,6 +25667,13 @@
       </c>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr"/>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>Mot. Dans le fond, c'est parce que j'essaie de faire des virements sur la à partir de à partir de l'application, puis ça dit que je peux pas ajouter de destinataire pis je comprends pas pourquoi.</t>
+        </is>
+      </c>
+      <c r="N542" t="inlineStr"/>
+      <c r="O542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -21712,6 +25712,13 @@
       </c>
       <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>Dans le fond, c'est parce que j'essaie de faire des virements sur la à partir de à partir de l'application, puis ça dit que je ne peux pas ajouter de destinataire, puis je comprends pas pourquoi.</t>
+        </is>
+      </c>
+      <c r="N543" t="inlineStr"/>
+      <c r="O543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -21750,6 +25757,13 @@
       </c>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr"/>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>Dans le fond, c'est parce que j'essaie de faire des virements sur la à partir de à partir de l'application, puis ça dit que je peux pas ajouter de destinataire, puis je comprends pas pourquoi.</t>
+        </is>
+      </c>
+      <c r="N544" t="inlineStr"/>
+      <c r="O544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -21788,6 +25802,13 @@
       </c>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr"/>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour en ce moment je suis avec ma conjointe, pis on essaie de faire des transferts entre nos comptes, mais on est pas capable parce que c'est des montants excedent 3000$, c'est juste. J'aimerais bien si c'est possible de faire des transferts avec vous parce qu'on a vraiment besoin de faire les les transferts entre ces comptes là.</t>
+        </is>
+      </c>
+      <c r="N545" t="inlineStr"/>
+      <c r="O545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -21826,6 +25847,13 @@
       </c>
       <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr"/>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour en ce moment je suis avec ma conjointe et on essaie de faire des transferts entre nos comptes, mais on est pas capable parce que c'est des montants excedent 3000$, c'est juste. J'aimerais bien si c'est possible de faire les transferts avec vous parce qu'on a vraiment besoin de faire des les transferts entre les comptes là.</t>
+        </is>
+      </c>
+      <c r="N546" t="inlineStr"/>
+      <c r="O546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -21864,6 +25892,13 @@
       </c>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr"/>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour en ce moment je suis avec ma conjointe et on essaie de faire des transferts entre nos comptes, mais on est pas capable parce que c'est des montants excedent 3000$, c'est juste. J'aimerais bien si c'est possible de faire des transferts avec vous parce qu'on a vraiment besoin de faire les les transferts entre les comptes là.</t>
+        </is>
+      </c>
+      <c r="N547" t="inlineStr"/>
+      <c r="O547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -21902,6 +25937,13 @@
       </c>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr"/>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour. J'ai reçu un courriel comme quoi je peux justement réserver mon taux.</t>
+        </is>
+      </c>
+      <c r="N548" t="inlineStr"/>
+      <c r="O548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -21940,6 +25982,13 @@
       </c>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr"/>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai reçu un courriel hier comme quoi je peux justement réserver mon taux.</t>
+        </is>
+      </c>
+      <c r="N549" t="inlineStr"/>
+      <c r="O549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -21978,6 +26027,13 @@
       </c>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai reçu un courriel hier comme quoi je peux justement réserver mon taux.</t>
+        </is>
+      </c>
+      <c r="N550" t="inlineStr"/>
+      <c r="O550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -22016,6 +26072,13 @@
       </c>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr">
+        <is>
+          <t>Oui, en fait c'est seul. Je vous appelle parce que je suis plus capable en fait de rentrer sur mon application là avec mon téléphone, puis il m'envoie, tu sais, un code de confirmation, mais le courriel en fait n'est plus valide. Donc là je suis un peu bloquée. Puis j'ai essayé aussi, tu sais directement sur Internet. Ben sur internet, là sur le telnat là direct, puis ça fonctionne pas plus.</t>
+        </is>
+      </c>
+      <c r="N551" t="inlineStr"/>
+      <c r="O551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -22054,6 +26117,13 @@
       </c>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr"/>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>Oui, en fait, c'est ça. Je vous appelle parce que je suis plus capable en fait de rentrer sur mon application là avec mon téléphone, pis ils m'ont envoyé. Tu sais, un code de confirmation, mais le courriel en fait n'est plus valide. Donc là je suis un peu bloqué pis j'ai j'ai essayé aussi, tu sais directement sur Internet bien sur internet, là sur le telnat là Direct pis ça fonctionne pas plus.</t>
+        </is>
+      </c>
+      <c r="N552" t="inlineStr"/>
+      <c r="O552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -22092,6 +26162,13 @@
       </c>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr">
+        <is>
+          <t>Oui, en fait, c'est ça. Je vous appelle parce que je suis plus capable en fait de rentrer sur mon application là avec mon téléphone puis m'envoie, tu sais, un code de confirmation, mais le courriel en fait n'est plus valide, donc là je suis un peu bloquée. Puis j'ai essayé aussi de tes directement sur Internet, Ben sur internet, là sur le telnat là direct, puis ça fonctionne pas plus.</t>
+        </is>
+      </c>
+      <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -22130,6 +26207,13 @@
       </c>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr"/>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>En fait, j'appelle pour 2 choses là pour commencer, en fait, j'aimerais voir si je peux avoir une nouvelle carte de débit parce que mon paypass ne fonctionne plus dessus.</t>
+        </is>
+      </c>
+      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -22168,6 +26252,13 @@
       </c>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr"/>
+      <c r="M555" t="inlineStr">
+        <is>
+          <t>En fait, j'appelle pour 2 choses là pour commencer, en faite, j'aimerais voir si je peux avoir une nouvelle carte de débit parce que mon paypass ne fonctionne plus dessus.</t>
+        </is>
+      </c>
+      <c r="N555" t="inlineStr"/>
+      <c r="O555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -22206,6 +26297,13 @@
       </c>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr">
+        <is>
+          <t>J'aimerais savoir, j'ai une transaction, un virement de 400$ dans un de mes comptes, j'aimerais savoir où ça a été viré?</t>
+        </is>
+      </c>
+      <c r="N556" t="inlineStr"/>
+      <c r="O556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -22244,6 +26342,13 @@
       </c>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr"/>
+      <c r="M557" t="inlineStr">
+        <is>
+          <t>J'aimerais savoir, j'ai une transaction, un virement de 400$ dans un de mes comptes, j'veux savoir où ça a été viré.</t>
+        </is>
+      </c>
+      <c r="N557" t="inlineStr"/>
+      <c r="O557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -22282,6 +26387,13 @@
       </c>
       <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr"/>
+      <c r="M558" t="inlineStr">
+        <is>
+          <t>J'aimerais savoir, j'ai une transaction, un virement de 400$ dans une de mes comptes, j'aimerais savoir où ça a été viré?</t>
+        </is>
+      </c>
+      <c r="N558" t="inlineStr"/>
+      <c r="O558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -22320,6 +26432,13 @@
       </c>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr">
+        <is>
+          <t>C'est que je viens de perdre ma carte de guichet, je suis pas capable de la trouver nulle part. Je suis dans un parc et j'ai paypass en plus fait que il faudrait que je cancelle ma carte.</t>
+        </is>
+      </c>
+      <c r="N559" t="inlineStr"/>
+      <c r="O559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -22358,6 +26477,13 @@
       </c>
       <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr"/>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>C'est que je viens de perdre ma carte de guichet, je suis pas capable de la trouver nulle part. Je suis dans un parc et j'ai paypass en plus fait qu'il faudrait que je cancelle ma carte.</t>
+        </is>
+      </c>
+      <c r="N560" t="inlineStr"/>
+      <c r="O560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -22396,6 +26522,13 @@
       </c>
       <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr"/>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>C'est que je viens de perdre ma carte de guichet, je suis pas capable de la trouver nulle part. Je suis dans un parc et j'ai paypass en plus fait que il faudra que je cancelle ma carte.</t>
+        </is>
+      </c>
+      <c r="N561" t="inlineStr"/>
+      <c r="O561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -22434,6 +26567,13 @@
       </c>
       <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr"/>
+      <c r="M562" t="inlineStr">
+        <is>
+          <t>Oui, j'aimerais savoir si je vais être chargé pour les chèques à la fin.</t>
+        </is>
+      </c>
+      <c r="N562" t="inlineStr"/>
+      <c r="O562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -22472,6 +26612,13 @@
       </c>
       <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr"/>
+      <c r="M563" t="inlineStr">
+        <is>
+          <t>Oui, j'aimerais savoir si je vais être chargé pour les chèques à la fin.</t>
+        </is>
+      </c>
+      <c r="N563" t="inlineStr"/>
+      <c r="O563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -22510,6 +26657,13 @@
       </c>
       <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr"/>
+      <c r="M564" t="inlineStr">
+        <is>
+          <t>Oui, j'aimerais savoir si je vais être chargé pour les chèques à la fin.</t>
+        </is>
+      </c>
+      <c r="N564" t="inlineStr"/>
+      <c r="O564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -22548,6 +26702,13 @@
       </c>
       <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr"/>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>Écouter, j'arrive pas à avoir accès en ligne, là ça fait longtemps à mon compte. Puis aussi à 8 chiffres, c'est marqué, on peut pas, vous pouvez pas pour pour l'instant on peut pas faire votre transaction.</t>
+        </is>
+      </c>
+      <c r="N565" t="inlineStr"/>
+      <c r="O565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -22586,6 +26747,13 @@
       </c>
       <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr"/>
+      <c r="M566" t="inlineStr">
+        <is>
+          <t>Écoutez, j'arrive pas à avoir accès en ligne, là ça fait longtemps à mon compte. Puis aussi à 8 chiffres, c'est marqué, on peut pas, vous pouvez pas pour pour l'instant on peut pas faire votre transaction.</t>
+        </is>
+      </c>
+      <c r="N566" t="inlineStr"/>
+      <c r="O566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -22624,6 +26792,13 @@
       </c>
       <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr"/>
+      <c r="M567" t="inlineStr">
+        <is>
+          <t>Écoutez, j'arrive pas à avoir accès en ligne, là ça fait longtemps à mon compte. Puis aussi à 8 chiffre, c'est marqué, on peut pas, vous pouvez pas pour pour l'instant, on ne peut pas faire votre attraction.</t>
+        </is>
+      </c>
+      <c r="N567" t="inlineStr"/>
+      <c r="O567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -22662,6 +26837,13 @@
       </c>
       <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr"/>
+      <c r="M568" t="inlineStr">
+        <is>
+          <t>Oui, ça va bien. Je m'excuse. Là, c'est on s'est parlé vendredi, là, j'étais sur l'impression que c'est que c'était déjà réglé là, mais.</t>
+        </is>
+      </c>
+      <c r="N568" t="inlineStr"/>
+      <c r="O568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -22700,6 +26882,13 @@
       </c>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr"/>
+      <c r="M569" t="inlineStr">
+        <is>
+          <t>Oui, ça va bien. Je m'excuse. Là, c'est on s'est parlé vendredi, là, j'étais sur l'impression que c'est que c'était déjà réglé là, mais.</t>
+        </is>
+      </c>
+      <c r="N569" t="inlineStr"/>
+      <c r="O569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -22738,6 +26927,13 @@
       </c>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr"/>
+      <c r="M570" t="inlineStr">
+        <is>
+          <t>Oui, ça va bien. Je m'excuse. Là, c'est on s'est parlé vendredi, là, j'étais sur l'impression que c'est que c'était déjà réglé là, mais.</t>
+        </is>
+      </c>
+      <c r="N570" t="inlineStr"/>
+      <c r="O570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -22776,6 +26972,13 @@
       </c>
       <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr"/>
+      <c r="M571" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai fait un changement d'adresse sur sur le site, là le le site mobile puis on me disait que c'était pour prendre un à 3 jours ouvrables là ça fait 3 jours puis j'ai aucune y a aucun changement pour blablabla.</t>
+        </is>
+      </c>
+      <c r="N571" t="inlineStr"/>
+      <c r="O571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -22814,6 +27017,13 @@
       </c>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr"/>
+      <c r="M572" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai fait un changement d'adresse sur le site, là le le le site mobile. Puis on me disait. Que c'était pour prendre un à 3 jours ouvrables, là, ça fait 3 jours puis j'ai aucun y a aucun changement pour le bla.</t>
+        </is>
+      </c>
+      <c r="N572" t="inlineStr"/>
+      <c r="O572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -22852,6 +27062,13 @@
       </c>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr"/>
+      <c r="M573" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, j'ai fait un changement d'adresse sur sur le site, là le le le site mobile puis on me disait que c'était pour prendre un à 3 jours ouvrables là ça fait 3 jours puis j'ai aucun il y a aucun changement pour 1Z.</t>
+        </is>
+      </c>
+      <c r="N573" t="inlineStr"/>
+      <c r="O573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -22890,6 +27107,13 @@
       </c>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr"/>
+      <c r="M574" t="inlineStr">
+        <is>
+          <t>J'avais demandé tantôt de vous poser une question, là, le si le le, le tout était négociable au sujet, dans le fond, que si on était vraiment intéressé à rester chez banque nationale. Dans le fond parce que je trouvais vos taux quand même assez avantageux, mais comme il y avait pas de promotion chez pour le notaire ou quoi que ce soit, s'il y avait place à négociation ou non.</t>
+        </is>
+      </c>
+      <c r="N574" t="inlineStr"/>
+      <c r="O574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -22928,6 +27152,13 @@
       </c>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr"/>
+      <c r="M575" t="inlineStr">
+        <is>
+          <t>J'avais demandé tantôt de vous poser une question, là, le si le le, le tout était négociable au sujet, dans le fond, que si on était vraiment intéressé à rester chez banque nationale dans le fond parce que je trouvais vos taux quand même assez avantageux. Mais comme il y avait pas de promotion chez pour le notaire ou quoi que ce soit, s'il y avait place à négociation ou non.</t>
+        </is>
+      </c>
+      <c r="N575" t="inlineStr"/>
+      <c r="O575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -22966,6 +27197,13 @@
       </c>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr"/>
+      <c r="M576" t="inlineStr">
+        <is>
+          <t>Oui, j'ai en fait. J'ai, j'ai pris une carte de crédit commercial chez vous.</t>
+        </is>
+      </c>
+      <c r="N576" t="inlineStr"/>
+      <c r="O576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -23004,6 +27242,13 @@
       </c>
       <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr"/>
+      <c r="M577" t="inlineStr">
+        <is>
+          <t>Oui, j'ai en fait. J'ai, j'ai pris une carte de crédit commercial chez vous.</t>
+        </is>
+      </c>
+      <c r="N577" t="inlineStr"/>
+      <c r="O577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -23042,6 +27287,13 @@
       </c>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr"/>
+      <c r="M578" t="inlineStr">
+        <is>
+          <t>Oui, j'ai en fait. J'ai, j'ai pris une carte de crédit commerciale chez vous.</t>
+        </is>
+      </c>
+      <c r="N578" t="inlineStr"/>
+      <c r="O578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -23080,6 +27332,13 @@
       </c>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr"/>
+      <c r="M579" t="inlineStr">
+        <is>
+          <t>Je fait, j'ai fait un paiement, je pense si je me souviens bien, c'était mercredi ou jeudi passé, puis je l'ai fait dans le mauvais compte.</t>
+        </is>
+      </c>
+      <c r="N579" t="inlineStr"/>
+      <c r="O579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -23118,6 +27377,13 @@
       </c>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr"/>
+      <c r="M580" t="inlineStr">
+        <is>
+          <t>En fait, j'ai fait un paiement, je pense si je me souviens bien, c'était mercredi ou jeudi passé, puis je l'ai fait dans le mauvais compte.</t>
+        </is>
+      </c>
+      <c r="N580" t="inlineStr"/>
+      <c r="O580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -23156,6 +27422,13 @@
       </c>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr"/>
+      <c r="M581" t="inlineStr">
+        <is>
+          <t>En fait, j'ai fait un paiement, je pense si je me souviens bien, c'était mercredi ou jeudi passé, puis je l'ai fait dans le mauvais compte.</t>
+        </is>
+      </c>
+      <c r="N581" t="inlineStr"/>
+      <c r="O581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -23194,6 +27467,13 @@
       </c>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr"/>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>Donc j'ai une question pour vous. J'ai vu en ligne pour de comptes professionnels de la santé que. Qu'on peut obtenir. Une carte de crédit sans frais.</t>
+        </is>
+      </c>
+      <c r="N582" t="inlineStr"/>
+      <c r="O582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -23232,6 +27512,13 @@
       </c>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr"/>
+      <c r="M583" t="inlineStr">
+        <is>
+          <t>Donc j'ai une question pour vous. J'ai vu en ligne pour le compte professionnel de la santé, que qu'on peut obtenir une carte de crédit sans frais.</t>
+        </is>
+      </c>
+      <c r="N583" t="inlineStr"/>
+      <c r="O583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -23270,6 +27557,13 @@
       </c>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr"/>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>Donc j'ai une question pour vous, je veux en ligne pour les comptes professionnels de la santé qu'on peut obtenir une carte de crédit sans frais.</t>
+        </is>
+      </c>
+      <c r="N584" t="inlineStr"/>
+      <c r="O584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -23308,6 +27602,13 @@
       </c>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr"/>
+      <c r="M585" t="inlineStr">
+        <is>
+          <t>En fait, c'est la technicienne comptable qui m'a donné là le numéro, qui m'a dit d'appeler parce que dans le fond, je voulais souscrire au service de dépôt direct pour une une de mes compagnies qui avaient pas été inscrite.</t>
+        </is>
+      </c>
+      <c r="N585" t="inlineStr"/>
+      <c r="O585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -23346,6 +27647,13 @@
       </c>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr"/>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>En fait, c'est la technicienne comptable qui m'a donné là le numéro, qui m'a dit d'appeler parce que dans le fond, je voulais souscrire au service de dépôt direct pour une une de mes compagnies qui avait pas été inscrite.</t>
+        </is>
+      </c>
+      <c r="N586" t="inlineStr"/>
+      <c r="O586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -23384,6 +27692,13 @@
       </c>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr"/>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>En fait, c'est la technicienne comptable qui m'a donné là le numéro, qui m'a dit d'appeler parce que dans le fond, je voulais souscrire au service des dépôts direct pour une une de mes compagnies qui avait pas été inscrite.</t>
+        </is>
+      </c>
+      <c r="N587" t="inlineStr"/>
+      <c r="O587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -23422,6 +27737,13 @@
       </c>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr"/>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>Oui, ce matin, je voulais accéder à mon compte en ligne, puis j'ai rentré le la. La question de sécurité. Puis, même si j'ai rentré mauvaise réponse, ça fonctionnait pas, puis j'ai bloqué mon compte.</t>
+        </is>
+      </c>
+      <c r="N588" t="inlineStr"/>
+      <c r="O588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -23460,6 +27782,13 @@
       </c>
       <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr"/>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>Oui, ce matin, je voulais accéder à mon compte en ligne, puis j'ai rentré la. Le. La question de sécurité. Puis même si j'ai rentré mauvaise réponse, ça fonctionnait pas, puis j'ai bloqué mon compte.</t>
+        </is>
+      </c>
+      <c r="N589" t="inlineStr"/>
+      <c r="O589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -23498,6 +27827,13 @@
       </c>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr"/>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>Oui, ce matin, je voulais accéder à mon compte en ligne, puis j'ai rentré le la. La question de sécurité. Puis, même si j'ai rentré mauvaise réponse, ça fonctionnait pas, puis j'ai bloqué mon compte.</t>
+        </is>
+      </c>
+      <c r="N590" t="inlineStr"/>
+      <c r="O590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -23536,6 +27872,13 @@
       </c>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr"/>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>J'ai une j'ai 2 cartes de crédit de la banque Nationale 2 cartes de crédit Mastercard et je voudrais annuler la celle qui est écho remise et je voudrais savoir si y a moyen de transférer mes points sur mon autre carte?</t>
+        </is>
+      </c>
+      <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -23574,6 +27917,13 @@
       </c>
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr"/>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>J'ai une j'ai 2 cartes de crédit de la banque Nationale 2 cartes de crédit Mastercard et je voudrais annuler la celle qui est écho remise et je voudrais savoir s'il y a moyen de transférer mes points sur mon autre carte?</t>
+        </is>
+      </c>
+      <c r="N592" t="inlineStr"/>
+      <c r="O592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -23612,6 +27962,13 @@
       </c>
       <c r="K593" t="inlineStr"/>
       <c r="L593" t="inlineStr"/>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>J'ai une j'ai 2 cartes de crédit de la banque Nationale 2 cartes de crédit Mastercard et je voudrais annuler là. Celle qui est écho, remise et je voudrais savoir si y a moyen de transférer mes points sur mon autre carte?</t>
+        </is>
+      </c>
+      <c r="N593" t="inlineStr"/>
+      <c r="O593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -23650,6 +28007,13 @@
       </c>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr"/>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>Écoute, j'ai fait un transfert transfert par interac sur chèque. Transfert par interac XX. Ce matin de de 600$. Et le destinataire arrive pas à prendre je sais pas c'est quoi qui se passe.</t>
+        </is>
+      </c>
+      <c r="N594" t="inlineStr"/>
+      <c r="O594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -23688,6 +28052,13 @@
       </c>
       <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr"/>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>Et que toute j'ai fait un transfert bla-bla-bla. Transfert par interac sur. Chèque, bla-bla-bla. Un transfert par interac ce ce matin de 600$. Et le dessinateur n'arrive pas à prendre, je sais pas c'est quoi qui se passe.</t>
+        </is>
+      </c>
+      <c r="N595" t="inlineStr"/>
+      <c r="O595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -23726,6 +28097,13 @@
       </c>
       <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr"/>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>Écoute, j'ai fait un transfert. Bla-bla transfert par interac sur chèque bla-bla. Un transfert par interac ce. Ce matin de de 600,00$, le destinataire n'arrive pas à prendre, je sais pas c'est quoi qui se passe.</t>
+        </is>
+      </c>
+      <c r="N596" t="inlineStr"/>
+      <c r="O596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -23764,6 +28142,13 @@
       </c>
       <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr"/>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>Oui Bonjour c'est moi, j'ai un compte avec banque nationale là, puis c'est récent et là je voulais aller en ligne pour entrer dans mon compte et on ne reconnaissait pas ma carte débit, ma carte client puis les infos que j'ai donné donc voilà c'est pour ça que je vous appelle aujourd'hui.</t>
+        </is>
+      </c>
+      <c r="N597" t="inlineStr"/>
+      <c r="O597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -23802,6 +28187,13 @@
       </c>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour c'est que moi j'ai un compte avec banque nationale là puis c'est récent et là je voudrais aller en ligne pour entrer dans mon compte et on ne reconnaissait pas ma carte de débit, ma carte client puis les infos que j'ai donné donc voilà c'est pour ça que je vous appelle aujourd'hui.</t>
+        </is>
+      </c>
+      <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -23840,6 +28232,13 @@
       </c>
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr"/>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour c'est que moi j'ai un compte avec banque nationale. Puis c'est récent. Et là je voulais aller en ligne pour entrer dans mon compte et on ne connaissait pas ma carte débit, ma carte client, puis les infos que j'ai donné. Donc voilà, c'est pour ça que je vous appelle aujourd'hui.</t>
+        </is>
+      </c>
+      <c r="N599" t="inlineStr"/>
+      <c r="O599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -23878,6 +28277,13 @@
       </c>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr"/>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>J'ai reçu par la poste un avis pour le renouvellement de mon prêt hypothécaire, puis je voulais en discuter avec vous là moi ça serait possiblement le taux variable que je choisirais donc peut-être que je vous donne mon numéro de prêt hypothécaire.</t>
+        </is>
+      </c>
+      <c r="N600" t="inlineStr"/>
+      <c r="O600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -23916,6 +28322,13 @@
       </c>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr"/>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>J'ai reçu par la poste un avis pour le renouvellement de mon prêt hypothécaire, puis je voudrais en discuter avec vous là, mais ça serait possiblement le taux variable que je choisirais donc peut-être que je vous donne mon numéro de prêt hypothécaire.</t>
+        </is>
+      </c>
+      <c r="N601" t="inlineStr"/>
+      <c r="O601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -23954,6 +28367,13 @@
       </c>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr"/>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>J'ai reçu par la poste un avis pour le renouvellement de mon prêt hypothécaire, puis je voulais en discuter avec vous là moi ça serait possiblement le taux variable que je choisirais donc peut-être que je vous donne mon numéro de prêt hypothécaire.</t>
+        </is>
+      </c>
+      <c r="N602" t="inlineStr"/>
+      <c r="O602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -23992,6 +28412,13 @@
       </c>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>Oui, moi j'ai appelé en début de semaine pour appliquer les points, mes points sur mon hypothèque, puis là, hier j'ai eu un courriel comme quoi que Attendez, je vais comme quoi ma demande a été annulée mais j'ai pas annulé ma demande.</t>
+        </is>
+      </c>
+      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -24030,6 +28457,13 @@
       </c>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr"/>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>Oui, moi j'ai appelé en début de semaine pour appliquer les points, mes points sur mon hypothèque, puis là hier j'ai reçu un courriel comme quoi que Attendez, je vais comme quoi ma demande a été annulée mais j'ai pas annulé ma demande.</t>
+        </is>
+      </c>
+      <c r="N604" t="inlineStr"/>
+      <c r="O604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -24068,6 +28502,13 @@
       </c>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr"/>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>Oui, moi j'ai appelé en début de semaine pour appliquer les points, mes points sur mon hypothèque, puis là, hier, j'aurais eu un courriel comme quoi. Que Attendez, je vais comme quoi? Ma demande a été annulée mais j'ai pas annulé ma demande.</t>
+        </is>
+      </c>
+      <c r="N605" t="inlineStr"/>
+      <c r="O605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -24106,6 +28547,13 @@
       </c>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr"/>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>Je voudrais facturer un paiement via mon compte bancaire du solde de 23000 et des poussières. Là je me rappelle plus exactement combien qui est le le compte là.</t>
+        </is>
+      </c>
+      <c r="N606" t="inlineStr"/>
+      <c r="O606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -24144,6 +28592,13 @@
       </c>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr"/>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>Je voudrais facturer un paiement via mon compte bancaire du solde de 23000 et des poussières. Là je me rappelle plus exactement combien qui est le le compte là.</t>
+        </is>
+      </c>
+      <c r="N607" t="inlineStr"/>
+      <c r="O607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -24182,6 +28637,13 @@
       </c>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>Je voudrais facturer un paiement via mon compte bancaire du solde de 23000 et des poussières. Là je m'appelle plus exactement combien, qui est les, les contrats?</t>
+        </is>
+      </c>
+      <c r="N608" t="inlineStr"/>
+      <c r="O608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -24220,6 +28682,13 @@
       </c>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr"/>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>Je voudrais faire 3 arrêts de paiement.</t>
+        </is>
+      </c>
+      <c r="N609" t="inlineStr"/>
+      <c r="O609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -24258,6 +28727,13 @@
       </c>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr"/>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>Je voudrais faire 3 arrêts de paiement.</t>
+        </is>
+      </c>
+      <c r="N610" t="inlineStr"/>
+      <c r="O610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -24296,6 +28772,13 @@
       </c>
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr"/>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>Je voudrais faire 3 arrêts de paiement.</t>
+        </is>
+      </c>
+      <c r="N611" t="inlineStr"/>
+      <c r="O611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -24334,6 +28817,13 @@
       </c>
       <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr"/>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>Donc c'est juste pour avoir une information par rapport à niveau. Est-ce que vous donnez des cartes comme par exemple comme tu sais, quelqu'un qui bâtit son crédit là, okay. Est-ce que vous donnez comme une carte comme comme carte, comme une manière que tu payes là puis qu'on peut avoir comme par exemple une carte comme de crédit?</t>
+        </is>
+      </c>
+      <c r="N612" t="inlineStr"/>
+      <c r="O612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -24372,6 +28862,13 @@
       </c>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr"/>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>Donc c'est juste pour avoir une information par rapport à niveau. Est-ce que vous donnez des cartes comme par exemple, comme si tu sais quelqu'un qui bâtit son crédit là, okay. Est-ce que vous donnez comme une carte comme comme carte, comme une manière que tu payes là et puis qu'on peut avoir, comme par exemple une carte comme de crédit?</t>
+        </is>
+      </c>
+      <c r="N613" t="inlineStr"/>
+      <c r="O613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -24410,6 +28907,13 @@
       </c>
       <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr"/>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>Donc c'est juste pour avoir une information par rapport à niveau. Est-ce que vous donnez des cartes comme par exemple comme tu sais, quelqu'un qui bâtit son crédit là, okay. Est-ce que vous donnez comme une carte comme comme carte, comme une manière que tu payes là et puis qu'on peut avoir, comme par exemple une carte comme de crédit?</t>
+        </is>
+      </c>
+      <c r="N614" t="inlineStr"/>
+      <c r="O614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -24460,6 +28964,17 @@
       <c r="L615" t="n">
         <v>1</v>
       </c>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, moi j'aimerais avoir le solde de mon celi. Je vais vous donner le le numéro.</t>
+        </is>
+      </c>
+      <c r="N615" t="n">
+        <v>1</v>
+      </c>
+      <c r="O615" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -24510,6 +29025,17 @@
       <c r="L616" t="n">
         <v>1</v>
       </c>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, moi j'aimerais avoir le solde de mon celi. Je vais vous donner le numéro.</t>
+        </is>
+      </c>
+      <c r="N616" t="n">
+        <v>1</v>
+      </c>
+      <c r="O616" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -24558,6 +29084,17 @@
         <v>1</v>
       </c>
       <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, moi j'aimerais avoir le solde de mon celi. Je vais vous donner le le numéro.</t>
+        </is>
+      </c>
+      <c r="N617" t="n">
+        <v>1</v>
+      </c>
+      <c r="O617" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24598,6 +29135,13 @@
       </c>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr"/>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>Oui Bonjour moi je téléphone parce que j'ai une question, je consulte mon relevé de banque et puis y a une transaction que j'arrive pas à identifier celle du 17 septembre.</t>
+        </is>
+      </c>
+      <c r="N618" t="inlineStr"/>
+      <c r="O618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -24636,6 +29180,13 @@
       </c>
       <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr"/>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>Oui Bonjour moi je téléphone parce que j'ai une question, je consulte mon relevé de banque et puis il y a une transaction que j'arrive pas à identifier, c'est celle du 17 septembre.</t>
+        </is>
+      </c>
+      <c r="N619" t="inlineStr"/>
+      <c r="O619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -24674,6 +29225,13 @@
       </c>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr"/>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>Moi, j'aimerais transférer 1000$ en Floride, s'il vous plaît de mon compte américain.</t>
+        </is>
+      </c>
+      <c r="N620" t="inlineStr"/>
+      <c r="O620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -24712,6 +29270,13 @@
       </c>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr"/>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>Moi, j'aimerais transférer 1000$ en Floride, s'il vous plaît de mon compte américain.</t>
+        </is>
+      </c>
+      <c r="N621" t="inlineStr"/>
+      <c r="O621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -24750,6 +29315,13 @@
       </c>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr"/>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>Dans un premier temps, j'ai fait, j'ai déposé un chèque le 13 octobre de 3809 et 27 lequel montant a été retiré le lendemain.</t>
+        </is>
+      </c>
+      <c r="N622" t="inlineStr"/>
+      <c r="O622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -24788,6 +29360,13 @@
       </c>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr"/>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>Ah, ça va être bien simple, Madame, j'aimerais ça prendre mes points de récompense, payer pour payer une partie de ma carte s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N623" t="inlineStr"/>
+      <c r="O623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -24826,6 +29405,13 @@
       </c>
       <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr"/>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>Ah, ça va être bien simple, Madame, j'aimerais ça prendre mes points de récompense, payer pour payer une partie de ma carte s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N624" t="inlineStr"/>
+      <c r="O624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -24864,6 +29450,13 @@
       </c>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr"/>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>Malheureusement. Ha ha je me suis trompée dans mon espace. J'ai demandé de pouvoir le réinitialiser mais je le reçois pas dans mon adresse mail fait que je le sais pas si par texto ou par téléphone aujourd'hui je peux recevoir un code puis trouver une manière de de remettre à jour sans passer par l'adresse courriel parce qu'on disait que mon adresse courriel est est problématique en ce moment.</t>
+        </is>
+      </c>
+      <c r="N625" t="inlineStr"/>
+      <c r="O625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -24902,6 +29495,13 @@
       </c>
       <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr"/>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t>Malheureusement, je me suis trompé dans mon espace, j'ai demandé de pouvoir le réinitialiser mais je le reçois pas dans mon adresse mail fait que je ne sais pas si par texto ou par téléphone aujourd'hui je peux recevoir un code puis trouver une manière de de remettre à jour sans passer par l'adresse courriel parce qu'on disait que mon adresse courriel est est problématique en ce moment.</t>
+        </is>
+      </c>
+      <c r="N626" t="inlineStr"/>
+      <c r="O626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -24940,6 +29540,13 @@
       </c>
       <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr"/>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>Malheureusement, je me suis trompé dans mon espace, j'ai demandé de pouvoir le réinitialiser mais je le reçois pas dans mon adresse mail fin que je le sais pas si par texto ou par téléphone aujourd'hui je peux recevoir un code puis trouver une manière de de remettre à jour sans passer par l'adresse courriel parce qu'on disait que mon adresse courriel est est problématique en ce moment.</t>
+        </is>
+      </c>
+      <c r="N627" t="inlineStr"/>
+      <c r="O627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -24978,6 +29585,13 @@
       </c>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr"/>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>Ben moi, je voulais savoir avec la carte la, la carte World Elite. Est-ce que j'ai comme qu'est-ce que je peux avoir comme assurance voyage avec ça?</t>
+        </is>
+      </c>
+      <c r="N628" t="inlineStr"/>
+      <c r="O628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -25016,6 +29630,13 @@
       </c>
       <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr"/>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>Ben moi, je voulais savoir avec la carte la carte World Elite qu'est-ce que j'ai? Comme qu'est-ce que je peux avoir comme assurance voyage avec ça?</t>
+        </is>
+      </c>
+      <c r="N629" t="inlineStr"/>
+      <c r="O629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -25054,6 +29675,13 @@
       </c>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr"/>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>On a un compte d'ouvert chez vous et puis après maintes procédures, on a réussi à finaliser toutes les les, les signatures pour avoir accès au compte, parce qu'on est quand même 4 actionnaires, 44 personnes qui sont signataires du compte, puis là j'aimerais pouvoir avoir accès aux comptes de la de la Corporation par le site web et de de la Banque nationale.</t>
+        </is>
+      </c>
+      <c r="N630" t="inlineStr"/>
+      <c r="O630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -25092,6 +29720,13 @@
       </c>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr"/>
+      <c r="M631" t="inlineStr">
+        <is>
+          <t>On a un compte d'ouvert chez vous et puis, après maintes maintes procédures, on a réussi à finaliser toutes les toutes les les, les signatures pour avoir accès au compte, parce qu'on est quand même 4 actionnaires, 44 personnes qui sont signataires du compte. Depuis là, j'aimerais pouvoir avoir accès au compte de la de la Corporation par le le site web et de de. La Banque nationale.</t>
+        </is>
+      </c>
+      <c r="N631" t="inlineStr"/>
+      <c r="O631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -25130,6 +29765,13 @@
       </c>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr"/>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t>On a un compte d'ouvert chez vous et puis, après maintes maintes procédures, on a réussi à finaliser toutes les toutes les les, les signatures pour avoir accès aux comptes, parce qu'on est quand même 4 actionnaires, 44 personnes qui sont signataires du compte. Puis là j'aimerais pouvoir avoir accès au compte de la de la Corporation par le le site web et de de la Banque nationale.</t>
+        </is>
+      </c>
+      <c r="N632" t="inlineStr"/>
+      <c r="O632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -25168,6 +29810,13 @@
       </c>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr"/>
+      <c r="M633" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, mon fils m'a envoyé 1495$ à déposer dans mon compte. Et puis je fais accepter il y a un message qui dit c'est wf tiret 412 2 point. Votre transaction ne peut pas être effectuée dû à un problème technique.</t>
+        </is>
+      </c>
+      <c r="N633" t="inlineStr"/>
+      <c r="O633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -25206,6 +29855,13 @@
       </c>
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr"/>
+      <c r="M634" t="inlineStr">
+        <is>
+          <t>Oui, Bonjour, mon fils m'a envoyé 1495$ à déposer dans mon compte. Et puis lorsque je fais accepter il y a un message qui vient, c'est WF tiret 412. Votre transaction ne peut être effectuée dû à un problème technique.</t>
+        </is>
+      </c>
+      <c r="N634" t="inlineStr"/>
+      <c r="O634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -25244,6 +29900,13 @@
       </c>
       <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr"/>
+      <c r="M635" t="inlineStr">
+        <is>
+          <t>M'aider, ça fait comme avant. Hier j'ai essayé dans le aller dans la nouvelle banque en ligne et puis c'est parce que j'avais 2 adresses courriel. Alors bon Ben la personne qui était sur telnet m'a dit Okay, donnez-moi le bon courriel parce que j'avais oublié que j'avais une tablette, que quelqu'un m'avait donné en cadeau et il m'avait mis l'adresse courriel au quai. Alors lui dit Okay, on fait ce choix là, puis après ça, il m'avait dit que vous me rappellerez. Dans 1h de heure. Mais là, j'étais trop énervée à alors je vous rappelle aujourd'hui pour continuer.</t>
+        </is>
+      </c>
+      <c r="N635" t="inlineStr"/>
+      <c r="O635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -25282,6 +29945,13 @@
       </c>
       <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr"/>
+      <c r="M636" t="inlineStr">
+        <is>
+          <t>M'aider sa fait comme avant hier j'ai essayé dans le aller dans la nouvelle banque en ligne et puis c'est parce que j'avais 2 adresses courriel. Alors bon Ben la personne qui était sur telnat m'a dit Okay, donnez-moi le bon courriel parce que j'avais oublié que j'avais une tablette, que quelqu'un m'avait donné en cadeau et il m'avait mis l'adresse courriel, okay? Alors lui dis Okay, on fait ce choix là, puis après ça il m'avait dit, Vous me rappellerez dans 1h 2h, mais là j'étais trop énervée. Alors je vous appelle aujourd'hui pour continuer.</t>
+        </is>
+      </c>
+      <c r="N636" t="inlineStr"/>
+      <c r="O636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -25320,6 +29990,13 @@
       </c>
       <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr"/>
+      <c r="M637" t="inlineStr">
+        <is>
+          <t>M'aider, ça fait comme avant. Hier j'ai essayé dans le aller dans la nouvelle banque en ligne et puis c'est parce que j'avais 2 adresses courriel alors. Bon Ben la personne qui était sur telnat m'a dit Okay? Donnez-moi le bon courriel parce que j'avais oublié que j'avais une tablette, que quelqu'un m'avait donné un cadeau et il m'avait mis l'adresse courriel, okay? Alors lui dis, Okay, on fait ce choix là, puis après ça, il m'avait dit que vous me rappellerez dans 1h 2h00, mais là j'étais trop énervée. Alors je vous appelle aujourd'hui pour continuer.</t>
+        </is>
+      </c>
+      <c r="N637" t="inlineStr"/>
+      <c r="O637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -25358,6 +30035,13 @@
       </c>
       <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr"/>
+      <c r="M638" t="inlineStr">
+        <is>
+          <t>Oui, j'ai appelé hier pour temporairement mettre sur hold ma carte puis je l'ai retrouvé un matin.</t>
+        </is>
+      </c>
+      <c r="N638" t="inlineStr"/>
+      <c r="O638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -25396,6 +30080,13 @@
       </c>
       <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr"/>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t>Oui, j'ai appelé hier pour temporairement mettre sur hold ma carte puis je l'ai retrouvé un matin.</t>
+        </is>
+      </c>
+      <c r="N639" t="inlineStr"/>
+      <c r="O639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -25434,6 +30125,13 @@
       </c>
       <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr"/>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>Oui, j'ai appelé hier pour temporairement mettre sur hold ma carte puis je l'ai retrouvé à matin.</t>
+        </is>
+      </c>
+      <c r="N640" t="inlineStr"/>
+      <c r="O640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -25472,6 +30170,13 @@
       </c>
       <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr"/>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>Dans le fond, qu'est-ce qui est arrivé, c'est que j'ai canceller mon compte il y a un an, j'ai reçu une lettre, aujourd'hui, c'est pour ça que je vous appelais en tout cas, j'ai reçu une lettre comme quoi que je devais des frais annuels de 29 et 71$ mais j'ai plus de carte avec vous.</t>
+        </is>
+      </c>
+      <c r="N641" t="inlineStr"/>
+      <c r="O641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -25510,6 +30215,13 @@
       </c>
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr"/>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>Dans le fond, qu'est-ce qui est arrivé, c'est que j'ai cancellé mon compte il y a un an, mais j'ai reçu une lettre aujourd'hui. C'est pour ça que je vous appelais en tout cas, j'ai reçu une lettre comme quoi je devais des frais annuels de 29,71$, mais j'ai plus de carte avec vous.</t>
+        </is>
+      </c>
+      <c r="N642" t="inlineStr"/>
+      <c r="O642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -25548,6 +30260,13 @@
       </c>
       <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr"/>
+      <c r="M643" t="inlineStr">
+        <is>
+          <t>Dans le fond, qu'est-ce qui est arrivé, c'est que j'ai cancellé mon compte il y a un an, mais j'ai reçu une lettre aujourd'hui. C'est pour ça que je vous appelais en tout cas, j'ai reçu une lettre comme quoi je devais des frais annuels de 29 et 71$ mais j'ai plus de carte avec vous.</t>
+        </is>
+      </c>
+      <c r="N643" t="inlineStr"/>
+      <c r="O643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -25586,6 +30305,13 @@
       </c>
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr"/>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>Oui, moi, pour aller voir mon mon compte sur Inter, sur Internet. La nouvelle version là, Ben je suis pas capable.</t>
+        </is>
+      </c>
+      <c r="N644" t="inlineStr"/>
+      <c r="O644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -25624,6 +30350,13 @@
       </c>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr">
+        <is>
+          <t>Oui, moi, pour aller voir mon mon compte sur Inter, sur Internet. La nouvelle version là, Ben je suis pas capable.</t>
+        </is>
+      </c>
+      <c r="N645" t="inlineStr"/>
+      <c r="O645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -25662,6 +30395,13 @@
       </c>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr"/>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>Oui, moi, pour aller voir mon mon compte sur Inter, sur Internet. La nouvelle version, là bien, je suis pas capable.</t>
+        </is>
+      </c>
+      <c r="N646" t="inlineStr"/>
+      <c r="O646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -25700,6 +30440,13 @@
       </c>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr"/>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>J'aimerais juste faire activer cette carte là.</t>
+        </is>
+      </c>
+      <c r="N647" t="inlineStr"/>
+      <c r="O647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -25738,6 +30485,13 @@
       </c>
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr"/>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>J'aimerais juste faire activer cette carte là.</t>
+        </is>
+      </c>
+      <c r="N648" t="inlineStr"/>
+      <c r="O648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -25776,6 +30530,13 @@
       </c>
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr"/>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>J'aimerais juste faire activer cette carte là.</t>
+        </is>
+      </c>
+      <c r="N649" t="inlineStr"/>
+      <c r="O649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -25814,6 +30575,13 @@
       </c>
       <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr"/>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>En fait, je vous appelle concernant des transactions sur ma Mastercard.</t>
+        </is>
+      </c>
+      <c r="N650" t="inlineStr"/>
+      <c r="O650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -25852,6 +30620,13 @@
       </c>
       <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr"/>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>En fait, je vous appelle concernant des transactions sur mon Mastercard.</t>
+        </is>
+      </c>
+      <c r="N651" t="inlineStr"/>
+      <c r="O651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -25890,6 +30665,13 @@
       </c>
       <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr"/>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>En fait, je vous appelle concernant des transactions sur ma Mastercard.</t>
+        </is>
+      </c>
+      <c r="N652" t="inlineStr"/>
+      <c r="O652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -25928,6 +30710,13 @@
       </c>
       <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr"/>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>Oui, moi j'appelais parce que j'ai rouvert un compte en ligne.</t>
+        </is>
+      </c>
+      <c r="N653" t="inlineStr"/>
+      <c r="O653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -25966,6 +30755,13 @@
       </c>
       <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr"/>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>Oui, moi j'appelais parce que j'ai rouvert un compte en ligne.</t>
+        </is>
+      </c>
+      <c r="N654" t="inlineStr"/>
+      <c r="O654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -26004,6 +30800,13 @@
       </c>
       <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr"/>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>Oui, moi j'appelais parce que j'ai rouvert un compte en ligne.</t>
+        </is>
+      </c>
+      <c r="N655" t="inlineStr"/>
+      <c r="O655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -26042,6 +30845,13 @@
       </c>
       <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr"/>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>Oui, j'ai un prêt auto chez vous. Et puis j'aimerais savoir si je le liquidais aujourd'hui la combien ça me coûterait de rembourser ça aujourd'hui là?</t>
+        </is>
+      </c>
+      <c r="N656" t="inlineStr"/>
+      <c r="O656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -26080,6 +30890,13 @@
       </c>
       <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr"/>
+      <c r="M657" t="inlineStr">
+        <is>
+          <t>Oui, j'ai un prêt auto chez vous. Et puis j'aimerais savoir si je le liquidais aujourd'hui là ça combien ça me coûterait de rembourser ça aujourd'hui là?</t>
+        </is>
+      </c>
+      <c r="N657" t="inlineStr"/>
+      <c r="O657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -26118,6 +30935,13 @@
       </c>
       <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr"/>
+      <c r="M658" t="inlineStr">
+        <is>
+          <t>Ce serait pour j'ai. J'ai un petit prêt, il me reste un petit prêt chez vous. Puis je voudrais juste savoir mon solde?</t>
+        </is>
+      </c>
+      <c r="N658" t="inlineStr"/>
+      <c r="O658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -26156,6 +30980,13 @@
       </c>
       <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr"/>
+      <c r="M659" t="inlineStr">
+        <is>
+          <t>Ce serait pour j'ai un petit prêt, il me reste un petit prêt chez vous pis je voudrais juste savoir mon solde?</t>
+        </is>
+      </c>
+      <c r="N659" t="inlineStr"/>
+      <c r="O659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -26194,6 +31025,13 @@
       </c>
       <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr"/>
+      <c r="M660" t="inlineStr">
+        <is>
+          <t>Ça serait pour j'ai. J'ai un petit prêt, il me reste un petit prêt chez vous puis je voudrais juste savoir mon solde.</t>
+        </is>
+      </c>
+      <c r="N660" t="inlineStr"/>
+      <c r="O660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -26242,6 +31080,15 @@
         <v>0</v>
       </c>
       <c r="L661" t="inlineStr"/>
+      <c r="M661" t="inlineStr">
+        <is>
+          <t>Très bien. Je voudrais échanger mes points pour de l'argent, de le mettre dans mon compte s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N661" t="n">
+        <v>0</v>
+      </c>
+      <c r="O661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -26290,6 +31137,17 @@
         <v>1</v>
       </c>
       <c r="L662" t="n">
+        <v>1</v>
+      </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>Très bien. Je voudrais changer mes points pour de l'argent, de le mettre dans mon celi s'il vous plaît.</t>
+        </is>
+      </c>
+      <c r="N662" t="n">
+        <v>1</v>
+      </c>
+      <c r="O662" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26330,6 +31188,13 @@
       </c>
       <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr"/>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>Là, je j'avais commandé, me m'en vais te faire un topo vite fait avec une TV et d'autres choses, et là, en fin de compte, j'ai fait annuler la commande pour commander d'autres choses, mais là, quand je vais sur le site tel quel ça m'dit comme quoi la commande est encore en cours parce que je voulais voir dans ces transactions qu'est-ce qui était si ça avait été annulé ou pas par rapport au à à la hauteur d'action de la carte là?</t>
+        </is>
+      </c>
+      <c r="N663" t="inlineStr"/>
+      <c r="O663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -26368,6 +31233,13 @@
       </c>
       <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr"/>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>Là, je j'avais commandé me faire un topo vite vite, une TV avec d'autres choses et là, en fin de compte, j'ai fait annuler la commande pour commander d'autres choses, mais là, quand je vais sur le site tel quel ça m'dit comme quoi la commande est encore en cours. Parce que je voulais voir dans ces transactions qu'est-ce qui était si ça avait été annulé ou pas par rapport au à, à la hauteur d'action de la carte là?</t>
+        </is>
+      </c>
+      <c r="N664" t="inlineStr"/>
+      <c r="O664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -26406,6 +31278,13 @@
       </c>
       <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr"/>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>J'appelle pour faire activer ma carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N665" t="inlineStr"/>
+      <c r="O665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -26444,6 +31323,13 @@
       </c>
       <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr"/>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>J'appelle pour faire activer ma carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N666" t="inlineStr"/>
+      <c r="O666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -26482,6 +31368,13 @@
       </c>
       <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr"/>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>J'appelle pour faire activer ma carte de crédit.</t>
+        </is>
+      </c>
+      <c r="N667" t="inlineStr"/>
+      <c r="O667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -26520,6 +31413,13 @@
       </c>
       <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr"/>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>Mais Ben là, dans le fond c'est ça. J'avais bruit ma carte de crédit dans le fond est brisée. Elle est comme mot, puis là la puce, elle fonctionne dans le fond dans juste certains magasins, là comme. Des fois, la capa, des fois ça peut marcher, mais je vais le commander de nouvelles cartes, mais je pense que j'ai comme réussi, peut-être à juste par téléphone, mais je voulais juste être sûre que.</t>
+        </is>
+      </c>
+      <c r="N668" t="inlineStr"/>
+      <c r="O668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -26558,6 +31458,13 @@
       </c>
       <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr"/>
+      <c r="M669" t="inlineStr">
+        <is>
+          <t>Mais Ben là, dans le fond, c'est ça. J'avais ma carte de crédit. Dans le fond, elle est brisée, elle est comme blabla. Pis là la puce elle fonctionne dans le fond dans juste certains magasins, là comme des fois il l'a capte pas, des fois ça peut marcher mais je voulais commander une nouvelle carte mais je pense j'ai comme réussi, peut-être à juste par téléphone mais je voulais juste être sûr que.</t>
+        </is>
+      </c>
+      <c r="N669" t="inlineStr"/>
+      <c r="O669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -26596,6 +31503,13 @@
       </c>
       <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr"/>
+      <c r="M670" t="inlineStr">
+        <is>
+          <t>Mais Ben là, dans le fond, c'est ça. J'avais ma carte de crédit. Dans le fond, elle est brisée, elle est comme Baba, puis là la puce, elle fonctionne dans le fond dans juste certains magasins, là, comme des fois il l'a capte pas, des fois ça peut marcher mais je voulais commander une nouvelle carte mais je pense, j'ai comme réussi, peut-être à juste par téléphone mais je voulais juste être sûre que.</t>
+        </is>
+      </c>
+      <c r="N670" t="inlineStr"/>
+      <c r="O670" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/results/f1_score_bank_corpusgen.xlsx
+++ b/results/f1_score_bank_corpusgen.xlsx
@@ -7769,9 +7769,11 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7828,9 +7830,11 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12762,7 +12766,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F262" t="n">
         <v>1</v>
